--- a/Output_Data/main_dataset.xlsx
+++ b/Output_Data/main_dataset.xlsx
@@ -40,7 +40,7 @@
     <t>No_of_tertiary_educated</t>
   </si>
   <si>
-    <t>Monthly_Mortgage_Repayment</t>
+    <t>Ppl_on_Mortgage</t>
   </si>
   <si>
     <t>Number_of_renters</t>
@@ -3423,7 +3423,7 @@
         <v>5158</v>
       </c>
       <c r="E2">
-        <v>352</v>
+        <v>66401</v>
       </c>
       <c r="F2">
         <v>190</v>
@@ -3458,7 +3458,7 @@
         <v>3206</v>
       </c>
       <c r="E3">
-        <v>1427</v>
+        <v>46033</v>
       </c>
       <c r="F3">
         <v>1628</v>
@@ -3493,7 +3493,7 @@
         <v>16285</v>
       </c>
       <c r="E4">
-        <v>8464</v>
+        <v>54807</v>
       </c>
       <c r="F4">
         <v>8147</v>
@@ -3528,7 +3528,7 @@
         <v>6914</v>
       </c>
       <c r="E5">
-        <v>3466</v>
+        <v>60508</v>
       </c>
       <c r="F5">
         <v>2670</v>
@@ -3563,7 +3563,7 @@
         <v>13375</v>
       </c>
       <c r="E6">
-        <v>8546</v>
+        <v>50559</v>
       </c>
       <c r="F6">
         <v>5701</v>
@@ -3598,7 +3598,7 @@
         <v>4908</v>
       </c>
       <c r="E7">
-        <v>2452</v>
+        <v>53634</v>
       </c>
       <c r="F7">
         <v>2132</v>
@@ -3633,7 +3633,7 @@
         <v>2286</v>
       </c>
       <c r="E8">
-        <v>1341</v>
+        <v>62609</v>
       </c>
       <c r="F8">
         <v>788</v>
@@ -3668,7 +3668,7 @@
         <v>14622</v>
       </c>
       <c r="E9">
-        <v>7126</v>
+        <v>52457</v>
       </c>
       <c r="F9">
         <v>7505</v>
@@ -3703,7 +3703,7 @@
         <v>3501</v>
       </c>
       <c r="E10">
-        <v>1580</v>
+        <v>50023</v>
       </c>
       <c r="F10">
         <v>1578</v>
@@ -3738,7 +3738,7 @@
         <v>15321</v>
       </c>
       <c r="E11">
-        <v>8416</v>
+        <v>57755</v>
       </c>
       <c r="F11">
         <v>6176</v>
@@ -3773,7 +3773,7 @@
         <v>10004</v>
       </c>
       <c r="E12">
-        <v>5041</v>
+        <v>50251</v>
       </c>
       <c r="F12">
         <v>4552</v>
@@ -3808,7 +3808,7 @@
         <v>10686</v>
       </c>
       <c r="E13">
-        <v>5421</v>
+        <v>56892</v>
       </c>
       <c r="F13">
         <v>5281</v>
@@ -3843,7 +3843,7 @@
         <v>11784</v>
       </c>
       <c r="E14">
-        <v>5680</v>
+        <v>49267</v>
       </c>
       <c r="F14">
         <v>4961</v>
@@ -3878,7 +3878,7 @@
         <v>6474</v>
       </c>
       <c r="E15">
-        <v>2994</v>
+        <v>47444</v>
       </c>
       <c r="F15">
         <v>3947</v>
@@ -3913,7 +3913,7 @@
         <v>11852</v>
       </c>
       <c r="E16">
-        <v>6878</v>
+        <v>59877</v>
       </c>
       <c r="F16">
         <v>4385</v>
@@ -3948,7 +3948,7 @@
         <v>9434</v>
       </c>
       <c r="E17">
-        <v>5473</v>
+        <v>74400</v>
       </c>
       <c r="F17">
         <v>3970</v>
@@ -3983,7 +3983,7 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>30686</v>
       </c>
       <c r="F18">
         <v>12</v>
@@ -4018,7 +4018,7 @@
         <v>15229</v>
       </c>
       <c r="E19">
-        <v>8419</v>
+        <v>65466</v>
       </c>
       <c r="F19">
         <v>6318</v>
@@ -4053,7 +4053,7 @@
         <v>10377</v>
       </c>
       <c r="E20">
-        <v>4924</v>
+        <v>67469</v>
       </c>
       <c r="F20">
         <v>3011</v>
@@ -4088,7 +4088,7 @@
         <v>8386</v>
       </c>
       <c r="E21">
-        <v>3867</v>
+        <v>48771</v>
       </c>
       <c r="F21">
         <v>3711</v>
@@ -4123,7 +4123,7 @@
         <v>3198</v>
       </c>
       <c r="E22">
-        <v>1422</v>
+        <v>43345</v>
       </c>
       <c r="F22">
         <v>1595</v>
@@ -4158,7 +4158,7 @@
         <v>24114</v>
       </c>
       <c r="E23">
-        <v>11487</v>
+        <v>51655</v>
       </c>
       <c r="F23">
         <v>9894</v>
@@ -4193,7 +4193,7 @@
         <v>4558</v>
       </c>
       <c r="E24">
-        <v>2149</v>
+        <v>40709</v>
       </c>
       <c r="F24">
         <v>2111</v>
@@ -4228,7 +4228,7 @@
         <v>6120</v>
       </c>
       <c r="E25">
-        <v>2800</v>
+        <v>49832</v>
       </c>
       <c r="F25">
         <v>2694</v>
@@ -4263,7 +4263,7 @@
         <v>10281</v>
       </c>
       <c r="E26">
-        <v>4956</v>
+        <v>53366</v>
       </c>
       <c r="F26">
         <v>4102</v>
@@ -4298,7 +4298,7 @@
         <v>13311</v>
       </c>
       <c r="E27">
-        <v>3690</v>
+        <v>98611</v>
       </c>
       <c r="F27">
         <v>3590</v>
@@ -4333,7 +4333,7 @@
         <v>5332</v>
       </c>
       <c r="E28">
-        <v>2406</v>
+        <v>49210</v>
       </c>
       <c r="F28">
         <v>2179</v>
@@ -4368,7 +4368,7 @@
         <v>18856</v>
       </c>
       <c r="E29">
-        <v>11469</v>
+        <v>71848</v>
       </c>
       <c r="F29">
         <v>6384</v>
@@ -4403,7 +4403,7 @@
         <v>10943</v>
       </c>
       <c r="E30">
-        <v>6042</v>
+        <v>43815</v>
       </c>
       <c r="F30">
         <v>5086</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>8766</v>
+        <v>39675</v>
       </c>
       <c r="F31">
         <v>5031</v>
@@ -4473,7 +4473,7 @@
         <v>5559</v>
       </c>
       <c r="E32">
-        <v>2787</v>
+        <v>51817</v>
       </c>
       <c r="F32">
         <v>3341</v>
@@ -4508,7 +4508,7 @@
         <v>3323</v>
       </c>
       <c r="E33">
-        <v>1326</v>
+        <v>45924</v>
       </c>
       <c r="F33">
         <v>1837</v>
@@ -4543,7 +4543,7 @@
         <v>9235</v>
       </c>
       <c r="E34">
-        <v>5508</v>
+        <v>46280</v>
       </c>
       <c r="F34">
         <v>4306</v>
@@ -4578,7 +4578,7 @@
         <v>4300</v>
       </c>
       <c r="E35">
-        <v>1964</v>
+        <v>51917</v>
       </c>
       <c r="F35">
         <v>2161</v>
@@ -4613,7 +4613,7 @@
         <v>20989</v>
       </c>
       <c r="E36">
-        <v>11413</v>
+        <v>60851</v>
       </c>
       <c r="F36">
         <v>8031</v>
@@ -4648,7 +4648,7 @@
         <v>5982</v>
       </c>
       <c r="E37">
-        <v>3170</v>
+        <v>60657</v>
       </c>
       <c r="F37">
         <v>2629</v>
@@ -4683,7 +4683,7 @@
         <v>14899</v>
       </c>
       <c r="E38">
-        <v>6943</v>
+        <v>47233</v>
       </c>
       <c r="F38">
         <v>6816</v>
@@ -4718,7 +4718,7 @@
         <v>15990</v>
       </c>
       <c r="E39">
-        <v>8248</v>
+        <v>60857</v>
       </c>
       <c r="F39">
         <v>7054</v>
@@ -4753,7 +4753,7 @@
         <v>12301</v>
       </c>
       <c r="E40">
-        <v>6350</v>
+        <v>62126</v>
       </c>
       <c r="F40">
         <v>5766</v>
@@ -4788,7 +4788,7 @@
         <v>23539</v>
       </c>
       <c r="E41">
-        <v>11911</v>
+        <v>56280</v>
       </c>
       <c r="F41">
         <v>10679</v>
@@ -4823,7 +4823,7 @@
         <v>24654</v>
       </c>
       <c r="E42">
-        <v>11560</v>
+        <v>48473</v>
       </c>
       <c r="F42">
         <v>11626</v>
@@ -4858,7 +4858,7 @@
         <v>17555</v>
       </c>
       <c r="E43">
-        <v>7820</v>
+        <v>48039</v>
       </c>
       <c r="F43">
         <v>8741</v>
@@ -4893,7 +4893,7 @@
         <v>17247</v>
       </c>
       <c r="E44">
-        <v>8327</v>
+        <v>50295</v>
       </c>
       <c r="F44">
         <v>6945</v>
@@ -4928,7 +4928,7 @@
         <v>16629</v>
       </c>
       <c r="E45">
-        <v>9957</v>
+        <v>119477</v>
       </c>
       <c r="F45">
         <v>7517</v>
@@ -4963,7 +4963,7 @@
         <v>4461</v>
       </c>
       <c r="E46">
-        <v>2453</v>
+        <v>44503</v>
       </c>
       <c r="F46">
         <v>2240</v>
@@ -4998,7 +4998,7 @@
         <v>8687</v>
       </c>
       <c r="E47">
-        <v>3762</v>
+        <v>62315</v>
       </c>
       <c r="F47">
         <v>4408</v>
@@ -5033,7 +5033,7 @@
         <v>6006</v>
       </c>
       <c r="E48">
-        <v>3234</v>
+        <v>47977</v>
       </c>
       <c r="F48">
         <v>2549</v>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>7522</v>
+        <v>46177</v>
       </c>
       <c r="F49">
         <v>5242</v>
@@ -5103,7 +5103,7 @@
         <v>4834</v>
       </c>
       <c r="E50">
-        <v>2272</v>
+        <v>48500</v>
       </c>
       <c r="F50">
         <v>2664</v>
@@ -5138,7 +5138,7 @@
         <v>16912</v>
       </c>
       <c r="E51">
-        <v>7746</v>
+        <v>57114</v>
       </c>
       <c r="F51">
         <v>8350</v>
@@ -5173,7 +5173,7 @@
         <v>2857</v>
       </c>
       <c r="E52">
-        <v>368</v>
+        <v>37309</v>
       </c>
       <c r="F52">
         <v>1170</v>
@@ -5208,7 +5208,7 @@
         <v>6665</v>
       </c>
       <c r="E53">
-        <v>3013</v>
+        <v>46814</v>
       </c>
       <c r="F53">
         <v>3073</v>
@@ -5243,7 +5243,7 @@
         <v>6266</v>
       </c>
       <c r="E54">
-        <v>3063</v>
+        <v>54038</v>
       </c>
       <c r="F54">
         <v>2750</v>
@@ -5278,7 +5278,7 @@
         <v>22478</v>
       </c>
       <c r="E55">
-        <v>10532</v>
+        <v>53649</v>
       </c>
       <c r="F55">
         <v>9083</v>
@@ -5313,7 +5313,7 @@
         <v>3840</v>
       </c>
       <c r="E56">
-        <v>2055</v>
+        <v>73772</v>
       </c>
       <c r="F56">
         <v>1386</v>
@@ -5348,7 +5348,7 @@
         <v>7871</v>
       </c>
       <c r="E57">
-        <v>3194</v>
+        <v>41233</v>
       </c>
       <c r="F57">
         <v>4643</v>
@@ -5383,7 +5383,7 @@
         <v>8510</v>
       </c>
       <c r="E58">
-        <v>3415</v>
+        <v>45842</v>
       </c>
       <c r="F58">
         <v>5806</v>
@@ -5418,7 +5418,7 @@
         <v>24454</v>
       </c>
       <c r="E59">
-        <v>12075</v>
+        <v>55580</v>
       </c>
       <c r="F59">
         <v>10471</v>
@@ -5453,7 +5453,7 @@
         <v>11424</v>
       </c>
       <c r="E60">
-        <v>5634</v>
+        <v>58388</v>
       </c>
       <c r="F60">
         <v>4171</v>
@@ -5488,7 +5488,7 @@
         <v>7006</v>
       </c>
       <c r="E61">
-        <v>3380</v>
+        <v>56824</v>
       </c>
       <c r="F61">
         <v>3051</v>
@@ -5523,7 +5523,7 @@
         <v>4899</v>
       </c>
       <c r="E62">
-        <v>2523</v>
+        <v>54582</v>
       </c>
       <c r="F62">
         <v>2065</v>
@@ -5558,7 +5558,7 @@
         <v>15313</v>
       </c>
       <c r="E63">
-        <v>6477</v>
+        <v>53567</v>
       </c>
       <c r="F63">
         <v>6722</v>
@@ -5593,7 +5593,7 @@
         <v>14196</v>
       </c>
       <c r="E64">
-        <v>6216</v>
+        <v>49626</v>
       </c>
       <c r="F64">
         <v>5835</v>
@@ -5628,7 +5628,7 @@
         <v>4454</v>
       </c>
       <c r="E65">
-        <v>1785</v>
+        <v>48396</v>
       </c>
       <c r="F65">
         <v>1992</v>
@@ -5663,7 +5663,7 @@
         <v>3799</v>
       </c>
       <c r="E66">
-        <v>1569</v>
+        <v>47342</v>
       </c>
       <c r="F66">
         <v>2320</v>
@@ -5698,7 +5698,7 @@
         <v>4632</v>
       </c>
       <c r="E67">
-        <v>2241</v>
+        <v>50690</v>
       </c>
       <c r="F67">
         <v>2095</v>
@@ -5733,7 +5733,7 @@
         <v>8593</v>
       </c>
       <c r="E68">
-        <v>4040</v>
+        <v>48843</v>
       </c>
       <c r="F68">
         <v>3988</v>
@@ -5768,7 +5768,7 @@
         <v>8952</v>
       </c>
       <c r="E69">
-        <v>4198</v>
+        <v>45027</v>
       </c>
       <c r="F69">
         <v>4402</v>
@@ -5803,7 +5803,7 @@
         <v>6743</v>
       </c>
       <c r="E70">
-        <v>4420</v>
+        <v>59137</v>
       </c>
       <c r="F70">
         <v>3314</v>
@@ -5838,7 +5838,7 @@
         <v>7569</v>
       </c>
       <c r="E71">
-        <v>3499</v>
+        <v>58148</v>
       </c>
       <c r="F71">
         <v>2891</v>
@@ -5873,7 +5873,7 @@
         <v>6007</v>
       </c>
       <c r="E72">
-        <v>2598</v>
+        <v>46554</v>
       </c>
       <c r="F72">
         <v>2564</v>
@@ -5908,7 +5908,7 @@
         <v>18223</v>
       </c>
       <c r="E73">
-        <v>8758</v>
+        <v>60969</v>
       </c>
       <c r="F73">
         <v>7386</v>
@@ -5943,7 +5943,7 @@
         <v>5745</v>
       </c>
       <c r="E74">
-        <v>2659</v>
+        <v>55627</v>
       </c>
       <c r="F74">
         <v>2735</v>
@@ -5978,7 +5978,7 @@
         <v>10420</v>
       </c>
       <c r="E75">
-        <v>4661</v>
+        <v>48855</v>
       </c>
       <c r="F75">
         <v>5156</v>
@@ -6013,7 +6013,7 @@
         <v>14770</v>
       </c>
       <c r="E76">
-        <v>7232</v>
+        <v>52118</v>
       </c>
       <c r="F76">
         <v>7378</v>
@@ -6048,7 +6048,7 @@
         <v>7346</v>
       </c>
       <c r="E77">
-        <v>3899</v>
+        <v>56844</v>
       </c>
       <c r="F77">
         <v>2741</v>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>8029</v>
+        <v>69831</v>
       </c>
       <c r="F78">
         <v>5792</v>
@@ -6118,7 +6118,7 @@
         <v>21057</v>
       </c>
       <c r="E79">
-        <v>10315</v>
+        <v>51308</v>
       </c>
       <c r="F79">
         <v>8840</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>6093</v>
+        <v>52771</v>
       </c>
       <c r="F80">
         <v>5517</v>
@@ -6188,7 +6188,7 @@
         <v>4211</v>
       </c>
       <c r="E81">
-        <v>2056</v>
+        <v>43819</v>
       </c>
       <c r="F81">
         <v>2077</v>
@@ -6223,7 +6223,7 @@
         <v>8953</v>
       </c>
       <c r="E82">
-        <v>3711</v>
+        <v>57765</v>
       </c>
       <c r="F82">
         <v>4635</v>
@@ -6258,7 +6258,7 @@
         <v>26874</v>
       </c>
       <c r="E83">
-        <v>14402</v>
+        <v>61662</v>
       </c>
       <c r="F83">
         <v>8275</v>
@@ -6293,7 +6293,7 @@
         <v>7936</v>
       </c>
       <c r="E84">
-        <v>4318</v>
+        <v>55383</v>
       </c>
       <c r="F84">
         <v>3434</v>
@@ -6328,7 +6328,7 @@
         <v>18948</v>
       </c>
       <c r="E85">
-        <v>8367</v>
+        <v>47364</v>
       </c>
       <c r="F85">
         <v>6232</v>
@@ -6363,7 +6363,7 @@
         <v>5883</v>
       </c>
       <c r="E86">
-        <v>3264</v>
+        <v>70490</v>
       </c>
       <c r="F86">
         <v>2580</v>
@@ -6398,7 +6398,7 @@
         <v>2795</v>
       </c>
       <c r="E87">
-        <v>1396</v>
+        <v>55803</v>
       </c>
       <c r="F87">
         <v>1320</v>
@@ -6433,7 +6433,7 @@
         <v>17519</v>
       </c>
       <c r="E88">
-        <v>9410</v>
+        <v>54138</v>
       </c>
       <c r="F88">
         <v>6179</v>
@@ -6468,7 +6468,7 @@
         <v>18627</v>
       </c>
       <c r="E89">
-        <v>10242</v>
+        <v>55503</v>
       </c>
       <c r="F89">
         <v>6295</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>8856</v>
+        <v>54176</v>
       </c>
       <c r="F90">
         <v>5460</v>
@@ -6538,7 +6538,7 @@
         <v>7355</v>
       </c>
       <c r="E91">
-        <v>3486</v>
+        <v>56878</v>
       </c>
       <c r="F91">
         <v>3201</v>
@@ -6573,7 +6573,7 @@
         <v>8510</v>
       </c>
       <c r="E92">
-        <v>4901</v>
+        <v>54798</v>
       </c>
       <c r="F92">
         <v>3306</v>
@@ -6643,7 +6643,7 @@
         <v>7416</v>
       </c>
       <c r="E94">
-        <v>4577</v>
+        <v>65392</v>
       </c>
       <c r="F94">
         <v>2573</v>
@@ -6678,7 +6678,7 @@
         <v>2420</v>
       </c>
       <c r="E95">
-        <v>1119</v>
+        <v>51435</v>
       </c>
       <c r="F95">
         <v>1323</v>
@@ -6713,7 +6713,7 @@
         <v>8931</v>
       </c>
       <c r="E96">
-        <v>4423</v>
+        <v>56676</v>
       </c>
       <c r="F96">
         <v>3908</v>
@@ -6748,7 +6748,7 @@
         <v>12153</v>
       </c>
       <c r="E97">
-        <v>5919</v>
+        <v>50374</v>
       </c>
       <c r="F97">
         <v>5051</v>
@@ -6783,7 +6783,7 @@
         <v>4637</v>
       </c>
       <c r="E98">
-        <v>2168</v>
+        <v>51338</v>
       </c>
       <c r="F98">
         <v>1878</v>
@@ -6818,7 +6818,7 @@
         <v>19498</v>
       </c>
       <c r="E99">
-        <v>9042</v>
+        <v>57331</v>
       </c>
       <c r="F99">
         <v>5687</v>
@@ -6853,7 +6853,7 @@
         <v>1883</v>
       </c>
       <c r="E100">
-        <v>883</v>
+        <v>63399</v>
       </c>
       <c r="F100">
         <v>811</v>
@@ -6888,7 +6888,7 @@
         <v>4185</v>
       </c>
       <c r="E101">
-        <v>1798</v>
+        <v>49696</v>
       </c>
       <c r="F101">
         <v>1978</v>
@@ -6923,7 +6923,7 @@
         <v>9208</v>
       </c>
       <c r="E102">
-        <v>5834</v>
+        <v>49011</v>
       </c>
       <c r="F102">
         <v>4652</v>
@@ -6958,7 +6958,7 @@
         <v>13218</v>
       </c>
       <c r="E103">
-        <v>5617</v>
+        <v>67250</v>
       </c>
       <c r="F103">
         <v>6052</v>
@@ -6993,7 +6993,7 @@
         <v>20839</v>
       </c>
       <c r="E104">
-        <v>11155</v>
+        <v>54600</v>
       </c>
       <c r="F104">
         <v>8728</v>
@@ -7028,7 +7028,7 @@
         <v>10073</v>
       </c>
       <c r="E105">
-        <v>5319</v>
+        <v>77809</v>
       </c>
       <c r="F105">
         <v>4314</v>
@@ -7063,7 +7063,7 @@
         <v>19523</v>
       </c>
       <c r="E106">
-        <v>9651</v>
+        <v>53675</v>
       </c>
       <c r="F106">
         <v>6755</v>
@@ -7098,7 +7098,7 @@
         <v>3950</v>
       </c>
       <c r="E107">
-        <v>1781</v>
+        <v>56450</v>
       </c>
       <c r="F107">
         <v>2294</v>
@@ -7133,7 +7133,7 @@
         <v>10365</v>
       </c>
       <c r="E108">
-        <v>5808</v>
+        <v>67952</v>
       </c>
       <c r="F108">
         <v>4130</v>
@@ -7168,7 +7168,7 @@
         <v>4758</v>
       </c>
       <c r="E109">
-        <v>2372</v>
+        <v>56729</v>
       </c>
       <c r="F109">
         <v>1794</v>
@@ -7203,7 +7203,7 @@
         <v>11222</v>
       </c>
       <c r="E110">
-        <v>5491</v>
+        <v>53474</v>
       </c>
       <c r="F110">
         <v>4400</v>
@@ -7238,7 +7238,7 @@
         <v>6419</v>
       </c>
       <c r="E111">
-        <v>2719</v>
+        <v>56345</v>
       </c>
       <c r="F111">
         <v>3314</v>
@@ -7273,7 +7273,7 @@
         <v>8299</v>
       </c>
       <c r="E112">
-        <v>4078</v>
+        <v>44362</v>
       </c>
       <c r="F112">
         <v>5744</v>
@@ -7308,7 +7308,7 @@
         <v>3839</v>
       </c>
       <c r="E113">
-        <v>2334</v>
+        <v>62981</v>
       </c>
       <c r="F113">
         <v>1136</v>
@@ -7343,7 +7343,7 @@
         <v>5547</v>
       </c>
       <c r="E114">
-        <v>3330</v>
+        <v>60753</v>
       </c>
       <c r="F114">
         <v>2128</v>
@@ -7378,7 +7378,7 @@
         <v>13916</v>
       </c>
       <c r="E115">
-        <v>5224</v>
+        <v>41087</v>
       </c>
       <c r="F115">
         <v>4862</v>
@@ -7413,7 +7413,7 @@
         <v>8745</v>
       </c>
       <c r="E116">
-        <v>3678</v>
+        <v>82080</v>
       </c>
       <c r="F116">
         <v>4946</v>
@@ -7448,7 +7448,7 @@
         <v>18114</v>
       </c>
       <c r="E117">
-        <v>8476</v>
+        <v>56183</v>
       </c>
       <c r="F117">
         <v>9658</v>
@@ -7483,7 +7483,7 @@
         <v>3836</v>
       </c>
       <c r="E118">
-        <v>1518</v>
+        <v>49334</v>
       </c>
       <c r="F118">
         <v>1913</v>
@@ -7518,7 +7518,7 @@
         <v>14535</v>
       </c>
       <c r="E119">
-        <v>9319</v>
+        <v>59328</v>
       </c>
       <c r="F119">
         <v>7363</v>
@@ -7553,7 +7553,7 @@
         <v>3341</v>
       </c>
       <c r="E120">
-        <v>1400</v>
+        <v>49123</v>
       </c>
       <c r="F120">
         <v>2347</v>
@@ -7588,7 +7588,7 @@
         <v>7147</v>
       </c>
       <c r="E121">
-        <v>4317</v>
+        <v>63196</v>
       </c>
       <c r="F121">
         <v>2794</v>
@@ -7623,7 +7623,7 @@
         <v>27435</v>
       </c>
       <c r="E122">
-        <v>18389</v>
+        <v>63341</v>
       </c>
       <c r="F122">
         <v>12306</v>
@@ -7658,7 +7658,7 @@
         <v>8602</v>
       </c>
       <c r="E123">
-        <v>3985</v>
+        <v>44733</v>
       </c>
       <c r="F123">
         <v>4169</v>
@@ -7693,7 +7693,7 @@
         <v>7902</v>
       </c>
       <c r="E124">
-        <v>3743</v>
+        <v>46095</v>
       </c>
       <c r="F124">
         <v>3838</v>
@@ -7728,7 +7728,7 @@
         <v>6718</v>
       </c>
       <c r="E125">
-        <v>3423</v>
+        <v>57700</v>
       </c>
       <c r="F125">
         <v>3117</v>
@@ -7763,7 +7763,7 @@
         <v>4785</v>
       </c>
       <c r="E126">
-        <v>2148</v>
+        <v>48807</v>
       </c>
       <c r="F126">
         <v>2361</v>
@@ -7798,7 +7798,7 @@
         <v>6285</v>
       </c>
       <c r="E127">
-        <v>2661</v>
+        <v>42496</v>
       </c>
       <c r="F127">
         <v>3211</v>
@@ -7833,7 +7833,7 @@
         <v>6250</v>
       </c>
       <c r="E128">
-        <v>4297</v>
+        <v>29771</v>
       </c>
       <c r="F128">
         <v>3209</v>
@@ -7868,7 +7868,7 @@
         <v>5564</v>
       </c>
       <c r="E129">
-        <v>2826</v>
+        <v>50372</v>
       </c>
       <c r="F129">
         <v>2361</v>
@@ -7903,7 +7903,7 @@
         <v>7304</v>
       </c>
       <c r="E130">
-        <v>3358</v>
+        <v>43595</v>
       </c>
       <c r="F130">
         <v>3365</v>
@@ -7938,7 +7938,7 @@
         <v>8971</v>
       </c>
       <c r="E131">
-        <v>3978</v>
+        <v>49649</v>
       </c>
       <c r="F131">
         <v>4015</v>
@@ -7973,7 +7973,7 @@
         <v>9921</v>
       </c>
       <c r="E132">
-        <v>4481</v>
+        <v>43875</v>
       </c>
       <c r="F132">
         <v>5196</v>
@@ -8008,7 +8008,7 @@
         <v>10292</v>
       </c>
       <c r="E133">
-        <v>5062</v>
+        <v>55929</v>
       </c>
       <c r="F133">
         <v>3780</v>
@@ -8043,7 +8043,7 @@
         <v>7311</v>
       </c>
       <c r="E134">
-        <v>3650</v>
+        <v>60736</v>
       </c>
       <c r="F134">
         <v>2569</v>
@@ -8078,7 +8078,7 @@
         <v>8928</v>
       </c>
       <c r="E135">
-        <v>4698</v>
+        <v>54985</v>
       </c>
       <c r="F135">
         <v>3264</v>
@@ -8113,7 +8113,7 @@
         <v>8036</v>
       </c>
       <c r="E136">
-        <v>4022</v>
+        <v>48817</v>
       </c>
       <c r="F136">
         <v>4051</v>
@@ -8148,7 +8148,7 @@
         <v>3688</v>
       </c>
       <c r="E137">
-        <v>1878</v>
+        <v>50489</v>
       </c>
       <c r="F137">
         <v>1924</v>
@@ -8183,7 +8183,7 @@
         <v>9693</v>
       </c>
       <c r="E138">
-        <v>3372</v>
+        <v>48183</v>
       </c>
       <c r="F138">
         <v>4986</v>
@@ -8218,7 +8218,7 @@
         <v>26935</v>
       </c>
       <c r="E139">
-        <v>13224</v>
+        <v>53200</v>
       </c>
       <c r="F139">
         <v>12369</v>
@@ -8253,7 +8253,7 @@
         <v>10755</v>
       </c>
       <c r="E140">
-        <v>5687</v>
+        <v>55409</v>
       </c>
       <c r="F140">
         <v>6356</v>
@@ -8288,7 +8288,7 @@
         <v>10203</v>
       </c>
       <c r="E141">
-        <v>6688</v>
+        <v>39685</v>
       </c>
       <c r="F141">
         <v>5026</v>
@@ -8323,7 +8323,7 @@
         <v>27678</v>
       </c>
       <c r="E142">
-        <v>13409</v>
+        <v>46013</v>
       </c>
       <c r="F142">
         <v>10775</v>
@@ -8358,7 +8358,7 @@
         <v>20740</v>
       </c>
       <c r="E143">
-        <v>9933</v>
+        <v>44749</v>
       </c>
       <c r="F143">
         <v>7723</v>
@@ -8393,7 +8393,7 @@
         <v>17713</v>
       </c>
       <c r="E144">
-        <v>7771</v>
+        <v>48165</v>
       </c>
       <c r="F144">
         <v>5360</v>
@@ -8428,7 +8428,7 @@
         <v>11906</v>
       </c>
       <c r="E145">
-        <v>9037</v>
+        <v>42216</v>
       </c>
       <c r="F145">
         <v>5905</v>
@@ -8463,7 +8463,7 @@
         <v>4858</v>
       </c>
       <c r="E146">
-        <v>2489</v>
+        <v>54429</v>
       </c>
       <c r="F146">
         <v>2205</v>
@@ -8498,7 +8498,7 @@
         <v>17</v>
       </c>
       <c r="E147">
-        <v>7</v>
+        <v>66333</v>
       </c>
       <c r="F147">
         <v>17</v>
@@ -8533,7 +8533,7 @@
         <v>6885</v>
       </c>
       <c r="E148">
-        <v>2956</v>
+        <v>48654</v>
       </c>
       <c r="F148">
         <v>4791</v>
@@ -8568,7 +8568,7 @@
         <v>20815</v>
       </c>
       <c r="E149">
-        <v>11530</v>
+        <v>54745</v>
       </c>
       <c r="F149">
         <v>7789</v>
@@ -8603,7 +8603,7 @@
         <v>8726</v>
       </c>
       <c r="E150">
-        <v>3548</v>
+        <v>50549</v>
       </c>
       <c r="F150">
         <v>4198</v>
@@ -8638,7 +8638,7 @@
         <v>7135</v>
       </c>
       <c r="E151">
-        <v>4088</v>
+        <v>59271</v>
       </c>
       <c r="F151">
         <v>2414</v>
@@ -8673,7 +8673,7 @@
         <v>16025</v>
       </c>
       <c r="E152">
-        <v>8806</v>
+        <v>58918</v>
       </c>
       <c r="F152">
         <v>5677</v>
@@ -8708,7 +8708,7 @@
         <v>13273</v>
       </c>
       <c r="E153">
-        <v>6985</v>
+        <v>68317</v>
       </c>
       <c r="F153">
         <v>4741</v>
@@ -8743,7 +8743,7 @@
         <v>17122</v>
       </c>
       <c r="E154">
-        <v>5672</v>
+        <v>42703</v>
       </c>
       <c r="F154">
         <v>5472</v>
@@ -8778,7 +8778,7 @@
         <v>18741</v>
       </c>
       <c r="E155">
-        <v>10220</v>
+        <v>56450</v>
       </c>
       <c r="F155">
         <v>7171</v>
@@ -8813,7 +8813,7 @@
         <v>3526</v>
       </c>
       <c r="E156">
-        <v>1605</v>
+        <v>47669</v>
       </c>
       <c r="F156">
         <v>1699</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>418</v>
+        <v>53281</v>
       </c>
       <c r="F157">
         <v>554</v>
@@ -8883,7 +8883,7 @@
         <v>31951</v>
       </c>
       <c r="E158">
-        <v>16995</v>
+        <v>48189</v>
       </c>
       <c r="F158">
         <v>11206</v>
@@ -8953,7 +8953,7 @@
         <v>7775</v>
       </c>
       <c r="E160">
-        <v>3709</v>
+        <v>40989</v>
       </c>
       <c r="F160">
         <v>3732</v>
@@ -8988,7 +8988,7 @@
         <v>5250</v>
       </c>
       <c r="E161">
-        <v>2656</v>
+        <v>59213</v>
       </c>
       <c r="F161">
         <v>2296</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>6844</v>
+        <v>68509</v>
       </c>
       <c r="F162">
         <v>5326</v>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>6769</v>
+        <v>80613</v>
       </c>
       <c r="F163">
         <v>4408</v>
@@ -9093,7 +9093,7 @@
         <v>20242</v>
       </c>
       <c r="E164">
-        <v>9494</v>
+        <v>48114</v>
       </c>
       <c r="F164">
         <v>10555</v>
@@ -9128,7 +9128,7 @@
         <v>5337</v>
       </c>
       <c r="E165">
-        <v>2711</v>
+        <v>49929</v>
       </c>
       <c r="F165">
         <v>3065</v>
@@ -9163,7 +9163,7 @@
         <v>5067</v>
       </c>
       <c r="E166">
-        <v>2136</v>
+        <v>43702</v>
       </c>
       <c r="F166">
         <v>2252</v>
@@ -9198,7 +9198,7 @@
         <v>12495</v>
       </c>
       <c r="E167">
-        <v>5240</v>
+        <v>44732</v>
       </c>
       <c r="F167">
         <v>5292</v>
@@ -9233,7 +9233,7 @@
         <v>7079</v>
       </c>
       <c r="E168">
-        <v>3025</v>
+        <v>44108</v>
       </c>
       <c r="F168">
         <v>3052</v>
@@ -9268,7 +9268,7 @@
         <v>10770</v>
       </c>
       <c r="E169">
-        <v>4520</v>
+        <v>50867</v>
       </c>
       <c r="F169">
         <v>5077</v>
@@ -9303,7 +9303,7 @@
         <v>8621</v>
       </c>
       <c r="E170">
-        <v>3796</v>
+        <v>51960</v>
       </c>
       <c r="F170">
         <v>4408</v>
@@ -9338,7 +9338,7 @@
         <v>24364</v>
       </c>
       <c r="E171">
-        <v>15077</v>
+        <v>63243</v>
       </c>
       <c r="F171">
         <v>8043</v>
@@ -9373,7 +9373,7 @@
         <v>16255</v>
       </c>
       <c r="E172">
-        <v>7844</v>
+        <v>57536</v>
       </c>
       <c r="F172">
         <v>5110</v>
@@ -9408,7 +9408,7 @@
         <v>18393</v>
       </c>
       <c r="E173">
-        <v>9580</v>
+        <v>74544</v>
       </c>
       <c r="F173">
         <v>7281</v>
@@ -9443,7 +9443,7 @@
         <v>2680</v>
       </c>
       <c r="E174">
-        <v>1594</v>
+        <v>48638</v>
       </c>
       <c r="F174">
         <v>1315</v>
@@ -9478,7 +9478,7 @@
         <v>2079</v>
       </c>
       <c r="E175">
-        <v>944</v>
+        <v>43571</v>
       </c>
       <c r="F175">
         <v>2542</v>
@@ -9513,7 +9513,7 @@
         <v>7569</v>
       </c>
       <c r="E176">
-        <v>3746</v>
+        <v>76754</v>
       </c>
       <c r="F176">
         <v>3716</v>
@@ -9548,7 +9548,7 @@
         <v>8253</v>
       </c>
       <c r="E177">
-        <v>3655</v>
+        <v>59594</v>
       </c>
       <c r="F177">
         <v>4588</v>
@@ -9583,7 +9583,7 @@
         <v>22493</v>
       </c>
       <c r="E178">
-        <v>9699</v>
+        <v>54459</v>
       </c>
       <c r="F178">
         <v>8984</v>
@@ -9618,7 +9618,7 @@
         <v>8073</v>
       </c>
       <c r="E179">
-        <v>3999</v>
+        <v>59364</v>
       </c>
       <c r="F179">
         <v>3283</v>
@@ -9653,7 +9653,7 @@
         <v>4629</v>
       </c>
       <c r="E180">
-        <v>6756</v>
+        <v>42651</v>
       </c>
       <c r="F180">
         <v>1839</v>
@@ -9688,7 +9688,7 @@
         <v>4386</v>
       </c>
       <c r="E181">
-        <v>2234</v>
+        <v>48697</v>
       </c>
       <c r="F181">
         <v>2316</v>
@@ -9723,7 +9723,7 @@
         <v>8293</v>
       </c>
       <c r="E182">
-        <v>3779</v>
+        <v>56435</v>
       </c>
       <c r="F182">
         <v>3862</v>
@@ -9758,7 +9758,7 @@
         <v>23449</v>
       </c>
       <c r="E183">
-        <v>12423</v>
+        <v>66141</v>
       </c>
       <c r="F183">
         <v>9879</v>
@@ -9793,7 +9793,7 @@
         <v>9669</v>
       </c>
       <c r="E184">
-        <v>5797</v>
+        <v>55831</v>
       </c>
       <c r="F184">
         <v>4793</v>
@@ -9828,7 +9828,7 @@
         <v>6489</v>
       </c>
       <c r="E185">
-        <v>3585</v>
+        <v>64625</v>
       </c>
       <c r="F185">
         <v>2445</v>
@@ -9863,7 +9863,7 @@
         <v>8288</v>
       </c>
       <c r="E186">
-        <v>3948</v>
+        <v>58117</v>
       </c>
       <c r="F186">
         <v>3819</v>
@@ -9898,7 +9898,7 @@
         <v>19420</v>
       </c>
       <c r="E187">
-        <v>10212</v>
+        <v>63518</v>
       </c>
       <c r="F187">
         <v>6366</v>
@@ -9933,7 +9933,7 @@
         <v>15884</v>
       </c>
       <c r="E188">
-        <v>8326</v>
+        <v>56399</v>
       </c>
       <c r="F188">
         <v>5884</v>
@@ -9968,7 +9968,7 @@
         <v>9499</v>
       </c>
       <c r="E189">
-        <v>3767</v>
+        <v>46527</v>
       </c>
       <c r="F189">
         <v>4310</v>
@@ -10003,7 +10003,7 @@
         <v>11594</v>
       </c>
       <c r="E190">
-        <v>5637</v>
+        <v>61722</v>
       </c>
       <c r="F190">
         <v>4879</v>
@@ -10038,7 +10038,7 @@
         <v>6974</v>
       </c>
       <c r="E191">
-        <v>3704</v>
+        <v>55714</v>
       </c>
       <c r="F191">
         <v>2520</v>
@@ -10073,7 +10073,7 @@
         <v>4170</v>
       </c>
       <c r="E192">
-        <v>2044</v>
+        <v>50797</v>
       </c>
       <c r="F192">
         <v>1956</v>
@@ -10108,7 +10108,7 @@
         <v>8638</v>
       </c>
       <c r="E193">
-        <v>4008</v>
+        <v>96383</v>
       </c>
       <c r="F193">
         <v>4109</v>
@@ -10143,7 +10143,7 @@
         <v>23672</v>
       </c>
       <c r="E194">
-        <v>10246</v>
+        <v>42361</v>
       </c>
       <c r="F194">
         <v>8114</v>
@@ -10178,7 +10178,7 @@
         <v>4230</v>
       </c>
       <c r="E195">
-        <v>1955</v>
+        <v>56945</v>
       </c>
       <c r="F195">
         <v>1819</v>
@@ -10213,7 +10213,7 @@
         <v>3753</v>
       </c>
       <c r="E196">
-        <v>1837</v>
+        <v>65871</v>
       </c>
       <c r="F196">
         <v>1853</v>
@@ -10248,7 +10248,7 @@
         <v>15344</v>
       </c>
       <c r="E197">
-        <v>7688</v>
+        <v>63509</v>
       </c>
       <c r="F197">
         <v>6826</v>
@@ -10283,7 +10283,7 @@
         <v>11209</v>
       </c>
       <c r="E198">
-        <v>6256</v>
+        <v>57597</v>
       </c>
       <c r="F198">
         <v>5393</v>
@@ -10318,7 +10318,7 @@
         <v>13880</v>
       </c>
       <c r="E199">
-        <v>7125</v>
+        <v>75079</v>
       </c>
       <c r="F199">
         <v>5705</v>
@@ -10353,7 +10353,7 @@
         <v>4783</v>
       </c>
       <c r="E200">
-        <v>2317</v>
+        <v>70463</v>
       </c>
       <c r="F200">
         <v>2474</v>
@@ -10388,7 +10388,7 @@
         <v>18389</v>
       </c>
       <c r="E201">
-        <v>14701</v>
+        <v>65450</v>
       </c>
       <c r="F201">
         <v>5921</v>
@@ -10423,7 +10423,7 @@
         <v>3323</v>
       </c>
       <c r="E202">
-        <v>1883</v>
+        <v>63371</v>
       </c>
       <c r="F202">
         <v>1475</v>
@@ -10458,7 +10458,7 @@
         <v>17845</v>
       </c>
       <c r="E203">
-        <v>8264</v>
+        <v>46928</v>
       </c>
       <c r="F203">
         <v>7982</v>
@@ -10493,7 +10493,7 @@
         <v>10531</v>
       </c>
       <c r="E204">
-        <v>4832</v>
+        <v>49236</v>
       </c>
       <c r="F204">
         <v>4672</v>
@@ -10528,7 +10528,7 @@
         <v>12450</v>
       </c>
       <c r="E205">
-        <v>6484</v>
+        <v>48717</v>
       </c>
       <c r="F205">
         <v>5608</v>
@@ -10563,7 +10563,7 @@
         <v>5381</v>
       </c>
       <c r="E206">
-        <v>2674</v>
+        <v>47715</v>
       </c>
       <c r="F206">
         <v>2442</v>
@@ -10598,7 +10598,7 @@
         <v>6846</v>
       </c>
       <c r="E207">
-        <v>3081</v>
+        <v>53175</v>
       </c>
       <c r="F207">
         <v>3049</v>
@@ -10633,7 +10633,7 @@
         <v>8856</v>
       </c>
       <c r="E208">
-        <v>3985</v>
+        <v>68913</v>
       </c>
       <c r="F208">
         <v>4060</v>
@@ -10668,7 +10668,7 @@
         <v>3539</v>
       </c>
       <c r="E209">
-        <v>1747</v>
+        <v>56349</v>
       </c>
       <c r="F209">
         <v>1945</v>
@@ -10703,7 +10703,7 @@
         <v>15933</v>
       </c>
       <c r="E210">
-        <v>8342</v>
+        <v>65485</v>
       </c>
       <c r="F210">
         <v>6366</v>
@@ -10738,7 +10738,7 @@
         <v>26209</v>
       </c>
       <c r="E211">
-        <v>14412</v>
+        <v>66955</v>
       </c>
       <c r="F211">
         <v>10096</v>
@@ -10773,7 +10773,7 @@
         <v>11841</v>
       </c>
       <c r="E212">
-        <v>5296</v>
+        <v>52550</v>
       </c>
       <c r="F212">
         <v>3573</v>
@@ -10808,7 +10808,7 @@
         <v>6807</v>
       </c>
       <c r="E213">
-        <v>2806</v>
+        <v>44986</v>
       </c>
       <c r="F213">
         <v>3167</v>
@@ -10843,7 +10843,7 @@
         <v>1818</v>
       </c>
       <c r="E214">
-        <v>721</v>
+        <v>44766</v>
       </c>
       <c r="F214">
         <v>1396</v>
@@ -10878,7 +10878,7 @@
         <v>27296</v>
       </c>
       <c r="E215">
-        <v>16984</v>
+        <v>93601</v>
       </c>
       <c r="F215">
         <v>11809</v>
@@ -10913,7 +10913,7 @@
         <v>6351</v>
       </c>
       <c r="E216">
-        <v>1859</v>
+        <v>41286</v>
       </c>
       <c r="F216">
         <v>4176</v>
@@ -10948,7 +10948,7 @@
         <v>8800</v>
       </c>
       <c r="E217">
-        <v>4000</v>
+        <v>57240</v>
       </c>
       <c r="F217">
         <v>3678</v>
@@ -10983,7 +10983,7 @@
         <v>6870</v>
       </c>
       <c r="E218">
-        <v>3385</v>
+        <v>50642</v>
       </c>
       <c r="F218">
         <v>3309</v>
@@ -11018,7 +11018,7 @@
         <v>3327</v>
       </c>
       <c r="E219">
-        <v>1591</v>
+        <v>53195</v>
       </c>
       <c r="F219">
         <v>1983</v>
@@ -11053,7 +11053,7 @@
         <v>8100</v>
       </c>
       <c r="E220">
-        <v>2979</v>
+        <v>45570</v>
       </c>
       <c r="F220">
         <v>4034</v>
@@ -11088,7 +11088,7 @@
         <v>4245</v>
       </c>
       <c r="E221">
-        <v>1585</v>
+        <v>44628</v>
       </c>
       <c r="F221">
         <v>2125</v>
@@ -11123,7 +11123,7 @@
         <v>5717</v>
       </c>
       <c r="E222">
-        <v>3254</v>
+        <v>46621</v>
       </c>
       <c r="F222">
         <v>2120</v>
@@ -11158,7 +11158,7 @@
         <v>7677</v>
       </c>
       <c r="E223">
-        <v>3097</v>
+        <v>48328</v>
       </c>
       <c r="F223">
         <v>3678</v>
@@ -11193,7 +11193,7 @@
         <v>3917</v>
       </c>
       <c r="E224">
-        <v>1993</v>
+        <v>50223</v>
       </c>
       <c r="F224">
         <v>1483</v>
@@ -11228,7 +11228,7 @@
         <v>5432</v>
       </c>
       <c r="E225">
-        <v>2392</v>
+        <v>45120</v>
       </c>
       <c r="F225">
         <v>2693</v>
@@ -11263,7 +11263,7 @@
         <v>7274</v>
       </c>
       <c r="E226">
-        <v>3248</v>
+        <v>45201</v>
       </c>
       <c r="F226">
         <v>3357</v>
@@ -11298,7 +11298,7 @@
         <v>5539</v>
       </c>
       <c r="E227">
-        <v>2662</v>
+        <v>50142</v>
       </c>
       <c r="F227">
         <v>2756</v>
@@ -11333,7 +11333,7 @@
         <v>6845</v>
       </c>
       <c r="E228">
-        <v>3021</v>
+        <v>46631</v>
       </c>
       <c r="F228">
         <v>3554</v>
@@ -11368,7 +11368,7 @@
         <v>9300</v>
       </c>
       <c r="E229">
-        <v>4016</v>
+        <v>45037</v>
       </c>
       <c r="F229">
         <v>4268</v>
@@ -11403,7 +11403,7 @@
         <v>5519</v>
       </c>
       <c r="E230">
-        <v>2332</v>
+        <v>45125</v>
       </c>
       <c r="F230">
         <v>2745</v>
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>9095</v>
+        <v>52288</v>
       </c>
       <c r="F231">
         <v>5179</v>
@@ -11473,7 +11473,7 @@
         <v>4937</v>
       </c>
       <c r="E232">
-        <v>2315</v>
+        <v>58764</v>
       </c>
       <c r="F232">
         <v>1912</v>
@@ -11508,7 +11508,7 @@
         <v>20888</v>
       </c>
       <c r="E233">
-        <v>10493</v>
+        <v>49374</v>
       </c>
       <c r="F233">
         <v>7647</v>
@@ -11543,7 +11543,7 @@
         <v>26754</v>
       </c>
       <c r="E234">
-        <v>20081</v>
+        <v>56526</v>
       </c>
       <c r="F234">
         <v>8870</v>
@@ -11578,7 +11578,7 @@
         <v>20985</v>
       </c>
       <c r="E235">
-        <v>11778</v>
+        <v>53984</v>
       </c>
       <c r="F235">
         <v>6592</v>
@@ -11613,7 +11613,7 @@
         <v>9116</v>
       </c>
       <c r="E236">
-        <v>5537</v>
+        <v>60339</v>
       </c>
       <c r="F236">
         <v>3101</v>
@@ -11648,7 +11648,7 @@
         <v>15685</v>
       </c>
       <c r="E237">
-        <v>9387</v>
+        <v>52734</v>
       </c>
       <c r="F237">
         <v>5090</v>
@@ -11683,7 +11683,7 @@
         <v>6037</v>
       </c>
       <c r="E238">
-        <v>2961</v>
+        <v>53309</v>
       </c>
       <c r="F238">
         <v>2531</v>
@@ -11718,7 +11718,7 @@
         <v>7870</v>
       </c>
       <c r="E239">
-        <v>3464</v>
+        <v>50161</v>
       </c>
       <c r="F239">
         <v>3616</v>
@@ -11753,7 +11753,7 @@
         <v>8661</v>
       </c>
       <c r="E240">
-        <v>3448</v>
+        <v>50501</v>
       </c>
       <c r="F240">
         <v>3957</v>
@@ -11788,7 +11788,7 @@
         <v>19086</v>
       </c>
       <c r="E241">
-        <v>12388</v>
+        <v>98021</v>
       </c>
       <c r="F241">
         <v>9372</v>
@@ -11823,7 +11823,7 @@
         <v>1103</v>
       </c>
       <c r="E242">
-        <v>447</v>
+        <v>44170</v>
       </c>
       <c r="F242">
         <v>906</v>
@@ -11858,7 +11858,7 @@
         <v>4156</v>
       </c>
       <c r="E243">
-        <v>1625</v>
+        <v>49440</v>
       </c>
       <c r="F243">
         <v>1948</v>
@@ -11893,7 +11893,7 @@
         <v>5325</v>
       </c>
       <c r="E244">
-        <v>2986</v>
+        <v>88632</v>
       </c>
       <c r="F244">
         <v>2153</v>
@@ -11928,7 +11928,7 @@
         <v>4329</v>
       </c>
       <c r="E245">
-        <v>2012</v>
+        <v>41217</v>
       </c>
       <c r="F245">
         <v>2282</v>
@@ -11963,7 +11963,7 @@
         <v>6482</v>
       </c>
       <c r="E246">
-        <v>3446</v>
+        <v>46437</v>
       </c>
       <c r="F246">
         <v>3330</v>
@@ -11998,7 +11998,7 @@
         <v>3794</v>
       </c>
       <c r="E247">
-        <v>1493</v>
+        <v>55516</v>
       </c>
       <c r="F247">
         <v>1944</v>
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="E248">
-        <v>5135</v>
+        <v>66548</v>
       </c>
       <c r="F248">
         <v>3350</v>
@@ -12068,7 +12068,7 @@
         <v>32700</v>
       </c>
       <c r="E249">
-        <v>13691</v>
+        <v>43204</v>
       </c>
       <c r="F249">
         <v>11591</v>
@@ -12103,7 +12103,7 @@
         <v>23684</v>
       </c>
       <c r="E250">
-        <v>10543</v>
+        <v>49914</v>
       </c>
       <c r="F250">
         <v>8230</v>
@@ -12138,7 +12138,7 @@
         <v>14050</v>
       </c>
       <c r="E251">
-        <v>6734</v>
+        <v>50253</v>
       </c>
       <c r="F251">
         <v>5707</v>
@@ -12173,7 +12173,7 @@
         <v>12242</v>
       </c>
       <c r="E252">
-        <v>9405</v>
+        <v>87526</v>
       </c>
       <c r="F252">
         <v>6833</v>
@@ -12208,7 +12208,7 @@
         <v>5164</v>
       </c>
       <c r="E253">
-        <v>2525</v>
+        <v>51856</v>
       </c>
       <c r="F253">
         <v>1845</v>
@@ -12243,7 +12243,7 @@
         <v>12</v>
       </c>
       <c r="E254">
-        <v>30</v>
+        <v>61859</v>
       </c>
       <c r="F254">
         <v>5</v>
@@ -12278,7 +12278,7 @@
         <v>9117</v>
       </c>
       <c r="E255">
-        <v>4033</v>
+        <v>52710</v>
       </c>
       <c r="F255">
         <v>5720</v>
@@ -12313,7 +12313,7 @@
         <v>27536</v>
       </c>
       <c r="E256">
-        <v>13173</v>
+        <v>53477</v>
       </c>
       <c r="F256">
         <v>8792</v>
@@ -12348,7 +12348,7 @@
         <v>5811</v>
       </c>
       <c r="E257">
-        <v>2478</v>
+        <v>45078</v>
       </c>
       <c r="F257">
         <v>2683</v>
@@ -12383,7 +12383,7 @@
         <v>7556</v>
       </c>
       <c r="E258">
-        <v>3799</v>
+        <v>49259</v>
       </c>
       <c r="F258">
         <v>3606</v>
@@ -12418,7 +12418,7 @@
         <v>6838</v>
       </c>
       <c r="E259">
-        <v>2536</v>
+        <v>43919</v>
       </c>
       <c r="F259">
         <v>3591</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>170</v>
+        <v>93549</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -12488,7 +12488,7 @@
         <v>6018</v>
       </c>
       <c r="E261">
-        <v>2551</v>
+        <v>46658</v>
       </c>
       <c r="F261">
         <v>3375</v>
@@ -12523,7 +12523,7 @@
         <v>8341</v>
       </c>
       <c r="E262">
-        <v>3291</v>
+        <v>50208</v>
       </c>
       <c r="F262">
         <v>3660</v>
@@ -12558,7 +12558,7 @@
         <v>3134</v>
       </c>
       <c r="E263">
-        <v>1567</v>
+        <v>48573</v>
       </c>
       <c r="F263">
         <v>1380</v>
@@ -12593,7 +12593,7 @@
         <v>25</v>
       </c>
       <c r="E264">
-        <v>14</v>
+        <v>56446</v>
       </c>
       <c r="F264">
         <v>21</v>
@@ -12628,7 +12628,7 @@
         <v>3876</v>
       </c>
       <c r="E265">
-        <v>1904</v>
+        <v>55809</v>
       </c>
       <c r="F265">
         <v>1561</v>
@@ -12663,7 +12663,7 @@
         <v>5956</v>
       </c>
       <c r="E266">
-        <v>3139</v>
+        <v>52666</v>
       </c>
       <c r="F266">
         <v>2774</v>
@@ -12698,7 +12698,7 @@
         <v>3262</v>
       </c>
       <c r="E267">
-        <v>1208</v>
+        <v>44630</v>
       </c>
       <c r="F267">
         <v>1685</v>
@@ -12733,7 +12733,7 @@
         <v>8037</v>
       </c>
       <c r="E268">
-        <v>4585</v>
+        <v>64349</v>
       </c>
       <c r="F268">
         <v>2735</v>
@@ -12768,7 +12768,7 @@
         <v>9927</v>
       </c>
       <c r="E269">
-        <v>5674</v>
+        <v>69034</v>
       </c>
       <c r="F269">
         <v>3181</v>
@@ -12803,7 +12803,7 @@
         <v>4048</v>
       </c>
       <c r="E270">
-        <v>1736</v>
+        <v>47478</v>
       </c>
       <c r="F270">
         <v>2221</v>
@@ -12838,7 +12838,7 @@
         <v>10405</v>
       </c>
       <c r="E271">
-        <v>4865</v>
+        <v>50496</v>
       </c>
       <c r="F271">
         <v>4773</v>
@@ -12873,7 +12873,7 @@
         <v>17389</v>
       </c>
       <c r="E272">
-        <v>9479</v>
+        <v>55716</v>
       </c>
       <c r="F272">
         <v>7486</v>
@@ -12908,7 +12908,7 @@
         <v>5713</v>
       </c>
       <c r="E273">
-        <v>2989</v>
+        <v>56684</v>
       </c>
       <c r="F273">
         <v>2165</v>
@@ -12943,7 +12943,7 @@
         <v>9101</v>
       </c>
       <c r="E274">
-        <v>4167</v>
+        <v>59331</v>
       </c>
       <c r="F274">
         <v>4024</v>
@@ -12978,7 +12978,7 @@
         <v>4564</v>
       </c>
       <c r="E275">
-        <v>2901</v>
+        <v>80038</v>
       </c>
       <c r="F275">
         <v>1566</v>
@@ -13013,7 +13013,7 @@
         <v>21649</v>
       </c>
       <c r="E276">
-        <v>11906</v>
+        <v>70344</v>
       </c>
       <c r="F276">
         <v>7010</v>
@@ -13048,7 +13048,7 @@
         <v>8471</v>
       </c>
       <c r="E277">
-        <v>4442</v>
+        <v>55332</v>
       </c>
       <c r="F277">
         <v>3772</v>
@@ -13083,7 +13083,7 @@
         <v>8481</v>
       </c>
       <c r="E278">
-        <v>982</v>
+        <v>29045</v>
       </c>
       <c r="F278">
         <v>1422</v>
@@ -13118,7 +13118,7 @@
         <v>13750</v>
       </c>
       <c r="E279">
-        <v>6717</v>
+        <v>54290</v>
       </c>
       <c r="F279">
         <v>6363</v>
@@ -13153,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>3696</v>
+        <v>57653</v>
       </c>
       <c r="F280">
         <v>3224</v>
@@ -13188,7 +13188,7 @@
         <v>3629</v>
       </c>
       <c r="E281">
-        <v>2108</v>
+        <v>67815</v>
       </c>
       <c r="F281">
         <v>1668</v>
@@ -13223,7 +13223,7 @@
         <v>5475</v>
       </c>
       <c r="E282">
-        <v>3348</v>
+        <v>89168</v>
       </c>
       <c r="F282">
         <v>2956</v>
@@ -13258,7 +13258,7 @@
         <v>7210</v>
       </c>
       <c r="E283">
-        <v>315</v>
+        <v>64887</v>
       </c>
       <c r="F283">
         <v>1006</v>
@@ -13293,7 +13293,7 @@
         <v>5369</v>
       </c>
       <c r="E284">
-        <v>3729</v>
+        <v>63002</v>
       </c>
       <c r="F284">
         <v>2284</v>
@@ -13328,7 +13328,7 @@
         <v>26201</v>
       </c>
       <c r="E285">
-        <v>13886</v>
+        <v>64925</v>
       </c>
       <c r="F285">
         <v>8985</v>
@@ -13363,7 +13363,7 @@
         <v>11940</v>
       </c>
       <c r="E286">
-        <v>6314</v>
+        <v>64569</v>
       </c>
       <c r="F286">
         <v>4770</v>
@@ -13398,7 +13398,7 @@
         <v>14888</v>
       </c>
       <c r="E287">
-        <v>7872</v>
+        <v>50071</v>
       </c>
       <c r="F287">
         <v>6600</v>
@@ -13433,7 +13433,7 @@
         <v>10198</v>
       </c>
       <c r="E288">
-        <v>4851</v>
+        <v>54158</v>
       </c>
       <c r="F288">
         <v>2873</v>
@@ -13468,7 +13468,7 @@
         <v>12521</v>
       </c>
       <c r="E289">
-        <v>7377</v>
+        <v>74080</v>
       </c>
       <c r="F289">
         <v>4866</v>
@@ -13503,7 +13503,7 @@
         <v>21538</v>
       </c>
       <c r="E290">
-        <v>13131</v>
+        <v>68234</v>
       </c>
       <c r="F290">
         <v>6900</v>
@@ -13538,7 +13538,7 @@
         <v>10463</v>
       </c>
       <c r="E291">
-        <v>3173</v>
+        <v>39740</v>
       </c>
       <c r="F291">
         <v>4870</v>
@@ -13573,7 +13573,7 @@
         <v>13066</v>
       </c>
       <c r="E292">
-        <v>5769</v>
+        <v>48586</v>
       </c>
       <c r="F292">
         <v>5469</v>
@@ -13608,7 +13608,7 @@
         <v>13867</v>
       </c>
       <c r="E293">
-        <v>8608</v>
+        <v>69629</v>
       </c>
       <c r="F293">
         <v>5929</v>
@@ -13643,7 +13643,7 @@
         <v>5545</v>
       </c>
       <c r="E294">
-        <v>2383</v>
+        <v>60974</v>
       </c>
       <c r="F294">
         <v>2954</v>
@@ -13678,7 +13678,7 @@
         <v>14572</v>
       </c>
       <c r="E295">
-        <v>7745</v>
+        <v>67145</v>
       </c>
       <c r="F295">
         <v>5197</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>6139</v>
+        <v>54614</v>
       </c>
       <c r="F296">
         <v>4119</v>
@@ -13748,7 +13748,7 @@
         <v>23761</v>
       </c>
       <c r="E297">
-        <v>11005</v>
+        <v>48578</v>
       </c>
       <c r="F297">
         <v>9975</v>
@@ -13783,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>6784</v>
+        <v>52076</v>
       </c>
       <c r="F298">
         <v>4590</v>
@@ -13818,7 +13818,7 @@
         <v>14342</v>
       </c>
       <c r="E299">
-        <v>6460</v>
+        <v>62904</v>
       </c>
       <c r="F299">
         <v>5765</v>
@@ -13853,7 +13853,7 @@
         <v>5246</v>
       </c>
       <c r="E300">
-        <v>1923</v>
+        <v>50061</v>
       </c>
       <c r="F300">
         <v>2610</v>
@@ -13888,7 +13888,7 @@
         <v>12355</v>
       </c>
       <c r="E301">
-        <v>6352</v>
+        <v>55510</v>
       </c>
       <c r="F301">
         <v>5650</v>
@@ -13923,7 +13923,7 @@
         <v>3936</v>
       </c>
       <c r="E302">
-        <v>1475</v>
+        <v>47427</v>
       </c>
       <c r="F302">
         <v>2217</v>
@@ -13958,7 +13958,7 @@
         <v>52</v>
       </c>
       <c r="E303">
-        <v>16</v>
+        <v>56265</v>
       </c>
       <c r="F303">
         <v>43</v>
@@ -13993,7 +13993,7 @@
         <v>10763</v>
       </c>
       <c r="E304">
-        <v>5690</v>
+        <v>53771</v>
       </c>
       <c r="F304">
         <v>4143</v>
@@ -14028,7 +14028,7 @@
         <v>3379</v>
       </c>
       <c r="E305">
-        <v>1541</v>
+        <v>42899</v>
       </c>
       <c r="F305">
         <v>2027</v>
@@ -14063,7 +14063,7 @@
         <v>5316</v>
       </c>
       <c r="E306">
-        <v>2309</v>
+        <v>48411</v>
       </c>
       <c r="F306">
         <v>2867</v>
@@ -14098,7 +14098,7 @@
         <v>5366</v>
       </c>
       <c r="E307">
-        <v>3101</v>
+        <v>68365</v>
       </c>
       <c r="F307">
         <v>2052</v>
@@ -14133,7 +14133,7 @@
         <v>4409</v>
       </c>
       <c r="E308">
-        <v>2468</v>
+        <v>54617</v>
       </c>
       <c r="F308">
         <v>4328</v>
@@ -14168,7 +14168,7 @@
         <v>6667</v>
       </c>
       <c r="E309">
-        <v>2552</v>
+        <v>46795</v>
       </c>
       <c r="F309">
         <v>3853</v>
@@ -14203,7 +14203,7 @@
         <v>5082</v>
       </c>
       <c r="E310">
-        <v>3051</v>
+        <v>58486</v>
       </c>
       <c r="F310">
         <v>2055</v>
@@ -14238,7 +14238,7 @@
         <v>2158</v>
       </c>
       <c r="E311">
-        <v>1124</v>
+        <v>50393</v>
       </c>
       <c r="F311">
         <v>1593</v>
@@ -14273,7 +14273,7 @@
         <v>2849</v>
       </c>
       <c r="E312">
-        <v>1262</v>
+        <v>49657</v>
       </c>
       <c r="F312">
         <v>1550</v>
@@ -14308,7 +14308,7 @@
         <v>2579</v>
       </c>
       <c r="E313">
-        <v>834</v>
+        <v>44410</v>
       </c>
       <c r="F313">
         <v>1449</v>
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>7580</v>
+        <v>57166</v>
       </c>
       <c r="F314">
         <v>5898</v>
@@ -14378,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>8538</v>
+        <v>58195</v>
       </c>
       <c r="F315">
         <v>5567</v>
@@ -14413,7 +14413,7 @@
         <v>21816</v>
       </c>
       <c r="E316">
-        <v>10953</v>
+        <v>63229</v>
       </c>
       <c r="F316">
         <v>8059</v>
@@ -14448,7 +14448,7 @@
         <v>11259</v>
       </c>
       <c r="E317">
-        <v>7154</v>
+        <v>71379</v>
       </c>
       <c r="F317">
         <v>5223</v>
@@ -14483,7 +14483,7 @@
         <v>5642</v>
       </c>
       <c r="E318">
-        <v>2583</v>
+        <v>64088</v>
       </c>
       <c r="F318">
         <v>3749</v>
@@ -14518,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>415</v>
+        <v>43941</v>
       </c>
       <c r="F319">
         <v>646</v>
@@ -14553,7 +14553,7 @@
         <v>9493</v>
       </c>
       <c r="E320">
-        <v>4789</v>
+        <v>53299</v>
       </c>
       <c r="F320">
         <v>4327</v>
@@ -14588,7 +14588,7 @@
         <v>4700</v>
       </c>
       <c r="E321">
-        <v>3030</v>
+        <v>60753</v>
       </c>
       <c r="F321">
         <v>1820</v>
@@ -14623,7 +14623,7 @@
         <v>17343</v>
       </c>
       <c r="E322">
-        <v>11012</v>
+        <v>53994</v>
       </c>
       <c r="F322">
         <v>7775</v>
@@ -14658,7 +14658,7 @@
         <v>10404</v>
       </c>
       <c r="E323">
-        <v>4536</v>
+        <v>49392</v>
       </c>
       <c r="F323">
         <v>4679</v>
@@ -14693,7 +14693,7 @@
         <v>11074</v>
       </c>
       <c r="E324">
-        <v>5429</v>
+        <v>60800</v>
       </c>
       <c r="F324">
         <v>4365</v>
@@ -14728,7 +14728,7 @@
         <v>6216</v>
       </c>
       <c r="E325">
-        <v>2357</v>
+        <v>44768</v>
       </c>
       <c r="F325">
         <v>3965</v>
@@ -14763,7 +14763,7 @@
         <v>7593</v>
       </c>
       <c r="E326">
-        <v>6400</v>
+        <v>55122</v>
       </c>
       <c r="F326">
         <v>4456</v>
@@ -14798,7 +14798,7 @@
         <v>8897</v>
       </c>
       <c r="E327">
-        <v>3460</v>
+        <v>45560</v>
       </c>
       <c r="F327">
         <v>6975</v>
@@ -14833,7 +14833,7 @@
         <v>23510</v>
       </c>
       <c r="E328">
-        <v>12067</v>
+        <v>53382</v>
       </c>
       <c r="F328">
         <v>11117</v>
@@ -14868,7 +14868,7 @@
         <v>18995</v>
       </c>
       <c r="E329">
-        <v>9605</v>
+        <v>66205</v>
       </c>
       <c r="F329">
         <v>7325</v>
@@ -14903,7 +14903,7 @@
         <v>15646</v>
       </c>
       <c r="E330">
-        <v>9343</v>
+        <v>72077</v>
       </c>
       <c r="F330">
         <v>8121</v>
@@ -14938,7 +14938,7 @@
         <v>26107</v>
       </c>
       <c r="E331">
-        <v>13981</v>
+        <v>82354</v>
       </c>
       <c r="F331">
         <v>8531</v>
@@ -14973,7 +14973,7 @@
         <v>3715</v>
       </c>
       <c r="E332">
-        <v>2319</v>
+        <v>65377</v>
       </c>
       <c r="F332">
         <v>1652</v>
@@ -15008,7 +15008,7 @@
         <v>6661</v>
       </c>
       <c r="E333">
-        <v>2844</v>
+        <v>43134</v>
       </c>
       <c r="F333">
         <v>3329</v>
@@ -15043,7 +15043,7 @@
         <v>6701</v>
       </c>
       <c r="E334">
-        <v>3393</v>
+        <v>57821</v>
       </c>
       <c r="F334">
         <v>3522</v>
@@ -15078,7 +15078,7 @@
         <v>3546</v>
       </c>
       <c r="E335">
-        <v>1750</v>
+        <v>99595</v>
       </c>
       <c r="F335">
         <v>1345</v>
@@ -15113,7 +15113,7 @@
         <v>7657</v>
       </c>
       <c r="E336">
-        <v>5449</v>
+        <v>32961</v>
       </c>
       <c r="F336">
         <v>2931</v>
@@ -15148,7 +15148,7 @@
         <v>9343</v>
       </c>
       <c r="E337">
-        <v>5028</v>
+        <v>57754</v>
       </c>
       <c r="F337">
         <v>3577</v>
@@ -15183,7 +15183,7 @@
         <v>20062</v>
       </c>
       <c r="E338">
-        <v>9813</v>
+        <v>55222</v>
       </c>
       <c r="F338">
         <v>8775</v>
@@ -15218,7 +15218,7 @@
         <v>6776</v>
       </c>
       <c r="E339">
-        <v>4123</v>
+        <v>33824</v>
       </c>
       <c r="F339">
         <v>3461</v>
@@ -15253,7 +15253,7 @@
         <v>13077</v>
       </c>
       <c r="E340">
-        <v>7243</v>
+        <v>58825</v>
       </c>
       <c r="F340">
         <v>6565</v>
@@ -15288,7 +15288,7 @@
         <v>20021</v>
       </c>
       <c r="E341">
-        <v>11176</v>
+        <v>61262</v>
       </c>
       <c r="F341">
         <v>9321</v>
@@ -15323,7 +15323,7 @@
         <v>3716</v>
       </c>
       <c r="E342">
-        <v>1623</v>
+        <v>45377</v>
       </c>
       <c r="F342">
         <v>2160</v>
@@ -15358,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>1615</v>
+        <v>72453</v>
       </c>
       <c r="F343">
         <v>1049</v>
@@ -15393,7 +15393,7 @@
         <v>6961</v>
       </c>
       <c r="E344">
-        <v>3017</v>
+        <v>48186</v>
       </c>
       <c r="F344">
         <v>3618</v>
@@ -15428,7 +15428,7 @@
         <v>12185</v>
       </c>
       <c r="E345">
-        <v>5620</v>
+        <v>55143</v>
       </c>
       <c r="F345">
         <v>6302</v>
@@ -15463,7 +15463,7 @@
         <v>8169</v>
       </c>
       <c r="E346">
-        <v>3740</v>
+        <v>58518</v>
       </c>
       <c r="F346">
         <v>3094</v>
@@ -15498,7 +15498,7 @@
         <v>7839</v>
       </c>
       <c r="E347">
-        <v>4299</v>
+        <v>64292</v>
       </c>
       <c r="F347">
         <v>3296</v>
@@ -15533,7 +15533,7 @@
         <v>10176</v>
       </c>
       <c r="E348">
-        <v>5579</v>
+        <v>67113</v>
       </c>
       <c r="F348">
         <v>4208</v>
@@ -15568,7 +15568,7 @@
         <v>4991</v>
       </c>
       <c r="E349">
-        <v>2126</v>
+        <v>46369</v>
       </c>
       <c r="F349">
         <v>2436</v>
@@ -15603,7 +15603,7 @@
         <v>4441</v>
       </c>
       <c r="E350">
-        <v>1789</v>
+        <v>45644</v>
       </c>
       <c r="F350">
         <v>2032</v>
@@ -15638,7 +15638,7 @@
         <v>5176</v>
       </c>
       <c r="E351">
-        <v>2046</v>
+        <v>43920</v>
       </c>
       <c r="F351">
         <v>2557</v>
@@ -15673,7 +15673,7 @@
         <v>3354</v>
       </c>
       <c r="E352">
-        <v>1916</v>
+        <v>70608</v>
       </c>
       <c r="F352">
         <v>1280</v>
@@ -15708,7 +15708,7 @@
         <v>6167</v>
       </c>
       <c r="E353">
-        <v>2901</v>
+        <v>69807</v>
       </c>
       <c r="F353">
         <v>3688</v>
@@ -15743,7 +15743,7 @@
         <v>11951</v>
       </c>
       <c r="E354">
-        <v>5640</v>
+        <v>76083</v>
       </c>
       <c r="F354">
         <v>4720</v>
@@ -15778,7 +15778,7 @@
         <v>8934</v>
       </c>
       <c r="E355">
-        <v>3513</v>
+        <v>42738</v>
       </c>
       <c r="F355">
         <v>4377</v>
@@ -15813,7 +15813,7 @@
         <v>23987</v>
       </c>
       <c r="E356">
-        <v>12723</v>
+        <v>60666</v>
       </c>
       <c r="F356">
         <v>9350</v>
@@ -15848,7 +15848,7 @@
         <v>8778</v>
       </c>
       <c r="E357">
-        <v>4059</v>
+        <v>48969</v>
       </c>
       <c r="F357">
         <v>4591</v>
@@ -15883,7 +15883,7 @@
         <v>5067</v>
       </c>
       <c r="E358">
-        <v>2510</v>
+        <v>69714</v>
       </c>
       <c r="F358">
         <v>1519</v>
@@ -15918,7 +15918,7 @@
         <v>5108</v>
       </c>
       <c r="E359">
-        <v>1932</v>
+        <v>47280</v>
       </c>
       <c r="F359">
         <v>2607</v>
@@ -15953,7 +15953,7 @@
         <v>2932</v>
       </c>
       <c r="E360">
-        <v>1319</v>
+        <v>42298</v>
       </c>
       <c r="F360">
         <v>1782</v>
@@ -15988,7 +15988,7 @@
         <v>12198</v>
       </c>
       <c r="E361">
-        <v>5257</v>
+        <v>57842</v>
       </c>
       <c r="F361">
         <v>5950</v>
@@ -16023,7 +16023,7 @@
         <v>6496</v>
       </c>
       <c r="E362">
-        <v>3683</v>
+        <v>50564</v>
       </c>
       <c r="F362">
         <v>2790</v>
@@ -16058,7 +16058,7 @@
         <v>13375</v>
       </c>
       <c r="E363">
-        <v>6179</v>
+        <v>49463</v>
       </c>
       <c r="F363">
         <v>5620</v>
@@ -16093,7 +16093,7 @@
         <v>8899</v>
       </c>
       <c r="E364">
-        <v>4597</v>
+        <v>55646</v>
       </c>
       <c r="F364">
         <v>3330</v>
@@ -16128,7 +16128,7 @@
         <v>22584</v>
       </c>
       <c r="E365">
-        <v>9802</v>
+        <v>50615</v>
       </c>
       <c r="F365">
         <v>9442</v>
@@ -16163,7 +16163,7 @@
         <v>19382</v>
       </c>
       <c r="E366">
-        <v>9988</v>
+        <v>58246</v>
       </c>
       <c r="F366">
         <v>9208</v>
@@ -16198,7 +16198,7 @@
         <v>23415</v>
       </c>
       <c r="E367">
-        <v>11748</v>
+        <v>54444</v>
       </c>
       <c r="F367">
         <v>10165</v>
@@ -16233,7 +16233,7 @@
         <v>12905</v>
       </c>
       <c r="E368">
-        <v>5904</v>
+        <v>55242</v>
       </c>
       <c r="F368">
         <v>6828</v>
@@ -16268,7 +16268,7 @@
         <v>4264</v>
       </c>
       <c r="E369">
-        <v>1572</v>
+        <v>43542</v>
       </c>
       <c r="F369">
         <v>2228</v>
@@ -16303,7 +16303,7 @@
         <v>11957</v>
       </c>
       <c r="E370">
-        <v>6061</v>
+        <v>62072</v>
       </c>
       <c r="F370">
         <v>4634</v>
@@ -16338,7 +16338,7 @@
         <v>19037</v>
       </c>
       <c r="E371">
-        <v>8064</v>
+        <v>48436</v>
       </c>
       <c r="F371">
         <v>8428</v>
@@ -16373,7 +16373,7 @@
         <v>15611</v>
       </c>
       <c r="E372">
-        <v>6516</v>
+        <v>48116</v>
       </c>
       <c r="F372">
         <v>7111</v>
@@ -16408,7 +16408,7 @@
         <v>5984</v>
       </c>
       <c r="E373">
-        <v>2208</v>
+        <v>50823</v>
       </c>
       <c r="F373">
         <v>2743</v>
@@ -16443,7 +16443,7 @@
         <v>3246</v>
       </c>
       <c r="E374">
-        <v>1210</v>
+        <v>48191</v>
       </c>
       <c r="F374">
         <v>1375</v>
@@ -16478,7 +16478,7 @@
         <v>8636</v>
       </c>
       <c r="E375">
-        <v>3679</v>
+        <v>53303</v>
       </c>
       <c r="F375">
         <v>2457</v>
@@ -16513,7 +16513,7 @@
         <v>3665</v>
       </c>
       <c r="E376">
-        <v>1330</v>
+        <v>42766</v>
       </c>
       <c r="F376">
         <v>1865</v>
@@ -16548,7 +16548,7 @@
         <v>27290</v>
       </c>
       <c r="E377">
-        <v>13524</v>
+        <v>64890</v>
       </c>
       <c r="F377">
         <v>8946</v>
@@ -16583,7 +16583,7 @@
         <v>19709</v>
       </c>
       <c r="E378">
-        <v>11934</v>
+        <v>46769</v>
       </c>
       <c r="F378">
         <v>7792</v>
@@ -16618,7 +16618,7 @@
         <v>13185</v>
       </c>
       <c r="E379">
-        <v>7040</v>
+        <v>46515</v>
       </c>
       <c r="F379">
         <v>5551</v>
@@ -16653,7 +16653,7 @@
         <v>5774</v>
       </c>
       <c r="E380">
-        <v>2777</v>
+        <v>50754</v>
       </c>
       <c r="F380">
         <v>2559</v>
@@ -16688,7 +16688,7 @@
         <v>7921</v>
       </c>
       <c r="E381">
-        <v>3988</v>
+        <v>53123</v>
       </c>
       <c r="F381">
         <v>3529</v>
@@ -16723,7 +16723,7 @@
         <v>3637</v>
       </c>
       <c r="E382">
-        <v>1745</v>
+        <v>45710</v>
       </c>
       <c r="F382">
         <v>1694</v>
@@ -16758,7 +16758,7 @@
         <v>9409</v>
       </c>
       <c r="E383">
-        <v>4691</v>
+        <v>62939</v>
       </c>
       <c r="F383">
         <v>4092</v>
@@ -16793,7 +16793,7 @@
         <v>4219</v>
       </c>
       <c r="E384">
-        <v>1977</v>
+        <v>57270</v>
       </c>
       <c r="F384">
         <v>1999</v>
@@ -16828,7 +16828,7 @@
         <v>14500</v>
       </c>
       <c r="E385">
-        <v>5963</v>
+        <v>44779</v>
       </c>
       <c r="F385">
         <v>6440</v>
@@ -16863,7 +16863,7 @@
         <v>6809</v>
       </c>
       <c r="E386">
-        <v>3074</v>
+        <v>50579</v>
       </c>
       <c r="F386">
         <v>2851</v>
@@ -16898,7 +16898,7 @@
         <v>18845</v>
       </c>
       <c r="E387">
-        <v>8253</v>
+        <v>50026</v>
       </c>
       <c r="F387">
         <v>8007</v>
@@ -16933,7 +16933,7 @@
         <v>3276</v>
       </c>
       <c r="E388">
-        <v>1816</v>
+        <v>53557</v>
       </c>
       <c r="F388">
         <v>1381</v>
@@ -16968,7 +16968,7 @@
         <v>3599</v>
       </c>
       <c r="E389">
-        <v>1176</v>
+        <v>40360</v>
       </c>
       <c r="F389">
         <v>1442</v>
@@ -17003,7 +17003,7 @@
         <v>10081</v>
       </c>
       <c r="E390">
-        <v>4910</v>
+        <v>48280</v>
       </c>
       <c r="F390">
         <v>4941</v>
@@ -17038,7 +17038,7 @@
         <v>9034</v>
       </c>
       <c r="E391">
-        <v>4521</v>
+        <v>60498</v>
       </c>
       <c r="F391">
         <v>4106</v>
@@ -17073,7 +17073,7 @@
         <v>3012</v>
       </c>
       <c r="E392">
-        <v>1539</v>
+        <v>44508</v>
       </c>
       <c r="F392">
         <v>1597</v>
@@ -17108,7 +17108,7 @@
         <v>14106</v>
       </c>
       <c r="E393">
-        <v>7031</v>
+        <v>53540</v>
       </c>
       <c r="F393">
         <v>5753</v>
@@ -17143,7 +17143,7 @@
         <v>4529</v>
       </c>
       <c r="E394">
-        <v>1887</v>
+        <v>50061</v>
       </c>
       <c r="F394">
         <v>2484</v>
@@ -17178,7 +17178,7 @@
         <v>4125</v>
       </c>
       <c r="E395">
-        <v>1909</v>
+        <v>51180</v>
       </c>
       <c r="F395">
         <v>1774</v>
@@ -17213,7 +17213,7 @@
         <v>15532</v>
       </c>
       <c r="E396">
-        <v>8223</v>
+        <v>71894</v>
       </c>
       <c r="F396">
         <v>6405</v>
@@ -17248,7 +17248,7 @@
         <v>14806</v>
       </c>
       <c r="E397">
-        <v>7459</v>
+        <v>56304</v>
       </c>
       <c r="F397">
         <v>6292</v>
@@ -17283,7 +17283,7 @@
         <v>5487</v>
       </c>
       <c r="E398">
-        <v>3005</v>
+        <v>68257</v>
       </c>
       <c r="F398">
         <v>2221</v>
@@ -17318,7 +17318,7 @@
         <v>5709</v>
       </c>
       <c r="E399">
-        <v>2083</v>
+        <v>44790</v>
       </c>
       <c r="F399">
         <v>2857</v>
@@ -17353,7 +17353,7 @@
         <v>13429</v>
       </c>
       <c r="E400">
-        <v>7135</v>
+        <v>62886</v>
       </c>
       <c r="F400">
         <v>4689</v>
@@ -17388,7 +17388,7 @@
         <v>6755</v>
       </c>
       <c r="E401">
-        <v>3966</v>
+        <v>64164</v>
       </c>
       <c r="F401">
         <v>2884</v>
@@ -17423,7 +17423,7 @@
         <v>8115</v>
       </c>
       <c r="E402">
-        <v>5107</v>
+        <v>55433</v>
       </c>
       <c r="F402">
         <v>4349</v>
@@ -17458,7 +17458,7 @@
         <v>21348</v>
       </c>
       <c r="E403">
-        <v>11920</v>
+        <v>67246</v>
       </c>
       <c r="F403">
         <v>6565</v>
@@ -17493,7 +17493,7 @@
         <v>19576</v>
       </c>
       <c r="E404">
-        <v>12492</v>
+        <v>68551</v>
       </c>
       <c r="F404">
         <v>7525</v>
@@ -17528,7 +17528,7 @@
         <v>16710</v>
       </c>
       <c r="E405">
-        <v>7743</v>
+        <v>51236</v>
       </c>
       <c r="F405">
         <v>7296</v>
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="E406">
-        <v>7431</v>
+        <v>64027</v>
       </c>
       <c r="F406">
         <v>5113</v>
@@ -17598,7 +17598,7 @@
         <v>16462</v>
       </c>
       <c r="E407">
-        <v>8411</v>
+        <v>49279</v>
       </c>
       <c r="F407">
         <v>7644</v>
@@ -17633,7 +17633,7 @@
         <v>7533</v>
       </c>
       <c r="E408">
-        <v>2597</v>
+        <v>72520</v>
       </c>
       <c r="F408">
         <v>1665</v>
@@ -17668,7 +17668,7 @@
         <v>3018</v>
       </c>
       <c r="E409">
-        <v>1590</v>
+        <v>86741</v>
       </c>
       <c r="F409">
         <v>1216</v>
@@ -17703,7 +17703,7 @@
         <v>434</v>
       </c>
       <c r="E410">
-        <v>27</v>
+        <v>30700</v>
       </c>
       <c r="F410">
         <v>3</v>
@@ -17738,7 +17738,7 @@
         <v>8518</v>
       </c>
       <c r="E411">
-        <v>4314</v>
+        <v>48536</v>
       </c>
       <c r="F411">
         <v>3592</v>
@@ -17808,7 +17808,7 @@
         <v>4468</v>
       </c>
       <c r="E413">
-        <v>2120</v>
+        <v>50430</v>
       </c>
       <c r="F413">
         <v>2307</v>
@@ -17843,7 +17843,7 @@
         <v>6500</v>
       </c>
       <c r="E414">
-        <v>3012</v>
+        <v>52473</v>
       </c>
       <c r="F414">
         <v>3431</v>
@@ -17878,7 +17878,7 @@
         <v>4287</v>
       </c>
       <c r="E415">
-        <v>1871</v>
+        <v>44624</v>
       </c>
       <c r="F415">
         <v>2203</v>
@@ -17913,7 +17913,7 @@
         <v>9575</v>
       </c>
       <c r="E416">
-        <v>5029</v>
+        <v>40164</v>
       </c>
       <c r="F416">
         <v>4183</v>
@@ -17948,7 +17948,7 @@
         <v>11900</v>
       </c>
       <c r="E417">
-        <v>5380</v>
+        <v>47318</v>
       </c>
       <c r="F417">
         <v>5204</v>
@@ -17983,7 +17983,7 @@
         <v>5340</v>
       </c>
       <c r="E418">
-        <v>1916</v>
+        <v>42926</v>
       </c>
       <c r="F418">
         <v>2340</v>
@@ -18018,7 +18018,7 @@
         <v>6057</v>
       </c>
       <c r="E419">
-        <v>2120</v>
+        <v>46114</v>
       </c>
       <c r="F419">
         <v>2851</v>
@@ -18053,7 +18053,7 @@
         <v>6782</v>
       </c>
       <c r="E420">
-        <v>3266</v>
+        <v>57294</v>
       </c>
       <c r="F420">
         <v>2873</v>
@@ -18088,7 +18088,7 @@
         <v>18521</v>
       </c>
       <c r="E421">
-        <v>8531</v>
+        <v>54053</v>
       </c>
       <c r="F421">
         <v>7904</v>
@@ -18123,7 +18123,7 @@
         <v>3604</v>
       </c>
       <c r="E422">
-        <v>1566</v>
+        <v>59222</v>
       </c>
       <c r="F422">
         <v>1989</v>
@@ -18158,7 +18158,7 @@
         <v>8119</v>
       </c>
       <c r="E423">
-        <v>4364</v>
+        <v>93909</v>
       </c>
       <c r="F423">
         <v>3059</v>
@@ -18193,7 +18193,7 @@
         <v>4661</v>
       </c>
       <c r="E424">
-        <v>1965</v>
+        <v>48446</v>
       </c>
       <c r="F424">
         <v>2383</v>
@@ -18228,7 +18228,7 @@
         <v>17738</v>
       </c>
       <c r="E425">
-        <v>9442</v>
+        <v>60366</v>
       </c>
       <c r="F425">
         <v>6822</v>
@@ -18263,7 +18263,7 @@
         <v>3423</v>
       </c>
       <c r="E426">
-        <v>1827</v>
+        <v>62968</v>
       </c>
       <c r="F426">
         <v>1206</v>
@@ -18298,7 +18298,7 @@
         <v>26560</v>
       </c>
       <c r="E427">
-        <v>15682</v>
+        <v>57635</v>
       </c>
       <c r="F427">
         <v>8687</v>
@@ -18333,7 +18333,7 @@
         <v>7071</v>
       </c>
       <c r="E428">
-        <v>4166</v>
+        <v>45561</v>
       </c>
       <c r="F428">
         <v>5100</v>
@@ -18368,7 +18368,7 @@
         <v>1894</v>
       </c>
       <c r="E429">
-        <v>1109</v>
+        <v>70534</v>
       </c>
       <c r="F429">
         <v>643</v>
@@ -18403,7 +18403,7 @@
         <v>8029</v>
       </c>
       <c r="E430">
-        <v>4015</v>
+        <v>47386</v>
       </c>
       <c r="F430">
         <v>3969</v>
@@ -18438,7 +18438,7 @@
         <v>7620</v>
       </c>
       <c r="E431">
-        <v>3623</v>
+        <v>51586</v>
       </c>
       <c r="F431">
         <v>3079</v>
@@ -18473,7 +18473,7 @@
         <v>6363</v>
       </c>
       <c r="E432">
-        <v>2507</v>
+        <v>51170</v>
       </c>
       <c r="F432">
         <v>2322</v>
@@ -18508,7 +18508,7 @@
         <v>15409</v>
       </c>
       <c r="E433">
-        <v>7810</v>
+        <v>70631</v>
       </c>
       <c r="F433">
         <v>6214</v>
@@ -18543,7 +18543,7 @@
         <v>7369</v>
       </c>
       <c r="E434">
-        <v>4305</v>
+        <v>66337</v>
       </c>
       <c r="F434">
         <v>2777</v>
@@ -18578,7 +18578,7 @@
         <v>14298</v>
       </c>
       <c r="E435">
-        <v>8893</v>
+        <v>73697</v>
       </c>
       <c r="F435">
         <v>5900</v>
@@ -18613,7 +18613,7 @@
         <v>9038</v>
       </c>
       <c r="E436">
-        <v>5473</v>
+        <v>81620</v>
       </c>
       <c r="F436">
         <v>3742</v>
@@ -18648,7 +18648,7 @@
         <v>4671</v>
       </c>
       <c r="E437">
-        <v>2144</v>
+        <v>73476</v>
       </c>
       <c r="F437">
         <v>2635</v>
@@ -18683,7 +18683,7 @@
         <v>4836</v>
       </c>
       <c r="E438">
-        <v>2149</v>
+        <v>40184</v>
       </c>
       <c r="F438">
         <v>3186</v>
@@ -18718,7 +18718,7 @@
         <v>10147</v>
       </c>
       <c r="E439">
-        <v>5315</v>
+        <v>57633</v>
       </c>
       <c r="F439">
         <v>3834</v>
@@ -18753,7 +18753,7 @@
         <v>8531</v>
       </c>
       <c r="E440">
-        <v>4932</v>
+        <v>63385</v>
       </c>
       <c r="F440">
         <v>3385</v>
@@ -18788,7 +18788,7 @@
         <v>6586</v>
       </c>
       <c r="E441">
-        <v>3637</v>
+        <v>59986</v>
       </c>
       <c r="F441">
         <v>2181</v>
@@ -18823,7 +18823,7 @@
         <v>3096</v>
       </c>
       <c r="E442">
-        <v>1350</v>
+        <v>39029</v>
       </c>
       <c r="F442">
         <v>1667</v>
@@ -18858,7 +18858,7 @@
         <v>16363</v>
       </c>
       <c r="E443">
-        <v>10360</v>
+        <v>90155</v>
       </c>
       <c r="F443">
         <v>7516</v>
@@ -18893,7 +18893,7 @@
         <v>4615</v>
       </c>
       <c r="E444">
-        <v>2218</v>
+        <v>47008</v>
       </c>
       <c r="F444">
         <v>2039</v>
@@ -18928,7 +18928,7 @@
         <v>10605</v>
       </c>
       <c r="E445">
-        <v>6437</v>
+        <v>56510</v>
       </c>
       <c r="F445">
         <v>4081</v>
@@ -18963,7 +18963,7 @@
         <v>13563</v>
       </c>
       <c r="E446">
-        <v>6379</v>
+        <v>52106</v>
       </c>
       <c r="F446">
         <v>7470</v>
@@ -18998,7 +18998,7 @@
         <v>13943</v>
       </c>
       <c r="E447">
-        <v>6831</v>
+        <v>55074</v>
       </c>
       <c r="F447">
         <v>4841</v>
@@ -19033,7 +19033,7 @@
         <v>10718</v>
       </c>
       <c r="E448">
-        <v>5571</v>
+        <v>59160</v>
       </c>
       <c r="F448">
         <v>4313</v>
@@ -19068,7 +19068,7 @@
         <v>15125</v>
       </c>
       <c r="E449">
-        <v>5667</v>
+        <v>44062</v>
       </c>
       <c r="F449">
         <v>5894</v>
@@ -19103,7 +19103,7 @@
         <v>9133</v>
       </c>
       <c r="E450">
-        <v>3778</v>
+        <v>46108</v>
       </c>
       <c r="F450">
         <v>4716</v>
@@ -19138,7 +19138,7 @@
         <v>3898</v>
       </c>
       <c r="E451">
-        <v>1715</v>
+        <v>44862</v>
       </c>
       <c r="F451">
         <v>1961</v>
@@ -19173,7 +19173,7 @@
         <v>26504</v>
       </c>
       <c r="E452">
-        <v>13579</v>
+        <v>88193</v>
       </c>
       <c r="F452">
         <v>10373</v>
@@ -19208,7 +19208,7 @@
         <v>7862</v>
       </c>
       <c r="E453">
-        <v>3635</v>
+        <v>63017</v>
       </c>
       <c r="F453">
         <v>3950</v>
@@ -19243,7 +19243,7 @@
         <v>6112</v>
       </c>
       <c r="E454">
-        <v>3068</v>
+        <v>65489</v>
       </c>
       <c r="F454">
         <v>2349</v>
@@ -19278,7 +19278,7 @@
         <v>8051</v>
       </c>
       <c r="E455">
-        <v>3835</v>
+        <v>62564</v>
       </c>
       <c r="F455">
         <v>3618</v>
@@ -19313,7 +19313,7 @@
         <v>5535</v>
       </c>
       <c r="E456">
-        <v>2558</v>
+        <v>52277</v>
       </c>
       <c r="F456">
         <v>2402</v>
@@ -19348,7 +19348,7 @@
         <v>3747</v>
       </c>
       <c r="E457">
-        <v>1419</v>
+        <v>51278</v>
       </c>
       <c r="F457">
         <v>1854</v>
@@ -19383,7 +19383,7 @@
         <v>14098</v>
       </c>
       <c r="E458">
-        <v>7165</v>
+        <v>57085</v>
       </c>
       <c r="F458">
         <v>5605</v>
@@ -19418,7 +19418,7 @@
         <v>4360</v>
       </c>
       <c r="E459">
-        <v>1617</v>
+        <v>44440</v>
       </c>
       <c r="F459">
         <v>2712</v>
@@ -19453,7 +19453,7 @@
         <v>3687</v>
       </c>
       <c r="E460">
-        <v>1977</v>
+        <v>72093</v>
       </c>
       <c r="F460">
         <v>1536</v>
@@ -19488,7 +19488,7 @@
         <v>10464</v>
       </c>
       <c r="E461">
-        <v>4885</v>
+        <v>53745</v>
       </c>
       <c r="F461">
         <v>4640</v>
@@ -19523,7 +19523,7 @@
         <v>9739</v>
       </c>
       <c r="E462">
-        <v>3439</v>
+        <v>44189</v>
       </c>
       <c r="F462">
         <v>4355</v>
@@ -19558,7 +19558,7 @@
         <v>3949</v>
       </c>
       <c r="E463">
-        <v>1797</v>
+        <v>52132</v>
       </c>
       <c r="F463">
         <v>1700</v>
@@ -19593,7 +19593,7 @@
         <v>3984</v>
       </c>
       <c r="E464">
-        <v>2016</v>
+        <v>56964</v>
       </c>
       <c r="F464">
         <v>1594</v>
@@ -19628,7 +19628,7 @@
         <v>14447</v>
       </c>
       <c r="E465">
-        <v>6184</v>
+        <v>46224</v>
       </c>
       <c r="F465">
         <v>4845</v>
@@ -19663,7 +19663,7 @@
         <v>36</v>
       </c>
       <c r="E466">
-        <v>24</v>
+        <v>289000</v>
       </c>
       <c r="F466">
         <v>8</v>
@@ -19698,7 +19698,7 @@
         <v>11965</v>
       </c>
       <c r="E467">
-        <v>5706</v>
+        <v>54884</v>
       </c>
       <c r="F467">
         <v>3852</v>
@@ -19733,7 +19733,7 @@
         <v>3828</v>
       </c>
       <c r="E468">
-        <v>1675</v>
+        <v>41769</v>
       </c>
       <c r="F468">
         <v>3147</v>
@@ -19768,7 +19768,7 @@
         <v>20044</v>
       </c>
       <c r="E469">
-        <v>11113</v>
+        <v>57354</v>
       </c>
       <c r="F469">
         <v>7683</v>
@@ -19803,7 +19803,7 @@
         <v>15887</v>
       </c>
       <c r="E470">
-        <v>9153</v>
+        <v>60130</v>
       </c>
       <c r="F470">
         <v>5860</v>
@@ -19838,7 +19838,7 @@
         <v>11860</v>
       </c>
       <c r="E471">
-        <v>7247</v>
+        <v>58549</v>
       </c>
       <c r="F471">
         <v>4373</v>
@@ -19873,7 +19873,7 @@
         <v>16807</v>
       </c>
       <c r="E472">
-        <v>9373</v>
+        <v>59729</v>
       </c>
       <c r="F472">
         <v>6131</v>
@@ -19908,7 +19908,7 @@
         <v>4281</v>
       </c>
       <c r="E473">
-        <v>1807</v>
+        <v>43050</v>
       </c>
       <c r="F473">
         <v>2037</v>
@@ -19943,7 +19943,7 @@
         <v>7666</v>
       </c>
       <c r="E474">
-        <v>4236</v>
+        <v>49190</v>
       </c>
       <c r="F474">
         <v>2876</v>
@@ -19978,7 +19978,7 @@
         <v>9011</v>
       </c>
       <c r="E475">
-        <v>4841</v>
+        <v>57594</v>
       </c>
       <c r="F475">
         <v>3714</v>
@@ -20013,7 +20013,7 @@
         <v>9253</v>
       </c>
       <c r="E476">
-        <v>4243</v>
+        <v>50630</v>
       </c>
       <c r="F476">
         <v>4113</v>
@@ -20048,7 +20048,7 @@
         <v>38</v>
       </c>
       <c r="E477">
-        <v>19</v>
+        <v>49385</v>
       </c>
       <c r="F477">
         <v>13</v>
@@ -20083,7 +20083,7 @@
         <v>4401</v>
       </c>
       <c r="E478">
-        <v>2138</v>
+        <v>41294</v>
       </c>
       <c r="F478">
         <v>2455</v>
@@ -20118,7 +20118,7 @@
         <v>7480</v>
       </c>
       <c r="E479">
-        <v>4754</v>
+        <v>54025</v>
       </c>
       <c r="F479">
         <v>4164</v>
@@ -20153,7 +20153,7 @@
         <v>22476</v>
       </c>
       <c r="E480">
-        <v>12510</v>
+        <v>63553</v>
       </c>
       <c r="F480">
         <v>7593</v>
@@ -20188,7 +20188,7 @@
         <v>17967</v>
       </c>
       <c r="E481">
-        <v>8719</v>
+        <v>54908</v>
       </c>
       <c r="F481">
         <v>7152</v>
@@ -20223,7 +20223,7 @@
         <v>11034</v>
       </c>
       <c r="E482">
-        <v>5237</v>
+        <v>48026</v>
       </c>
       <c r="F482">
         <v>4737</v>
@@ -20258,7 +20258,7 @@
         <v>9782</v>
       </c>
       <c r="E483">
-        <v>4883</v>
+        <v>57858</v>
       </c>
       <c r="F483">
         <v>4405</v>
@@ -20293,7 +20293,7 @@
         <v>7464</v>
       </c>
       <c r="E484">
-        <v>2978</v>
+        <v>45074</v>
       </c>
       <c r="F484">
         <v>3621</v>
@@ -20328,7 +20328,7 @@
         <v>19002</v>
       </c>
       <c r="E485">
-        <v>9113</v>
+        <v>49425</v>
       </c>
       <c r="F485">
         <v>8939</v>
@@ -20363,7 +20363,7 @@
         <v>10925</v>
       </c>
       <c r="E486">
-        <v>4657</v>
+        <v>52455</v>
       </c>
       <c r="F486">
         <v>4924</v>
@@ -20433,7 +20433,7 @@
         <v>17040</v>
       </c>
       <c r="E488">
-        <v>9266</v>
+        <v>65901</v>
       </c>
       <c r="F488">
         <v>7255</v>
@@ -20468,7 +20468,7 @@
         <v>27938</v>
       </c>
       <c r="E489">
-        <v>16159</v>
+        <v>107923</v>
       </c>
       <c r="F489">
         <v>11089</v>
@@ -20503,7 +20503,7 @@
         <v>18587</v>
       </c>
       <c r="E490">
-        <v>9788</v>
+        <v>61577</v>
       </c>
       <c r="F490">
         <v>6512</v>
@@ -20538,7 +20538,7 @@
         <v>5241</v>
       </c>
       <c r="E491">
-        <v>3204</v>
+        <v>68352</v>
       </c>
       <c r="F491">
         <v>2059</v>
@@ -20573,7 +20573,7 @@
         <v>14824</v>
       </c>
       <c r="E492">
-        <v>8231</v>
+        <v>62539</v>
       </c>
       <c r="F492">
         <v>7055</v>
@@ -20608,7 +20608,7 @@
         <v>4597</v>
       </c>
       <c r="E493">
-        <v>2406</v>
+        <v>49092</v>
       </c>
       <c r="F493">
         <v>2040</v>
@@ -20643,7 +20643,7 @@
         <v>5281</v>
       </c>
       <c r="E494">
-        <v>2991</v>
+        <v>60010</v>
       </c>
       <c r="F494">
         <v>2748</v>
@@ -20678,7 +20678,7 @@
         <v>146</v>
       </c>
       <c r="E495">
-        <v>1091</v>
+        <v>64191</v>
       </c>
       <c r="F495">
         <v>59</v>
@@ -20713,7 +20713,7 @@
         <v>11514</v>
       </c>
       <c r="E496">
-        <v>6080</v>
+        <v>60529</v>
       </c>
       <c r="F496">
         <v>4761</v>
@@ -20748,7 +20748,7 @@
         <v>2317</v>
       </c>
       <c r="E497">
-        <v>877</v>
+        <v>42698</v>
       </c>
       <c r="F497">
         <v>1485</v>
@@ -20783,7 +20783,7 @@
         <v>10307</v>
       </c>
       <c r="E498">
-        <v>5166</v>
+        <v>51010</v>
       </c>
       <c r="F498">
         <v>4301</v>
@@ -20818,7 +20818,7 @@
         <v>7879</v>
       </c>
       <c r="E499">
-        <v>3623</v>
+        <v>47960</v>
       </c>
       <c r="F499">
         <v>3205</v>
@@ -20853,7 +20853,7 @@
         <v>4939</v>
       </c>
       <c r="E500">
-        <v>903</v>
+        <v>65625</v>
       </c>
       <c r="F500">
         <v>1791</v>
@@ -20888,7 +20888,7 @@
         <v>8516</v>
       </c>
       <c r="E501">
-        <v>4832</v>
+        <v>60835</v>
       </c>
       <c r="F501">
         <v>3719</v>
@@ -20923,7 +20923,7 @@
         <v>8088</v>
       </c>
       <c r="E502">
-        <v>4476</v>
+        <v>56044</v>
       </c>
       <c r="F502">
         <v>3420</v>
@@ -20958,7 +20958,7 @@
         <v>11202</v>
       </c>
       <c r="E503">
-        <v>4926</v>
+        <v>52220</v>
       </c>
       <c r="F503">
         <v>4918</v>
@@ -20993,7 +20993,7 @@
         <v>11982</v>
       </c>
       <c r="E504">
-        <v>5850</v>
+        <v>68904</v>
       </c>
       <c r="F504">
         <v>4233</v>
@@ -21028,7 +21028,7 @@
         <v>21283</v>
       </c>
       <c r="E505">
-        <v>9834</v>
+        <v>51864</v>
       </c>
       <c r="F505">
         <v>7131</v>
@@ -21063,7 +21063,7 @@
         <v>16962</v>
       </c>
       <c r="E506">
-        <v>8841</v>
+        <v>55637</v>
       </c>
       <c r="F506">
         <v>6162</v>
@@ -21098,7 +21098,7 @@
         <v>9187</v>
       </c>
       <c r="E507">
-        <v>4362</v>
+        <v>52754</v>
       </c>
       <c r="F507">
         <v>3671</v>
@@ -21133,7 +21133,7 @@
         <v>0</v>
       </c>
       <c r="E508">
-        <v>1846</v>
+        <v>90693</v>
       </c>
       <c r="F508">
         <v>1052</v>
@@ -21168,7 +21168,7 @@
         <v>19448</v>
       </c>
       <c r="E509">
-        <v>10398</v>
+        <v>56565</v>
       </c>
       <c r="F509">
         <v>7437</v>
@@ -21203,7 +21203,7 @@
         <v>15641</v>
       </c>
       <c r="E510">
-        <v>7250</v>
+        <v>44201</v>
       </c>
       <c r="F510">
         <v>7059</v>
@@ -21238,7 +21238,7 @@
         <v>15415</v>
       </c>
       <c r="E511">
-        <v>7418</v>
+        <v>49186</v>
       </c>
       <c r="F511">
         <v>6551</v>
@@ -21273,7 +21273,7 @@
         <v>13040</v>
       </c>
       <c r="E512">
-        <v>5169</v>
+        <v>60042</v>
       </c>
       <c r="F512">
         <v>5990</v>
@@ -21308,7 +21308,7 @@
         <v>8435</v>
       </c>
       <c r="E513">
-        <v>3743</v>
+        <v>59941</v>
       </c>
       <c r="F513">
         <v>3728</v>
@@ -21343,7 +21343,7 @@
         <v>3703</v>
       </c>
       <c r="E514">
-        <v>1633</v>
+        <v>54057</v>
       </c>
       <c r="F514">
         <v>1454</v>
@@ -21378,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="E515">
-        <v>11413</v>
+        <v>50781</v>
       </c>
       <c r="F515">
         <v>10089</v>
@@ -21413,7 +21413,7 @@
         <v>3855</v>
       </c>
       <c r="E516">
-        <v>1790</v>
+        <v>45698</v>
       </c>
       <c r="F516">
         <v>1674</v>
@@ -21448,7 +21448,7 @@
         <v>20295</v>
       </c>
       <c r="E517">
-        <v>9266</v>
+        <v>51552</v>
       </c>
       <c r="F517">
         <v>7701</v>
@@ -21483,7 +21483,7 @@
         <v>11551</v>
       </c>
       <c r="E518">
-        <v>6124</v>
+        <v>54514</v>
       </c>
       <c r="F518">
         <v>4298</v>
@@ -21518,7 +21518,7 @@
         <v>7098</v>
       </c>
       <c r="E519">
-        <v>2619</v>
+        <v>44084</v>
       </c>
       <c r="F519">
         <v>3919</v>
@@ -21553,7 +21553,7 @@
         <v>10863</v>
       </c>
       <c r="E520">
-        <v>5174</v>
+        <v>48109</v>
       </c>
       <c r="F520">
         <v>3703</v>
@@ -21588,7 +21588,7 @@
         <v>4050</v>
       </c>
       <c r="E521">
-        <v>1961</v>
+        <v>47642</v>
       </c>
       <c r="F521">
         <v>1844</v>
@@ -21623,7 +21623,7 @@
         <v>3727</v>
       </c>
       <c r="E522">
-        <v>2137</v>
+        <v>54863</v>
       </c>
       <c r="F522">
         <v>2360</v>
@@ -21658,7 +21658,7 @@
         <v>414</v>
       </c>
       <c r="E523">
-        <v>272</v>
+        <v>44664</v>
       </c>
       <c r="F523">
         <v>221</v>
@@ -21693,7 +21693,7 @@
         <v>5261</v>
       </c>
       <c r="E524">
-        <v>2563</v>
+        <v>51604</v>
       </c>
       <c r="F524">
         <v>6658</v>
@@ -21728,7 +21728,7 @@
         <v>5491</v>
       </c>
       <c r="E525">
-        <v>2824</v>
+        <v>45362</v>
       </c>
       <c r="F525">
         <v>2502</v>
@@ -21763,7 +21763,7 @@
         <v>1735</v>
       </c>
       <c r="E526">
-        <v>637</v>
+        <v>41545</v>
       </c>
       <c r="F526">
         <v>874</v>
@@ -21798,7 +21798,7 @@
         <v>0</v>
       </c>
       <c r="E527">
-        <v>4329</v>
+        <v>47508</v>
       </c>
       <c r="F527">
         <v>4054</v>
@@ -21833,7 +21833,7 @@
         <v>6318</v>
       </c>
       <c r="E528">
-        <v>3186</v>
+        <v>55505</v>
       </c>
       <c r="F528">
         <v>2367</v>
@@ -21868,7 +21868,7 @@
         <v>5076</v>
       </c>
       <c r="E529">
-        <v>3238</v>
+        <v>79889</v>
       </c>
       <c r="F529">
         <v>1724</v>
@@ -21903,7 +21903,7 @@
         <v>6917</v>
       </c>
       <c r="E530">
-        <v>4076</v>
+        <v>65549</v>
       </c>
       <c r="F530">
         <v>2091</v>
@@ -21938,7 +21938,7 @@
         <v>3793</v>
       </c>
       <c r="E531">
-        <v>2426</v>
+        <v>60728</v>
       </c>
       <c r="F531">
         <v>2187</v>
@@ -21973,7 +21973,7 @@
         <v>537</v>
       </c>
       <c r="E532">
-        <v>298</v>
+        <v>84846</v>
       </c>
       <c r="F532">
         <v>329</v>
@@ -22008,7 +22008,7 @@
         <v>4896</v>
       </c>
       <c r="E533">
-        <v>1916</v>
+        <v>49069</v>
       </c>
       <c r="F533">
         <v>2332</v>
@@ -22043,7 +22043,7 @@
         <v>16567</v>
       </c>
       <c r="E534">
-        <v>6542</v>
+        <v>48741</v>
       </c>
       <c r="F534">
         <v>9172</v>
@@ -22078,7 +22078,7 @@
         <v>22689</v>
       </c>
       <c r="E535">
-        <v>12295</v>
+        <v>64298</v>
       </c>
       <c r="F535">
         <v>8938</v>
@@ -22113,7 +22113,7 @@
         <v>13973</v>
       </c>
       <c r="E536">
-        <v>6654</v>
+        <v>54725</v>
       </c>
       <c r="F536">
         <v>6402</v>
@@ -22148,7 +22148,7 @@
         <v>6768</v>
       </c>
       <c r="E537">
-        <v>3809</v>
+        <v>60889</v>
       </c>
       <c r="F537">
         <v>2716</v>
@@ -22183,7 +22183,7 @@
         <v>7761</v>
       </c>
       <c r="E538">
-        <v>4279</v>
+        <v>71482</v>
       </c>
       <c r="F538">
         <v>2831</v>
@@ -22218,7 +22218,7 @@
         <v>23091</v>
       </c>
       <c r="E539">
-        <v>11874</v>
+        <v>61366</v>
       </c>
       <c r="F539">
         <v>8868</v>
@@ -22253,7 +22253,7 @@
         <v>25045</v>
       </c>
       <c r="E540">
-        <v>12485</v>
+        <v>74810</v>
       </c>
       <c r="F540">
         <v>8758</v>
@@ -22288,7 +22288,7 @@
         <v>8565</v>
       </c>
       <c r="E541">
-        <v>3940</v>
+        <v>50438</v>
       </c>
       <c r="F541">
         <v>4325</v>
@@ -22358,7 +22358,7 @@
         <v>5602</v>
       </c>
       <c r="E543">
-        <v>3126</v>
+        <v>45970</v>
       </c>
       <c r="F543">
         <v>2580</v>
@@ -22393,7 +22393,7 @@
         <v>23655</v>
       </c>
       <c r="E544">
-        <v>15775</v>
+        <v>99933</v>
       </c>
       <c r="F544">
         <v>11172</v>
@@ -22428,7 +22428,7 @@
         <v>6333</v>
       </c>
       <c r="E545">
-        <v>2461</v>
+        <v>44787</v>
       </c>
       <c r="F545">
         <v>4601</v>
@@ -22463,7 +22463,7 @@
         <v>6220</v>
       </c>
       <c r="E546">
-        <v>2743</v>
+        <v>43835</v>
       </c>
       <c r="F546">
         <v>2991</v>
@@ -22498,7 +22498,7 @@
         <v>8935</v>
       </c>
       <c r="E547">
-        <v>4372</v>
+        <v>44673</v>
       </c>
       <c r="F547">
         <v>6545</v>
@@ -22533,7 +22533,7 @@
         <v>5549</v>
       </c>
       <c r="E548">
-        <v>2555</v>
+        <v>44548</v>
       </c>
       <c r="F548">
         <v>2673</v>
@@ -22568,7 +22568,7 @@
         <v>11348</v>
       </c>
       <c r="E549">
-        <v>6807</v>
+        <v>42682</v>
       </c>
       <c r="F549">
         <v>4944</v>
@@ -22603,7 +22603,7 @@
         <v>9260</v>
       </c>
       <c r="E550">
-        <v>5905</v>
+        <v>47076</v>
       </c>
       <c r="F550">
         <v>4459</v>
@@ -22638,7 +22638,7 @@
         <v>7827</v>
       </c>
       <c r="E551">
-        <v>3971</v>
+        <v>55747</v>
       </c>
       <c r="F551">
         <v>3018</v>
@@ -22673,7 +22673,7 @@
         <v>6402</v>
       </c>
       <c r="E552">
-        <v>2890</v>
+        <v>52251</v>
       </c>
       <c r="F552">
         <v>2878</v>
@@ -22708,7 +22708,7 @@
         <v>18489</v>
       </c>
       <c r="E553">
-        <v>6756</v>
+        <v>47487</v>
       </c>
       <c r="F553">
         <v>8345</v>
@@ -22743,7 +22743,7 @@
         <v>8001</v>
       </c>
       <c r="E554">
-        <v>3038</v>
+        <v>43706</v>
       </c>
       <c r="F554">
         <v>3990</v>
@@ -22778,7 +22778,7 @@
         <v>5278</v>
       </c>
       <c r="E555">
-        <v>2074</v>
+        <v>44037</v>
       </c>
       <c r="F555">
         <v>2780</v>
@@ -22813,7 +22813,7 @@
         <v>8442</v>
       </c>
       <c r="E556">
-        <v>3125</v>
+        <v>47615</v>
       </c>
       <c r="F556">
         <v>4363</v>
@@ -22848,7 +22848,7 @@
         <v>10560</v>
       </c>
       <c r="E557">
-        <v>5589</v>
+        <v>49259</v>
       </c>
       <c r="F557">
         <v>4329</v>
@@ -22883,7 +22883,7 @@
         <v>2810</v>
       </c>
       <c r="E558">
-        <v>1577</v>
+        <v>70099</v>
       </c>
       <c r="F558">
         <v>1032</v>
@@ -22918,7 +22918,7 @@
         <v>6090</v>
       </c>
       <c r="E559">
-        <v>3183</v>
+        <v>54460</v>
       </c>
       <c r="F559">
         <v>2533</v>
@@ -22953,7 +22953,7 @@
         <v>3184</v>
       </c>
       <c r="E560">
-        <v>1064</v>
+        <v>49147</v>
       </c>
       <c r="F560">
         <v>1557</v>
@@ -22988,7 +22988,7 @@
         <v>19560</v>
       </c>
       <c r="E561">
-        <v>9289</v>
+        <v>51680</v>
       </c>
       <c r="F561">
         <v>7418</v>
@@ -23023,7 +23023,7 @@
         <v>18157</v>
       </c>
       <c r="E562">
-        <v>9600</v>
+        <v>54175</v>
       </c>
       <c r="F562">
         <v>6254</v>
@@ -23058,7 +23058,7 @@
         <v>10846</v>
       </c>
       <c r="E563">
-        <v>4727</v>
+        <v>46452</v>
       </c>
       <c r="F563">
         <v>5949</v>
@@ -23093,7 +23093,7 @@
         <v>5151</v>
       </c>
       <c r="E564">
-        <v>2326</v>
+        <v>51590</v>
       </c>
       <c r="F564">
         <v>2550</v>
@@ -23128,7 +23128,7 @@
         <v>7339</v>
       </c>
       <c r="E565">
-        <v>3842</v>
+        <v>51148</v>
       </c>
       <c r="F565">
         <v>2712</v>
@@ -23163,7 +23163,7 @@
         <v>29739</v>
       </c>
       <c r="E566">
-        <v>14004</v>
+        <v>52502</v>
       </c>
       <c r="F566">
         <v>9981</v>
@@ -23198,7 +23198,7 @@
         <v>0</v>
       </c>
       <c r="E567">
-        <v>4117</v>
+        <v>56769</v>
       </c>
       <c r="F567">
         <v>1175</v>
@@ -23233,7 +23233,7 @@
         <v>7344</v>
       </c>
       <c r="E568">
-        <v>3690</v>
+        <v>66910</v>
       </c>
       <c r="F568">
         <v>2582</v>
@@ -23268,7 +23268,7 @@
         <v>5606</v>
       </c>
       <c r="E569">
-        <v>2791</v>
+        <v>60059</v>
       </c>
       <c r="F569">
         <v>2344</v>
@@ -23303,7 +23303,7 @@
         <v>11011</v>
       </c>
       <c r="E570">
-        <v>5446</v>
+        <v>60715</v>
       </c>
       <c r="F570">
         <v>5251</v>
@@ -23338,7 +23338,7 @@
         <v>3747</v>
       </c>
       <c r="E571">
-        <v>1562</v>
+        <v>43009</v>
       </c>
       <c r="F571">
         <v>1998</v>
@@ -23373,7 +23373,7 @@
         <v>4136</v>
       </c>
       <c r="E572">
-        <v>1743</v>
+        <v>49937</v>
       </c>
       <c r="F572">
         <v>2263</v>
@@ -23408,7 +23408,7 @@
         <v>7493</v>
       </c>
       <c r="E573">
-        <v>3115</v>
+        <v>50426</v>
       </c>
       <c r="F573">
         <v>3450</v>
@@ -23443,7 +23443,7 @@
         <v>5396</v>
       </c>
       <c r="E574">
-        <v>2429</v>
+        <v>47735</v>
       </c>
       <c r="F574">
         <v>2539</v>
@@ -23478,7 +23478,7 @@
         <v>3345</v>
       </c>
       <c r="E575">
-        <v>1544</v>
+        <v>49752</v>
       </c>
       <c r="F575">
         <v>1524</v>
@@ -23513,7 +23513,7 @@
         <v>2737</v>
       </c>
       <c r="E576">
-        <v>1643</v>
+        <v>63252</v>
       </c>
       <c r="F576">
         <v>1112</v>
@@ -23548,7 +23548,7 @@
         <v>15405</v>
       </c>
       <c r="E577">
-        <v>7306</v>
+        <v>51372</v>
       </c>
       <c r="F577">
         <v>7155</v>
@@ -23583,7 +23583,7 @@
         <v>19205</v>
       </c>
       <c r="E578">
-        <v>10318</v>
+        <v>57137</v>
       </c>
       <c r="F578">
         <v>7683</v>
@@ -23618,7 +23618,7 @@
         <v>8112</v>
       </c>
       <c r="E579">
-        <v>3937</v>
+        <v>58082</v>
       </c>
       <c r="F579">
         <v>4027</v>
@@ -23653,7 +23653,7 @@
         <v>2137</v>
       </c>
       <c r="E580">
-        <v>1217</v>
+        <v>65169</v>
       </c>
       <c r="F580">
         <v>730</v>
@@ -23688,7 +23688,7 @@
         <v>2623</v>
       </c>
       <c r="E581">
-        <v>1250</v>
+        <v>47083</v>
       </c>
       <c r="F581">
         <v>1407</v>
@@ -23758,7 +23758,7 @@
         <v>14883</v>
       </c>
       <c r="E583">
-        <v>7510</v>
+        <v>64846</v>
       </c>
       <c r="F583">
         <v>6381</v>
@@ -23793,7 +23793,7 @@
         <v>3870</v>
       </c>
       <c r="E584">
-        <v>1332</v>
+        <v>48698</v>
       </c>
       <c r="F584">
         <v>2204</v>
@@ -23828,7 +23828,7 @@
         <v>4938</v>
       </c>
       <c r="E585">
-        <v>1695</v>
+        <v>45748</v>
       </c>
       <c r="F585">
         <v>3401</v>
@@ -23863,7 +23863,7 @@
         <v>4855</v>
       </c>
       <c r="E586">
-        <v>2300</v>
+        <v>50869</v>
       </c>
       <c r="F586">
         <v>2393</v>
@@ -23898,7 +23898,7 @@
         <v>9045</v>
       </c>
       <c r="E587">
-        <v>5239</v>
+        <v>93855</v>
       </c>
       <c r="F587">
         <v>4137</v>
@@ -23933,7 +23933,7 @@
         <v>4090</v>
       </c>
       <c r="E588">
-        <v>1646</v>
+        <v>50225</v>
       </c>
       <c r="F588">
         <v>2595</v>
@@ -23968,7 +23968,7 @@
         <v>8509</v>
       </c>
       <c r="E589">
-        <v>4221</v>
+        <v>51666</v>
       </c>
       <c r="F589">
         <v>3895</v>
@@ -24003,7 +24003,7 @@
         <v>5637</v>
       </c>
       <c r="E590">
-        <v>2369</v>
+        <v>48323</v>
       </c>
       <c r="F590">
         <v>2552</v>
@@ -24038,7 +24038,7 @@
         <v>15276</v>
       </c>
       <c r="E591">
-        <v>7693</v>
+        <v>52736</v>
       </c>
       <c r="F591">
         <v>6312</v>
@@ -24073,7 +24073,7 @@
         <v>25030</v>
       </c>
       <c r="E592">
-        <v>11810</v>
+        <v>58637</v>
       </c>
       <c r="F592">
         <v>11320</v>
@@ -24108,7 +24108,7 @@
         <v>8070</v>
       </c>
       <c r="E593">
-        <v>3415</v>
+        <v>44835</v>
       </c>
       <c r="F593">
         <v>4667</v>
@@ -24143,7 +24143,7 @@
         <v>29329</v>
       </c>
       <c r="E594">
-        <v>18183</v>
+        <v>64626</v>
       </c>
       <c r="F594">
         <v>9358</v>
@@ -24178,7 +24178,7 @@
         <v>17639</v>
       </c>
       <c r="E595">
-        <v>9496</v>
+        <v>57069</v>
       </c>
       <c r="F595">
         <v>7053</v>
@@ -24213,7 +24213,7 @@
         <v>6341</v>
       </c>
       <c r="E596">
-        <v>3237</v>
+        <v>56613</v>
       </c>
       <c r="F596">
         <v>2597</v>
@@ -24248,7 +24248,7 @@
         <v>23501</v>
       </c>
       <c r="E597">
-        <v>10607</v>
+        <v>49106</v>
       </c>
       <c r="F597">
         <v>7647</v>
@@ -24283,7 +24283,7 @@
         <v>0</v>
       </c>
       <c r="E598">
-        <v>8031</v>
+        <v>51385</v>
       </c>
       <c r="F598">
         <v>6559</v>
@@ -24318,7 +24318,7 @@
         <v>19271</v>
       </c>
       <c r="E599">
-        <v>11330</v>
+        <v>76665</v>
       </c>
       <c r="F599">
         <v>8281</v>
@@ -24353,7 +24353,7 @@
         <v>3458</v>
       </c>
       <c r="E600">
-        <v>1930</v>
+        <v>64077</v>
       </c>
       <c r="F600">
         <v>2029</v>
@@ -24388,7 +24388,7 @@
         <v>4007</v>
       </c>
       <c r="E601">
-        <v>2686</v>
+        <v>68870</v>
       </c>
       <c r="F601">
         <v>1794</v>
@@ -24423,7 +24423,7 @@
         <v>9476</v>
       </c>
       <c r="E602">
-        <v>5592</v>
+        <v>62396</v>
       </c>
       <c r="F602">
         <v>3636</v>
@@ -24458,7 +24458,7 @@
         <v>2961</v>
       </c>
       <c r="E603">
-        <v>970</v>
+        <v>52498</v>
       </c>
       <c r="F603">
         <v>1584</v>
@@ -24493,7 +24493,7 @@
         <v>11039</v>
       </c>
       <c r="E604">
-        <v>6219</v>
+        <v>74860</v>
       </c>
       <c r="F604">
         <v>4246</v>
@@ -24528,7 +24528,7 @@
         <v>19291</v>
       </c>
       <c r="E605">
-        <v>9926</v>
+        <v>64962</v>
       </c>
       <c r="F605">
         <v>7238</v>
@@ -24563,7 +24563,7 @@
         <v>6709</v>
       </c>
       <c r="E606">
-        <v>2998</v>
+        <v>45717</v>
       </c>
       <c r="F606">
         <v>3126</v>
@@ -24598,7 +24598,7 @@
         <v>9603</v>
       </c>
       <c r="E607">
-        <v>4453</v>
+        <v>50112</v>
       </c>
       <c r="F607">
         <v>4792</v>
@@ -24633,7 +24633,7 @@
         <v>12019</v>
       </c>
       <c r="E608">
-        <v>6021</v>
+        <v>63621</v>
       </c>
       <c r="F608">
         <v>5273</v>
@@ -24668,7 +24668,7 @@
         <v>3497</v>
       </c>
       <c r="E609">
-        <v>1177</v>
+        <v>54201</v>
       </c>
       <c r="F609">
         <v>1975</v>
@@ -24703,7 +24703,7 @@
         <v>10514</v>
       </c>
       <c r="E610">
-        <v>4539</v>
+        <v>58537</v>
       </c>
       <c r="F610">
         <v>5055</v>
@@ -24738,7 +24738,7 @@
         <v>3218</v>
       </c>
       <c r="E611">
-        <v>1249</v>
+        <v>49787</v>
       </c>
       <c r="F611">
         <v>1841</v>
@@ -24773,7 +24773,7 @@
         <v>8398</v>
       </c>
       <c r="E612">
-        <v>3603</v>
+        <v>40366</v>
       </c>
       <c r="F612">
         <v>3809</v>
@@ -24808,7 +24808,7 @@
         <v>12846</v>
       </c>
       <c r="E613">
-        <v>6471</v>
+        <v>64057</v>
       </c>
       <c r="F613">
         <v>4839</v>
@@ -24843,7 +24843,7 @@
         <v>2625</v>
       </c>
       <c r="E614">
-        <v>1245</v>
+        <v>76717</v>
       </c>
       <c r="F614">
         <v>1296</v>
@@ -24878,7 +24878,7 @@
         <v>18196</v>
       </c>
       <c r="E615">
-        <v>8135</v>
+        <v>44401</v>
       </c>
       <c r="F615">
         <v>8014</v>
@@ -24913,7 +24913,7 @@
         <v>3716</v>
       </c>
       <c r="E616">
-        <v>1608</v>
+        <v>46802</v>
       </c>
       <c r="F616">
         <v>1886</v>
@@ -24948,7 +24948,7 @@
         <v>9088</v>
       </c>
       <c r="E617">
-        <v>3893</v>
+        <v>45556</v>
       </c>
       <c r="F617">
         <v>3857</v>
@@ -24983,7 +24983,7 @@
         <v>9906</v>
       </c>
       <c r="E618">
-        <v>4232</v>
+        <v>47326</v>
       </c>
       <c r="F618">
         <v>4200</v>
@@ -25018,7 +25018,7 @@
         <v>12376</v>
       </c>
       <c r="E619">
-        <v>6153</v>
+        <v>69591</v>
       </c>
       <c r="F619">
         <v>5511</v>
@@ -25053,7 +25053,7 @@
         <v>4086</v>
       </c>
       <c r="E620">
-        <v>2061</v>
+        <v>67961</v>
       </c>
       <c r="F620">
         <v>1783</v>
@@ -25088,7 +25088,7 @@
         <v>4742</v>
       </c>
       <c r="E621">
-        <v>2457</v>
+        <v>45507</v>
       </c>
       <c r="F621">
         <v>2271</v>
@@ -25123,7 +25123,7 @@
         <v>4048</v>
       </c>
       <c r="E622">
-        <v>1993</v>
+        <v>50770</v>
       </c>
       <c r="F622">
         <v>2244</v>
@@ -25158,7 +25158,7 @@
         <v>38</v>
       </c>
       <c r="E623">
-        <v>17</v>
+        <v>54623</v>
       </c>
       <c r="F623">
         <v>20</v>
@@ -25193,7 +25193,7 @@
         <v>20380</v>
       </c>
       <c r="E624">
-        <v>9846</v>
+        <v>49086</v>
       </c>
       <c r="F624">
         <v>8262</v>
@@ -25228,7 +25228,7 @@
         <v>7808</v>
       </c>
       <c r="E625">
-        <v>3130</v>
+        <v>45999</v>
       </c>
       <c r="F625">
         <v>3440</v>
@@ -25263,7 +25263,7 @@
         <v>9775</v>
       </c>
       <c r="E626">
-        <v>3274</v>
+        <v>48468</v>
       </c>
       <c r="F626">
         <v>4887</v>
@@ -25298,7 +25298,7 @@
         <v>6208</v>
       </c>
       <c r="E627">
-        <v>3558</v>
+        <v>44601</v>
       </c>
       <c r="F627">
         <v>2731</v>
@@ -25333,7 +25333,7 @@
         <v>2336</v>
       </c>
       <c r="E628">
-        <v>1011</v>
+        <v>42698</v>
       </c>
       <c r="F628">
         <v>1111</v>
@@ -25368,7 +25368,7 @@
         <v>6848</v>
       </c>
       <c r="E629">
-        <v>3812</v>
+        <v>58661</v>
       </c>
       <c r="F629">
         <v>2461</v>
@@ -25403,7 +25403,7 @@
         <v>7320</v>
       </c>
       <c r="E630">
-        <v>3782</v>
+        <v>57239</v>
       </c>
       <c r="F630">
         <v>3249</v>
@@ -25438,7 +25438,7 @@
         <v>4910</v>
       </c>
       <c r="E631">
-        <v>2176</v>
+        <v>51311</v>
       </c>
       <c r="F631">
         <v>2178</v>
@@ -25473,7 +25473,7 @@
         <v>6138</v>
       </c>
       <c r="E632">
-        <v>2721</v>
+        <v>46614</v>
       </c>
       <c r="F632">
         <v>2926</v>
@@ -25508,7 +25508,7 @@
         <v>8183</v>
       </c>
       <c r="E633">
-        <v>4201</v>
+        <v>62652</v>
       </c>
       <c r="F633">
         <v>2360</v>
@@ -25543,7 +25543,7 @@
         <v>4796</v>
       </c>
       <c r="E634">
-        <v>2093</v>
+        <v>53509</v>
       </c>
       <c r="F634">
         <v>2115</v>
@@ -25578,7 +25578,7 @@
         <v>6712</v>
       </c>
       <c r="E635">
-        <v>2886</v>
+        <v>49135</v>
       </c>
       <c r="F635">
         <v>2916</v>
@@ -25613,7 +25613,7 @@
         <v>19446</v>
       </c>
       <c r="E636">
-        <v>8951</v>
+        <v>104373</v>
       </c>
       <c r="F636">
         <v>7147</v>
@@ -25648,7 +25648,7 @@
         <v>21621</v>
       </c>
       <c r="E637">
-        <v>9336</v>
+        <v>53164</v>
       </c>
       <c r="F637">
         <v>12867</v>
@@ -25683,7 +25683,7 @@
         <v>6631</v>
       </c>
       <c r="E638">
-        <v>3034</v>
+        <v>49006</v>
       </c>
       <c r="F638">
         <v>2951</v>
@@ -25718,7 +25718,7 @@
         <v>6153</v>
       </c>
       <c r="E639">
-        <v>3316</v>
+        <v>57316</v>
       </c>
       <c r="F639">
         <v>2894</v>
@@ -25753,7 +25753,7 @@
         <v>11435</v>
       </c>
       <c r="E640">
-        <v>7011</v>
+        <v>72476</v>
       </c>
       <c r="F640">
         <v>6396</v>
@@ -25788,7 +25788,7 @@
         <v>4396</v>
       </c>
       <c r="E641">
-        <v>2983</v>
+        <v>82349</v>
       </c>
       <c r="F641">
         <v>2519</v>
@@ -25823,7 +25823,7 @@
         <v>5342</v>
       </c>
       <c r="E642">
-        <v>2490</v>
+        <v>62185</v>
       </c>
       <c r="F642">
         <v>2408</v>
@@ -25858,7 +25858,7 @@
         <v>11355</v>
       </c>
       <c r="E643">
-        <v>10659</v>
+        <v>82919</v>
       </c>
       <c r="F643">
         <v>6531</v>
@@ -25893,7 +25893,7 @@
         <v>9812</v>
       </c>
       <c r="E644">
-        <v>4934</v>
+        <v>50071</v>
       </c>
       <c r="F644">
         <v>4772</v>
@@ -25928,7 +25928,7 @@
         <v>10483</v>
       </c>
       <c r="E645">
-        <v>5589</v>
+        <v>71770</v>
       </c>
       <c r="F645">
         <v>4540</v>
@@ -25963,7 +25963,7 @@
         <v>26354</v>
       </c>
       <c r="E646">
-        <v>17382</v>
+        <v>73385</v>
       </c>
       <c r="F646">
         <v>12125</v>
@@ -25998,7 +25998,7 @@
         <v>6960</v>
       </c>
       <c r="E647">
-        <v>2882</v>
+        <v>44868</v>
       </c>
       <c r="F647">
         <v>3678</v>
@@ -26033,7 +26033,7 @@
         <v>3302</v>
       </c>
       <c r="E648">
-        <v>2485</v>
+        <v>72084</v>
       </c>
       <c r="F648">
         <v>1417</v>
@@ -26068,7 +26068,7 @@
         <v>8201</v>
       </c>
       <c r="E649">
-        <v>4484</v>
+        <v>58942</v>
       </c>
       <c r="F649">
         <v>2900</v>
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="E650">
-        <v>9418</v>
+        <v>43699</v>
       </c>
       <c r="F650">
         <v>6786</v>
@@ -26138,7 +26138,7 @@
         <v>7871</v>
       </c>
       <c r="E651">
-        <v>3607</v>
+        <v>50219</v>
       </c>
       <c r="F651">
         <v>2862</v>
@@ -26173,7 +26173,7 @@
         <v>19099</v>
       </c>
       <c r="E652">
-        <v>10190</v>
+        <v>80122</v>
       </c>
       <c r="F652">
         <v>6425</v>
@@ -26208,7 +26208,7 @@
         <v>7267</v>
       </c>
       <c r="E653">
-        <v>3367</v>
+        <v>73537</v>
       </c>
       <c r="F653">
         <v>3527</v>
@@ -26278,7 +26278,7 @@
         <v>15040</v>
       </c>
       <c r="E655">
-        <v>7462</v>
+        <v>55414</v>
       </c>
       <c r="F655">
         <v>6537</v>
@@ -26313,7 +26313,7 @@
         <v>6573</v>
       </c>
       <c r="E656">
-        <v>3042</v>
+        <v>53323</v>
       </c>
       <c r="F656">
         <v>2888</v>
@@ -26348,7 +26348,7 @@
         <v>6125</v>
       </c>
       <c r="E657">
-        <v>3298</v>
+        <v>60265</v>
       </c>
       <c r="F657">
         <v>3127</v>
@@ -26383,7 +26383,7 @@
         <v>16185</v>
       </c>
       <c r="E658">
-        <v>7468</v>
+        <v>52425</v>
       </c>
       <c r="F658">
         <v>6818</v>
@@ -26418,7 +26418,7 @@
         <v>12758</v>
       </c>
       <c r="E659">
-        <v>7675</v>
+        <v>76005</v>
       </c>
       <c r="F659">
         <v>4525</v>
@@ -26453,7 +26453,7 @@
         <v>5913</v>
       </c>
       <c r="E660">
-        <v>3009</v>
+        <v>50422</v>
       </c>
       <c r="F660">
         <v>2746</v>
@@ -26488,7 +26488,7 @@
         <v>4128</v>
       </c>
       <c r="E661">
-        <v>1923</v>
+        <v>45740</v>
       </c>
       <c r="F661">
         <v>2071</v>
@@ -26523,7 +26523,7 @@
         <v>11238</v>
       </c>
       <c r="E662">
-        <v>4906</v>
+        <v>58817</v>
       </c>
       <c r="F662">
         <v>4998</v>
@@ -26558,7 +26558,7 @@
         <v>5974</v>
       </c>
       <c r="E663">
-        <v>2507</v>
+        <v>49302</v>
       </c>
       <c r="F663">
         <v>3902</v>
@@ -26593,7 +26593,7 @@
         <v>6453</v>
       </c>
       <c r="E664">
-        <v>3302</v>
+        <v>58436</v>
       </c>
       <c r="F664">
         <v>3255</v>
@@ -26628,7 +26628,7 @@
         <v>3204</v>
       </c>
       <c r="E665">
-        <v>1682</v>
+        <v>47395</v>
       </c>
       <c r="F665">
         <v>1927</v>
@@ -26663,7 +26663,7 @@
         <v>3686</v>
       </c>
       <c r="E666">
-        <v>1841</v>
+        <v>39715</v>
       </c>
       <c r="F666">
         <v>1898</v>
@@ -26698,7 +26698,7 @@
         <v>2945</v>
       </c>
       <c r="E667">
-        <v>985</v>
+        <v>42318</v>
       </c>
       <c r="F667">
         <v>987</v>
@@ -26733,7 +26733,7 @@
         <v>25130</v>
       </c>
       <c r="E668">
-        <v>12451</v>
+        <v>56640</v>
       </c>
       <c r="F668">
         <v>9933</v>
@@ -26768,7 +26768,7 @@
         <v>21105</v>
       </c>
       <c r="E669">
-        <v>11873</v>
+        <v>67670</v>
       </c>
       <c r="F669">
         <v>8255</v>
@@ -26803,7 +26803,7 @@
         <v>3966</v>
       </c>
       <c r="E670">
-        <v>1943</v>
+        <v>55874</v>
       </c>
       <c r="F670">
         <v>1669</v>
@@ -26838,7 +26838,7 @@
         <v>20617</v>
       </c>
       <c r="E671">
-        <v>8796</v>
+        <v>49495</v>
       </c>
       <c r="F671">
         <v>8115</v>
@@ -26873,7 +26873,7 @@
         <v>12422</v>
       </c>
       <c r="E672">
-        <v>5805</v>
+        <v>46057</v>
       </c>
       <c r="F672">
         <v>5550</v>
@@ -26908,7 +26908,7 @@
         <v>12363</v>
       </c>
       <c r="E673">
-        <v>6439</v>
+        <v>62651</v>
       </c>
       <c r="F673">
         <v>4800</v>
@@ -26943,7 +26943,7 @@
         <v>5096</v>
       </c>
       <c r="E674">
-        <v>2421</v>
+        <v>51421</v>
       </c>
       <c r="F674">
         <v>2446</v>
@@ -26978,7 +26978,7 @@
         <v>4704</v>
       </c>
       <c r="E675">
-        <v>2172</v>
+        <v>55034</v>
       </c>
       <c r="F675">
         <v>2337</v>
@@ -27013,7 +27013,7 @@
         <v>10661</v>
       </c>
       <c r="E676">
-        <v>4717</v>
+        <v>50563</v>
       </c>
       <c r="F676">
         <v>5124</v>
@@ -27048,7 +27048,7 @@
         <v>2537</v>
       </c>
       <c r="E677">
-        <v>1301</v>
+        <v>62890</v>
       </c>
       <c r="F677">
         <v>910</v>
@@ -27083,7 +27083,7 @@
         <v>5146</v>
       </c>
       <c r="E678">
-        <v>3167</v>
+        <v>70696</v>
       </c>
       <c r="F678">
         <v>2112</v>
@@ -27118,7 +27118,7 @@
         <v>19390</v>
       </c>
       <c r="E679">
-        <v>9255</v>
+        <v>54962</v>
       </c>
       <c r="F679">
         <v>9058</v>
@@ -27153,7 +27153,7 @@
         <v>20196</v>
       </c>
       <c r="E680">
-        <v>11251</v>
+        <v>61913</v>
       </c>
       <c r="F680">
         <v>7758</v>
@@ -27188,7 +27188,7 @@
         <v>11762</v>
       </c>
       <c r="E681">
-        <v>5661</v>
+        <v>58401</v>
       </c>
       <c r="F681">
         <v>4712</v>
@@ -27223,7 +27223,7 @@
         <v>6497</v>
       </c>
       <c r="E682">
-        <v>2494</v>
+        <v>44509</v>
       </c>
       <c r="F682">
         <v>4100</v>
@@ -27258,7 +27258,7 @@
         <v>3556</v>
       </c>
       <c r="E683">
-        <v>1795</v>
+        <v>41554</v>
       </c>
       <c r="F683">
         <v>3699</v>
@@ -27293,7 +27293,7 @@
         <v>2718</v>
       </c>
       <c r="E684">
-        <v>908</v>
+        <v>49168</v>
       </c>
       <c r="F684">
         <v>2427</v>
@@ -27328,7 +27328,7 @@
         <v>11857</v>
       </c>
       <c r="E685">
-        <v>6507</v>
+        <v>61434</v>
       </c>
       <c r="F685">
         <v>4563</v>
@@ -27363,7 +27363,7 @@
         <v>10838</v>
       </c>
       <c r="E686">
-        <v>5309</v>
+        <v>55591</v>
       </c>
       <c r="F686">
         <v>4065</v>
@@ -27398,7 +27398,7 @@
         <v>8324</v>
       </c>
       <c r="E687">
-        <v>3860</v>
+        <v>56589</v>
       </c>
       <c r="F687">
         <v>3574</v>
@@ -27433,7 +27433,7 @@
         <v>11251</v>
       </c>
       <c r="E688">
-        <v>5220</v>
+        <v>55085</v>
       </c>
       <c r="F688">
         <v>4929</v>
@@ -27468,7 +27468,7 @@
         <v>3420</v>
       </c>
       <c r="E689">
-        <v>1315</v>
+        <v>45740</v>
       </c>
       <c r="F689">
         <v>1688</v>
@@ -27503,7 +27503,7 @@
         <v>7040</v>
       </c>
       <c r="E690">
-        <v>3573</v>
+        <v>60216</v>
       </c>
       <c r="F690">
         <v>2797</v>
@@ -27538,7 +27538,7 @@
         <v>6459</v>
       </c>
       <c r="E691">
-        <v>2971</v>
+        <v>55496</v>
       </c>
       <c r="F691">
         <v>2861</v>
@@ -27573,7 +27573,7 @@
         <v>7898</v>
       </c>
       <c r="E692">
-        <v>3943</v>
+        <v>58190</v>
       </c>
       <c r="F692">
         <v>2479</v>
@@ -27608,7 +27608,7 @@
         <v>9804</v>
       </c>
       <c r="E693">
-        <v>4894</v>
+        <v>59858</v>
       </c>
       <c r="F693">
         <v>4167</v>
@@ -27643,7 +27643,7 @@
         <v>6374</v>
       </c>
       <c r="E694">
-        <v>2419</v>
+        <v>49130</v>
       </c>
       <c r="F694">
         <v>3695</v>
@@ -27678,7 +27678,7 @@
         <v>8035</v>
       </c>
       <c r="E695">
-        <v>4254</v>
+        <v>55984</v>
       </c>
       <c r="F695">
         <v>2884</v>
@@ -27713,7 +27713,7 @@
         <v>5078</v>
       </c>
       <c r="E696">
-        <v>2542</v>
+        <v>41092</v>
       </c>
       <c r="F696">
         <v>3289</v>
@@ -27748,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="E697">
-        <v>7175</v>
+        <v>60158</v>
       </c>
       <c r="F697">
         <v>4513</v>
@@ -27783,7 +27783,7 @@
         <v>3227</v>
       </c>
       <c r="E698">
-        <v>1612</v>
+        <v>45781</v>
       </c>
       <c r="F698">
         <v>1512</v>
@@ -27818,7 +27818,7 @@
         <v>13784</v>
       </c>
       <c r="E699">
-        <v>7864</v>
+        <v>55944</v>
       </c>
       <c r="F699">
         <v>6325</v>
@@ -27853,7 +27853,7 @@
         <v>33811</v>
       </c>
       <c r="E700">
-        <v>25792</v>
+        <v>74513</v>
       </c>
       <c r="F700">
         <v>19353</v>
@@ -27888,7 +27888,7 @@
         <v>5506</v>
       </c>
       <c r="E701">
-        <v>2069</v>
+        <v>45924</v>
       </c>
       <c r="F701">
         <v>3244</v>
@@ -27923,7 +27923,7 @@
         <v>14183</v>
       </c>
       <c r="E702">
-        <v>5083</v>
+        <v>51999</v>
       </c>
       <c r="F702">
         <v>6626</v>
@@ -27958,7 +27958,7 @@
         <v>10822</v>
       </c>
       <c r="E703">
-        <v>6028</v>
+        <v>64356</v>
       </c>
       <c r="F703">
         <v>3616</v>
@@ -27993,7 +27993,7 @@
         <v>5856</v>
       </c>
       <c r="E704">
-        <v>2930</v>
+        <v>50488</v>
       </c>
       <c r="F704">
         <v>2188</v>
@@ -28028,7 +28028,7 @@
         <v>5103</v>
       </c>
       <c r="E705">
-        <v>2315</v>
+        <v>48698</v>
       </c>
       <c r="F705">
         <v>2462</v>
@@ -28063,7 +28063,7 @@
         <v>6389</v>
       </c>
       <c r="E706">
-        <v>3161</v>
+        <v>62800</v>
       </c>
       <c r="F706">
         <v>2672</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E707">
-        <v>12530</v>
+        <v>66639</v>
       </c>
       <c r="F707">
         <v>7665</v>
@@ -28133,7 +28133,7 @@
         <v>17999</v>
       </c>
       <c r="E708">
-        <v>7695</v>
+        <v>52041</v>
       </c>
       <c r="F708">
         <v>20156</v>
@@ -28168,7 +28168,7 @@
         <v>5785</v>
       </c>
       <c r="E709">
-        <v>2069</v>
+        <v>49157</v>
       </c>
       <c r="F709">
         <v>2575</v>
@@ -28203,7 +28203,7 @@
         <v>14053</v>
       </c>
       <c r="E710">
-        <v>6677</v>
+        <v>55917</v>
       </c>
       <c r="F710">
         <v>6427</v>
@@ -28238,7 +28238,7 @@
         <v>7</v>
       </c>
       <c r="E711">
-        <v>8</v>
+        <v>78629</v>
       </c>
       <c r="F711">
         <v>5</v>
@@ -28273,7 +28273,7 @@
         <v>5475</v>
       </c>
       <c r="E712">
-        <v>3753</v>
+        <v>38635</v>
       </c>
       <c r="F712">
         <v>3192</v>
@@ -28308,7 +28308,7 @@
         <v>4538</v>
       </c>
       <c r="E713">
-        <v>2987</v>
+        <v>98737</v>
       </c>
       <c r="F713">
         <v>2437</v>
@@ -28343,7 +28343,7 @@
         <v>0</v>
       </c>
       <c r="E714">
-        <v>3971</v>
+        <v>53144</v>
       </c>
       <c r="F714">
         <v>4336</v>
@@ -28413,7 +28413,7 @@
         <v>16198</v>
       </c>
       <c r="E716">
-        <v>7829</v>
+        <v>48647</v>
       </c>
       <c r="F716">
         <v>7329</v>
@@ -28448,7 +28448,7 @@
         <v>28724</v>
       </c>
       <c r="E717">
-        <v>13311</v>
+        <v>54668</v>
       </c>
       <c r="F717">
         <v>13285</v>
@@ -28483,7 +28483,7 @@
         <v>17652</v>
       </c>
       <c r="E718">
-        <v>7688</v>
+        <v>49540</v>
       </c>
       <c r="F718">
         <v>8497</v>
@@ -28518,7 +28518,7 @@
         <v>5375</v>
       </c>
       <c r="E719">
-        <v>2428</v>
+        <v>47346</v>
       </c>
       <c r="F719">
         <v>2295</v>
@@ -28553,7 +28553,7 @@
         <v>14347</v>
       </c>
       <c r="E720">
-        <v>6084</v>
+        <v>52065</v>
       </c>
       <c r="F720">
         <v>6857</v>
@@ -28588,7 +28588,7 @@
         <v>3365</v>
       </c>
       <c r="E721">
-        <v>1305</v>
+        <v>54697</v>
       </c>
       <c r="F721">
         <v>1555</v>
@@ -28623,7 +28623,7 @@
         <v>5752</v>
       </c>
       <c r="E722">
-        <v>2789</v>
+        <v>55075</v>
       </c>
       <c r="F722">
         <v>2871</v>
@@ -28658,7 +28658,7 @@
         <v>10943</v>
       </c>
       <c r="E723">
-        <v>5451</v>
+        <v>54527</v>
       </c>
       <c r="F723">
         <v>5345</v>
@@ -28693,7 +28693,7 @@
         <v>13602</v>
       </c>
       <c r="E724">
-        <v>6313</v>
+        <v>50881</v>
       </c>
       <c r="F724">
         <v>5789</v>
@@ -28728,7 +28728,7 @@
         <v>21275</v>
       </c>
       <c r="E725">
-        <v>14749</v>
+        <v>76628</v>
       </c>
       <c r="F725">
         <v>11394</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="E726">
-        <v>11465</v>
+        <v>61942</v>
       </c>
       <c r="F726">
         <v>4924</v>
@@ -28798,7 +28798,7 @@
         <v>8416</v>
       </c>
       <c r="E727">
-        <v>4397</v>
+        <v>55114</v>
       </c>
       <c r="F727">
         <v>3957</v>
@@ -28833,7 +28833,7 @@
         <v>44</v>
       </c>
       <c r="E728">
-        <v>56</v>
+        <v>123298</v>
       </c>
       <c r="F728">
         <v>10</v>
@@ -28868,7 +28868,7 @@
         <v>6539</v>
       </c>
       <c r="E729">
-        <v>3367</v>
+        <v>55002</v>
       </c>
       <c r="F729">
         <v>2855</v>
@@ -28903,7 +28903,7 @@
         <v>0</v>
       </c>
       <c r="E730">
-        <v>2330</v>
+        <v>87042</v>
       </c>
       <c r="F730">
         <v>1444</v>
@@ -28938,7 +28938,7 @@
         <v>11230</v>
       </c>
       <c r="E731">
-        <v>6381</v>
+        <v>63028</v>
       </c>
       <c r="F731">
         <v>5651</v>
@@ -28973,7 +28973,7 @@
         <v>4970</v>
       </c>
       <c r="E732">
-        <v>3199</v>
+        <v>65101</v>
       </c>
       <c r="F732">
         <v>2459</v>
@@ -29008,7 +29008,7 @@
         <v>17291</v>
       </c>
       <c r="E733">
-        <v>10930</v>
+        <v>77685</v>
       </c>
       <c r="F733">
         <v>6290</v>
@@ -29043,7 +29043,7 @@
         <v>13150</v>
       </c>
       <c r="E734">
-        <v>8030</v>
+        <v>78727</v>
       </c>
       <c r="F734">
         <v>4616</v>
@@ -29078,7 +29078,7 @@
         <v>7846</v>
       </c>
       <c r="E735">
-        <v>3239</v>
+        <v>51093</v>
       </c>
       <c r="F735">
         <v>3718</v>
@@ -29113,7 +29113,7 @@
         <v>0</v>
       </c>
       <c r="E736">
-        <v>972</v>
+        <v>51784</v>
       </c>
       <c r="F736">
         <v>1495</v>
@@ -29148,7 +29148,7 @@
         <v>15581</v>
       </c>
       <c r="E737">
-        <v>7646</v>
+        <v>55914</v>
       </c>
       <c r="F737">
         <v>5706</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="E738">
-        <v>11048</v>
+        <v>87636</v>
       </c>
       <c r="F738">
         <v>7780</v>
@@ -29218,7 +29218,7 @@
         <v>8473</v>
       </c>
       <c r="E739">
-        <v>4365</v>
+        <v>64348</v>
       </c>
       <c r="F739">
         <v>3646</v>
@@ -29253,7 +29253,7 @@
         <v>3672</v>
       </c>
       <c r="E740">
-        <v>1383</v>
+        <v>37193</v>
       </c>
       <c r="F740">
         <v>1700</v>
@@ -29288,7 +29288,7 @@
         <v>5947</v>
       </c>
       <c r="E741">
-        <v>3014</v>
+        <v>41842</v>
       </c>
       <c r="F741">
         <v>2510</v>
@@ -29323,7 +29323,7 @@
         <v>10567</v>
       </c>
       <c r="E742">
-        <v>4651</v>
+        <v>55855</v>
       </c>
       <c r="F742">
         <v>5307</v>
@@ -29358,7 +29358,7 @@
         <v>13171</v>
       </c>
       <c r="E743">
-        <v>7598</v>
+        <v>64720</v>
       </c>
       <c r="F743">
         <v>4861</v>
@@ -29393,7 +29393,7 @@
         <v>4820</v>
       </c>
       <c r="E744">
-        <v>2752</v>
+        <v>39037</v>
       </c>
       <c r="F744">
         <v>2294</v>
@@ -29428,7 +29428,7 @@
         <v>4960</v>
       </c>
       <c r="E745">
-        <v>2685</v>
+        <v>40286</v>
       </c>
       <c r="F745">
         <v>2223</v>
@@ -29463,7 +29463,7 @@
         <v>14204</v>
       </c>
       <c r="E746">
-        <v>7191</v>
+        <v>58050</v>
       </c>
       <c r="F746">
         <v>5665</v>
@@ -29498,7 +29498,7 @@
         <v>21031</v>
       </c>
       <c r="E747">
-        <v>11188</v>
+        <v>62700</v>
       </c>
       <c r="F747">
         <v>8211</v>
@@ -29533,7 +29533,7 @@
         <v>3144</v>
       </c>
       <c r="E748">
-        <v>1120</v>
+        <v>43512</v>
       </c>
       <c r="F748">
         <v>1124</v>
@@ -29568,7 +29568,7 @@
         <v>6555</v>
       </c>
       <c r="E749">
-        <v>3448</v>
+        <v>56133</v>
       </c>
       <c r="F749">
         <v>2790</v>
@@ -29603,7 +29603,7 @@
         <v>17811</v>
       </c>
       <c r="E750">
-        <v>16377</v>
+        <v>67176</v>
       </c>
       <c r="F750">
         <v>6318</v>
@@ -29638,7 +29638,7 @@
         <v>3606</v>
       </c>
       <c r="E751">
-        <v>1696</v>
+        <v>66270</v>
       </c>
       <c r="F751">
         <v>1744</v>
@@ -29673,7 +29673,7 @@
         <v>24085</v>
       </c>
       <c r="E752">
-        <v>12740</v>
+        <v>54354</v>
       </c>
       <c r="F752">
         <v>8971</v>
@@ -29708,7 +29708,7 @@
         <v>3382</v>
       </c>
       <c r="E753">
-        <v>1862</v>
+        <v>35990</v>
       </c>
       <c r="F753">
         <v>1407</v>
@@ -29743,7 +29743,7 @@
         <v>3895</v>
       </c>
       <c r="E754">
-        <v>1773</v>
+        <v>50642</v>
       </c>
       <c r="F754">
         <v>1785</v>
@@ -29778,7 +29778,7 @@
         <v>6079</v>
       </c>
       <c r="E755">
-        <v>2983</v>
+        <v>60866</v>
       </c>
       <c r="F755">
         <v>2725</v>
@@ -29813,7 +29813,7 @@
         <v>3346</v>
       </c>
       <c r="E756">
-        <v>1601</v>
+        <v>49572</v>
       </c>
       <c r="F756">
         <v>1762</v>
@@ -29848,7 +29848,7 @@
         <v>3476</v>
       </c>
       <c r="E757">
-        <v>1594</v>
+        <v>64904</v>
       </c>
       <c r="F757">
         <v>1497</v>
@@ -29883,7 +29883,7 @@
         <v>4307</v>
       </c>
       <c r="E758">
-        <v>2049</v>
+        <v>57780</v>
       </c>
       <c r="F758">
         <v>1995</v>
@@ -29918,7 +29918,7 @@
         <v>2947</v>
       </c>
       <c r="E759">
-        <v>1435</v>
+        <v>62894</v>
       </c>
       <c r="F759">
         <v>1202</v>
@@ -29953,7 +29953,7 @@
         <v>15995</v>
       </c>
       <c r="E760">
-        <v>7256</v>
+        <v>63942</v>
       </c>
       <c r="F760">
         <v>8082</v>
@@ -29988,7 +29988,7 @@
         <v>9945</v>
       </c>
       <c r="E761">
-        <v>4945</v>
+        <v>47006</v>
       </c>
       <c r="F761">
         <v>3813</v>
@@ -30023,7 +30023,7 @@
         <v>5848</v>
       </c>
       <c r="E762">
-        <v>2593</v>
+        <v>90422</v>
       </c>
       <c r="F762">
         <v>2295</v>
@@ -30058,7 +30058,7 @@
         <v>2439</v>
       </c>
       <c r="E763">
-        <v>446</v>
+        <v>51872</v>
       </c>
       <c r="F763">
         <v>1513</v>
@@ -30093,7 +30093,7 @@
         <v>7025</v>
       </c>
       <c r="E764">
-        <v>4005</v>
+        <v>59421</v>
       </c>
       <c r="F764">
         <v>3375</v>
@@ -30128,7 +30128,7 @@
         <v>5901</v>
       </c>
       <c r="E765">
-        <v>2427</v>
+        <v>49072</v>
       </c>
       <c r="F765">
         <v>3200</v>
@@ -30163,7 +30163,7 @@
         <v>3447</v>
       </c>
       <c r="E766">
-        <v>1759</v>
+        <v>54218</v>
       </c>
       <c r="F766">
         <v>1493</v>
@@ -30198,7 +30198,7 @@
         <v>9663</v>
       </c>
       <c r="E767">
-        <v>5015</v>
+        <v>62081</v>
       </c>
       <c r="F767">
         <v>3725</v>
@@ -30233,7 +30233,7 @@
         <v>21876</v>
       </c>
       <c r="E768">
-        <v>12141</v>
+        <v>57489</v>
       </c>
       <c r="F768">
         <v>6453</v>
@@ -30268,7 +30268,7 @@
         <v>21613</v>
       </c>
       <c r="E769">
-        <v>8978</v>
+        <v>48066</v>
       </c>
       <c r="F769">
         <v>13746</v>
@@ -30303,7 +30303,7 @@
         <v>4791</v>
       </c>
       <c r="E770">
-        <v>1881</v>
+        <v>55288</v>
       </c>
       <c r="F770">
         <v>1658</v>
@@ -30338,7 +30338,7 @@
         <v>21362</v>
       </c>
       <c r="E771">
-        <v>11105</v>
+        <v>57357</v>
       </c>
       <c r="F771">
         <v>6974</v>
@@ -30373,7 +30373,7 @@
         <v>2572</v>
       </c>
       <c r="E772">
-        <v>1065</v>
+        <v>63373</v>
       </c>
       <c r="F772">
         <v>1432</v>
@@ -30408,7 +30408,7 @@
         <v>23960</v>
       </c>
       <c r="E773">
-        <v>8999</v>
+        <v>48290</v>
       </c>
       <c r="F773">
         <v>5971</v>
@@ -30443,7 +30443,7 @@
         <v>4057</v>
       </c>
       <c r="E774">
-        <v>2667</v>
+        <v>95285</v>
       </c>
       <c r="F774">
         <v>1771</v>
@@ -30478,7 +30478,7 @@
         <v>4076</v>
       </c>
       <c r="E775">
-        <v>1640</v>
+        <v>46570</v>
       </c>
       <c r="F775">
         <v>2133</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="E776">
-        <v>16552</v>
+        <v>68365</v>
       </c>
       <c r="F776">
         <v>11132</v>
@@ -30548,7 +30548,7 @@
         <v>14891</v>
       </c>
       <c r="E777">
-        <v>7321</v>
+        <v>58070</v>
       </c>
       <c r="F777">
         <v>6933</v>
@@ -30583,7 +30583,7 @@
         <v>17517</v>
       </c>
       <c r="E778">
-        <v>8789</v>
+        <v>94936</v>
       </c>
       <c r="F778">
         <v>7183</v>
@@ -30618,7 +30618,7 @@
         <v>16778</v>
       </c>
       <c r="E779">
-        <v>8588</v>
+        <v>69512</v>
       </c>
       <c r="F779">
         <v>7227</v>
@@ -30653,7 +30653,7 @@
         <v>11766</v>
       </c>
       <c r="E780">
-        <v>5980</v>
+        <v>70651</v>
       </c>
       <c r="F780">
         <v>5231</v>
@@ -30688,7 +30688,7 @@
         <v>19889</v>
       </c>
       <c r="E781">
-        <v>9531</v>
+        <v>50072</v>
       </c>
       <c r="F781">
         <v>8496</v>
@@ -30723,7 +30723,7 @@
         <v>0</v>
       </c>
       <c r="E782">
-        <v>6382</v>
+        <v>65802</v>
       </c>
       <c r="F782">
         <v>5980</v>
@@ -30758,7 +30758,7 @@
         <v>5941</v>
       </c>
       <c r="E783">
-        <v>3346</v>
+        <v>62504</v>
       </c>
       <c r="F783">
         <v>2605</v>
@@ -30793,7 +30793,7 @@
         <v>8403</v>
       </c>
       <c r="E784">
-        <v>3965</v>
+        <v>57528</v>
       </c>
       <c r="F784">
         <v>3948</v>
@@ -30828,7 +30828,7 @@
         <v>7668</v>
       </c>
       <c r="E785">
-        <v>2966</v>
+        <v>41089</v>
       </c>
       <c r="F785">
         <v>3783</v>
@@ -30863,7 +30863,7 @@
         <v>22828</v>
       </c>
       <c r="E786">
-        <v>11712</v>
+        <v>53801</v>
       </c>
       <c r="F786">
         <v>9490</v>
@@ -30898,7 +30898,7 @@
         <v>8237</v>
       </c>
       <c r="E787">
-        <v>3994</v>
+        <v>67788</v>
       </c>
       <c r="F787">
         <v>3961</v>
@@ -30933,7 +30933,7 @@
         <v>5480</v>
       </c>
       <c r="E788">
-        <v>3151</v>
+        <v>64525</v>
       </c>
       <c r="F788">
         <v>1867</v>
@@ -30968,7 +30968,7 @@
         <v>9711</v>
       </c>
       <c r="E789">
-        <v>5834</v>
+        <v>74246</v>
       </c>
       <c r="F789">
         <v>4209</v>
@@ -31003,7 +31003,7 @@
         <v>24783</v>
       </c>
       <c r="E790">
-        <v>13894</v>
+        <v>58588</v>
       </c>
       <c r="F790">
         <v>8290</v>
@@ -31038,7 +31038,7 @@
         <v>6403</v>
       </c>
       <c r="E791">
-        <v>3119</v>
+        <v>48366</v>
       </c>
       <c r="F791">
         <v>3028</v>
@@ -31073,7 +31073,7 @@
         <v>4489</v>
       </c>
       <c r="E792">
-        <v>2100</v>
+        <v>57847</v>
       </c>
       <c r="F792">
         <v>1815</v>
@@ -31108,7 +31108,7 @@
         <v>17384</v>
       </c>
       <c r="E793">
-        <v>9392</v>
+        <v>64490</v>
       </c>
       <c r="F793">
         <v>6138</v>
@@ -31143,7 +31143,7 @@
         <v>19007</v>
       </c>
       <c r="E794">
-        <v>10159</v>
+        <v>51967</v>
       </c>
       <c r="F794">
         <v>7953</v>
@@ -31178,7 +31178,7 @@
         <v>3897</v>
       </c>
       <c r="E795">
-        <v>2044</v>
+        <v>50701</v>
       </c>
       <c r="F795">
         <v>1575</v>
@@ -31213,7 +31213,7 @@
         <v>10279</v>
       </c>
       <c r="E796">
-        <v>4896</v>
+        <v>49747</v>
       </c>
       <c r="F796">
         <v>4235</v>
@@ -31283,7 +31283,7 @@
         <v>16517</v>
       </c>
       <c r="E798">
-        <v>8856</v>
+        <v>73910</v>
       </c>
       <c r="F798">
         <v>6554</v>
@@ -31318,7 +31318,7 @@
         <v>5030</v>
       </c>
       <c r="E799">
-        <v>2571</v>
+        <v>72667</v>
       </c>
       <c r="F799">
         <v>2057</v>
@@ -31353,7 +31353,7 @@
         <v>13664</v>
       </c>
       <c r="E800">
-        <v>7602</v>
+        <v>63266</v>
       </c>
       <c r="F800">
         <v>4568</v>
@@ -31388,7 +31388,7 @@
         <v>3392</v>
       </c>
       <c r="E801">
-        <v>1894</v>
+        <v>61227</v>
       </c>
       <c r="F801">
         <v>1500</v>
@@ -31423,7 +31423,7 @@
         <v>3974</v>
       </c>
       <c r="E802">
-        <v>1957</v>
+        <v>46823</v>
       </c>
       <c r="F802">
         <v>1765</v>
@@ -31458,7 +31458,7 @@
         <v>7779</v>
       </c>
       <c r="E803">
-        <v>6321</v>
+        <v>61651</v>
       </c>
       <c r="F803">
         <v>3609</v>
@@ -31493,7 +31493,7 @@
         <v>0</v>
       </c>
       <c r="E804">
-        <v>6492</v>
+        <v>64935</v>
       </c>
       <c r="F804">
         <v>6270</v>
@@ -31528,7 +31528,7 @@
         <v>9873</v>
       </c>
       <c r="E805">
-        <v>6317</v>
+        <v>84383</v>
       </c>
       <c r="F805">
         <v>5015</v>
@@ -31563,7 +31563,7 @@
         <v>6843</v>
       </c>
       <c r="E806">
-        <v>3851</v>
+        <v>61316</v>
       </c>
       <c r="F806">
         <v>3252</v>
@@ -31598,7 +31598,7 @@
         <v>4280</v>
       </c>
       <c r="E807">
-        <v>1956</v>
+        <v>46907</v>
       </c>
       <c r="F807">
         <v>1888</v>
@@ -31633,7 +31633,7 @@
         <v>4683</v>
       </c>
       <c r="E808">
-        <v>2036</v>
+        <v>46486</v>
       </c>
       <c r="F808">
         <v>2195</v>
@@ -31668,7 +31668,7 @@
         <v>6143</v>
       </c>
       <c r="E809">
-        <v>2704</v>
+        <v>43117</v>
       </c>
       <c r="F809">
         <v>3105</v>
@@ -31703,7 +31703,7 @@
         <v>6098</v>
       </c>
       <c r="E810">
-        <v>2844</v>
+        <v>48531</v>
       </c>
       <c r="F810">
         <v>2713</v>
@@ -31738,7 +31738,7 @@
         <v>0</v>
       </c>
       <c r="E811">
-        <v>9676</v>
+        <v>49021</v>
       </c>
       <c r="F811">
         <v>8095</v>
@@ -31773,7 +31773,7 @@
         <v>22144</v>
       </c>
       <c r="E812">
-        <v>11944</v>
+        <v>66058</v>
       </c>
       <c r="F812">
         <v>8345</v>
@@ -31808,7 +31808,7 @@
         <v>21064</v>
       </c>
       <c r="E813">
-        <v>9310</v>
+        <v>42288</v>
       </c>
       <c r="F813">
         <v>7729</v>
@@ -31843,7 +31843,7 @@
         <v>3353</v>
       </c>
       <c r="E814">
-        <v>1488</v>
+        <v>42497</v>
       </c>
       <c r="F814">
         <v>1821</v>
@@ -31878,7 +31878,7 @@
         <v>6178</v>
       </c>
       <c r="E815">
-        <v>2185</v>
+        <v>42030</v>
       </c>
       <c r="F815">
         <v>4511</v>
@@ -31913,7 +31913,7 @@
         <v>11175</v>
       </c>
       <c r="E816">
-        <v>4888</v>
+        <v>53061</v>
       </c>
       <c r="F816">
         <v>3227</v>
@@ -31948,7 +31948,7 @@
         <v>11128</v>
       </c>
       <c r="E817">
-        <v>7351</v>
+        <v>99722</v>
       </c>
       <c r="F817">
         <v>5257</v>
@@ -31983,7 +31983,7 @@
         <v>5512</v>
       </c>
       <c r="E818">
-        <v>3241</v>
+        <v>34249</v>
       </c>
       <c r="F818">
         <v>2707</v>
@@ -32018,7 +32018,7 @@
         <v>5857</v>
       </c>
       <c r="E819">
-        <v>3242</v>
+        <v>35607</v>
       </c>
       <c r="F819">
         <v>2805</v>
@@ -32053,7 +32053,7 @@
         <v>8225</v>
       </c>
       <c r="E820">
-        <v>3975</v>
+        <v>47338</v>
       </c>
       <c r="F820">
         <v>4295</v>
@@ -32088,7 +32088,7 @@
         <v>14419</v>
       </c>
       <c r="E821">
-        <v>7864</v>
+        <v>67313</v>
       </c>
       <c r="F821">
         <v>6169</v>
@@ -32123,7 +32123,7 @@
         <v>7291</v>
       </c>
       <c r="E822">
-        <v>3356</v>
+        <v>50985</v>
       </c>
       <c r="F822">
         <v>3074</v>
@@ -32158,7 +32158,7 @@
         <v>7546</v>
       </c>
       <c r="E823">
-        <v>3334</v>
+        <v>50503</v>
       </c>
       <c r="F823">
         <v>3456</v>
@@ -32193,7 +32193,7 @@
         <v>7060</v>
       </c>
       <c r="E824">
-        <v>3935</v>
+        <v>62653</v>
       </c>
       <c r="F824">
         <v>2621</v>
@@ -32228,7 +32228,7 @@
         <v>17231</v>
       </c>
       <c r="E825">
-        <v>9240</v>
+        <v>93089</v>
       </c>
       <c r="F825">
         <v>8503</v>
@@ -32263,7 +32263,7 @@
         <v>5012</v>
       </c>
       <c r="E826">
-        <v>2439</v>
+        <v>50432</v>
       </c>
       <c r="F826">
         <v>2127</v>
@@ -32298,7 +32298,7 @@
         <v>5897</v>
       </c>
       <c r="E827">
-        <v>2874</v>
+        <v>55040</v>
       </c>
       <c r="F827">
         <v>2726</v>
@@ -32333,7 +32333,7 @@
         <v>13238</v>
       </c>
       <c r="E828">
-        <v>7411</v>
+        <v>62366</v>
       </c>
       <c r="F828">
         <v>4587</v>
@@ -32368,7 +32368,7 @@
         <v>27686</v>
       </c>
       <c r="E829">
-        <v>15758</v>
+        <v>60091</v>
       </c>
       <c r="F829">
         <v>10662</v>
@@ -32403,7 +32403,7 @@
         <v>17126</v>
       </c>
       <c r="E830">
-        <v>8645</v>
+        <v>99501</v>
       </c>
       <c r="F830">
         <v>6279</v>
@@ -32438,7 +32438,7 @@
         <v>17746</v>
       </c>
       <c r="E831">
-        <v>13984</v>
+        <v>77569</v>
       </c>
       <c r="F831">
         <v>9272</v>
@@ -32473,7 +32473,7 @@
         <v>5701</v>
       </c>
       <c r="E832">
-        <v>2415</v>
+        <v>47239</v>
       </c>
       <c r="F832">
         <v>2687</v>
@@ -32508,7 +32508,7 @@
         <v>11079</v>
       </c>
       <c r="E833">
-        <v>5709</v>
+        <v>47496</v>
       </c>
       <c r="F833">
         <v>4933</v>
@@ -32543,7 +32543,7 @@
         <v>6442</v>
       </c>
       <c r="E834">
-        <v>3026</v>
+        <v>42713</v>
       </c>
       <c r="F834">
         <v>2861</v>
@@ -32578,7 +32578,7 @@
         <v>12400</v>
       </c>
       <c r="E835">
-        <v>6261</v>
+        <v>61141</v>
       </c>
       <c r="F835">
         <v>5285</v>
@@ -32613,7 +32613,7 @@
         <v>9107</v>
       </c>
       <c r="E836">
-        <v>4595</v>
+        <v>107837</v>
       </c>
       <c r="F836">
         <v>3533</v>
@@ -32648,7 +32648,7 @@
         <v>11800</v>
       </c>
       <c r="E837">
-        <v>5401</v>
+        <v>60615</v>
       </c>
       <c r="F837">
         <v>5246</v>
@@ -32683,7 +32683,7 @@
         <v>29636</v>
       </c>
       <c r="E838">
-        <v>33934</v>
+        <v>49432</v>
       </c>
       <c r="F838">
         <v>13825</v>
@@ -32718,7 +32718,7 @@
         <v>16756</v>
       </c>
       <c r="E839">
-        <v>7871</v>
+        <v>70758</v>
       </c>
       <c r="F839">
         <v>6211</v>
@@ -32753,7 +32753,7 @@
         <v>6090</v>
       </c>
       <c r="E840">
-        <v>2475</v>
+        <v>42788</v>
       </c>
       <c r="F840">
         <v>2564</v>
@@ -32788,7 +32788,7 @@
         <v>20793</v>
       </c>
       <c r="E841">
-        <v>10798</v>
+        <v>51352</v>
       </c>
       <c r="F841">
         <v>8964</v>
@@ -32823,7 +32823,7 @@
         <v>15442</v>
       </c>
       <c r="E842">
-        <v>8172</v>
+        <v>55873</v>
       </c>
       <c r="F842">
         <v>6847</v>
@@ -32858,7 +32858,7 @@
         <v>5751</v>
       </c>
       <c r="E843">
-        <v>2774</v>
+        <v>44295</v>
       </c>
       <c r="F843">
         <v>2199</v>
@@ -32893,7 +32893,7 @@
         <v>18823</v>
       </c>
       <c r="E844">
-        <v>8964</v>
+        <v>53920</v>
       </c>
       <c r="F844">
         <v>8032</v>
@@ -32928,7 +32928,7 @@
         <v>4704</v>
       </c>
       <c r="E845">
-        <v>2519</v>
+        <v>54597</v>
       </c>
       <c r="F845">
         <v>2120</v>
@@ -32963,7 +32963,7 @@
         <v>4272</v>
       </c>
       <c r="E846">
-        <v>1391</v>
+        <v>42340</v>
       </c>
       <c r="F846">
         <v>2189</v>
@@ -32998,7 +32998,7 @@
         <v>20894</v>
       </c>
       <c r="E847">
-        <v>7769</v>
+        <v>45496</v>
       </c>
       <c r="F847">
         <v>9206</v>
@@ -33033,7 +33033,7 @@
         <v>12538</v>
       </c>
       <c r="E848">
-        <v>4765</v>
+        <v>47349</v>
       </c>
       <c r="F848">
         <v>6187</v>
@@ -33068,7 +33068,7 @@
         <v>6817</v>
       </c>
       <c r="E849">
-        <v>3618</v>
+        <v>43196</v>
       </c>
       <c r="F849">
         <v>3060</v>
@@ -33103,7 +33103,7 @@
         <v>6330</v>
       </c>
       <c r="E850">
-        <v>3328</v>
+        <v>73589</v>
       </c>
       <c r="F850">
         <v>2526</v>
@@ -33138,7 +33138,7 @@
         <v>6828</v>
       </c>
       <c r="E851">
-        <v>2840</v>
+        <v>45350</v>
       </c>
       <c r="F851">
         <v>3133</v>
@@ -33173,7 +33173,7 @@
         <v>3296</v>
       </c>
       <c r="E852">
-        <v>1823</v>
+        <v>54543</v>
       </c>
       <c r="F852">
         <v>1453</v>
@@ -33208,7 +33208,7 @@
         <v>6697</v>
       </c>
       <c r="E853">
-        <v>2442</v>
+        <v>40538</v>
       </c>
       <c r="F853">
         <v>3716</v>
@@ -33243,7 +33243,7 @@
         <v>5538</v>
       </c>
       <c r="E854">
-        <v>2238</v>
+        <v>42007</v>
       </c>
       <c r="F854">
         <v>3024</v>
@@ -33278,7 +33278,7 @@
         <v>15383</v>
       </c>
       <c r="E855">
-        <v>8517</v>
+        <v>54494</v>
       </c>
       <c r="F855">
         <v>9383</v>
@@ -33313,7 +33313,7 @@
         <v>9314</v>
       </c>
       <c r="E856">
-        <v>5133</v>
+        <v>63257</v>
       </c>
       <c r="F856">
         <v>2987</v>
@@ -33348,7 +33348,7 @@
         <v>8358</v>
       </c>
       <c r="E857">
-        <v>3781</v>
+        <v>66493</v>
       </c>
       <c r="F857">
         <v>3684</v>
@@ -33383,7 +33383,7 @@
         <v>10186</v>
       </c>
       <c r="E858">
-        <v>6075</v>
+        <v>72155</v>
       </c>
       <c r="F858">
         <v>3726</v>
@@ -33418,7 +33418,7 @@
         <v>11686</v>
       </c>
       <c r="E859">
-        <v>6298</v>
+        <v>77169</v>
       </c>
       <c r="F859">
         <v>4593</v>
@@ -33453,7 +33453,7 @@
         <v>5505</v>
       </c>
       <c r="E860">
-        <v>2391</v>
+        <v>53202</v>
       </c>
       <c r="F860">
         <v>2327</v>
@@ -33488,7 +33488,7 @@
         <v>2735</v>
       </c>
       <c r="E861">
-        <v>1428</v>
+        <v>74439</v>
       </c>
       <c r="F861">
         <v>946</v>
@@ -33523,7 +33523,7 @@
         <v>9902</v>
       </c>
       <c r="E862">
-        <v>4362</v>
+        <v>44842</v>
       </c>
       <c r="F862">
         <v>4991</v>
@@ -33558,7 +33558,7 @@
         <v>22570</v>
       </c>
       <c r="E863">
-        <v>12048</v>
+        <v>62389</v>
       </c>
       <c r="F863">
         <v>8093</v>
@@ -33593,7 +33593,7 @@
         <v>16229</v>
       </c>
       <c r="E864">
-        <v>7772</v>
+        <v>74872</v>
       </c>
       <c r="F864">
         <v>7452</v>
@@ -33628,7 +33628,7 @@
         <v>13753</v>
       </c>
       <c r="E865">
-        <v>7326</v>
+        <v>52598</v>
       </c>
       <c r="F865">
         <v>6487</v>
@@ -33663,7 +33663,7 @@
         <v>10012</v>
       </c>
       <c r="E866">
-        <v>5316</v>
+        <v>67482</v>
       </c>
       <c r="F866">
         <v>4594</v>
@@ -33698,7 +33698,7 @@
         <v>13278</v>
       </c>
       <c r="E867">
-        <v>7828</v>
+        <v>56735</v>
       </c>
       <c r="F867">
         <v>4862</v>
@@ -33733,7 +33733,7 @@
         <v>15269</v>
       </c>
       <c r="E868">
-        <v>5695</v>
+        <v>48615</v>
       </c>
       <c r="F868">
         <v>7938</v>
@@ -33768,7 +33768,7 @@
         <v>3799</v>
       </c>
       <c r="E869">
-        <v>1868</v>
+        <v>60243</v>
       </c>
       <c r="F869">
         <v>1187</v>
@@ -33803,7 +33803,7 @@
         <v>4775</v>
       </c>
       <c r="E870">
-        <v>1120</v>
+        <v>40170</v>
       </c>
       <c r="F870">
         <v>1248</v>
@@ -33838,7 +33838,7 @@
         <v>4325</v>
       </c>
       <c r="E871">
-        <v>2459</v>
+        <v>63423</v>
       </c>
       <c r="F871">
         <v>2010</v>
@@ -33873,7 +33873,7 @@
         <v>6014</v>
       </c>
       <c r="E872">
-        <v>2787</v>
+        <v>48112</v>
       </c>
       <c r="F872">
         <v>3098</v>
@@ -33908,7 +33908,7 @@
         <v>27361</v>
       </c>
       <c r="E873">
-        <v>14111</v>
+        <v>64160</v>
       </c>
       <c r="F873">
         <v>12092</v>
@@ -33943,7 +33943,7 @@
         <v>4648</v>
       </c>
       <c r="E874">
-        <v>2553</v>
+        <v>58452</v>
       </c>
       <c r="F874">
         <v>2085</v>
@@ -33978,7 +33978,7 @@
         <v>4425</v>
       </c>
       <c r="E875">
-        <v>2013</v>
+        <v>41649</v>
       </c>
       <c r="F875">
         <v>4033</v>
@@ -34013,7 +34013,7 @@
         <v>5302</v>
       </c>
       <c r="E876">
-        <v>2845</v>
+        <v>57086</v>
       </c>
       <c r="F876">
         <v>1989</v>
@@ -34048,7 +34048,7 @@
         <v>10872</v>
       </c>
       <c r="E877">
-        <v>6253</v>
+        <v>41531</v>
       </c>
       <c r="F877">
         <v>5995</v>
@@ -34083,7 +34083,7 @@
         <v>3491</v>
       </c>
       <c r="E878">
-        <v>1607</v>
+        <v>51592</v>
       </c>
       <c r="F878">
         <v>1701</v>
@@ -34118,7 +34118,7 @@
         <v>6399</v>
       </c>
       <c r="E879">
-        <v>3149</v>
+        <v>54615</v>
       </c>
       <c r="F879">
         <v>2892</v>
@@ -34153,7 +34153,7 @@
         <v>4763</v>
       </c>
       <c r="E880">
-        <v>2229</v>
+        <v>52169</v>
       </c>
       <c r="F880">
         <v>2395</v>
@@ -34188,7 +34188,7 @@
         <v>19932</v>
       </c>
       <c r="E881">
-        <v>8744</v>
+        <v>48615</v>
       </c>
       <c r="F881">
         <v>10128</v>
@@ -34223,7 +34223,7 @@
         <v>15618</v>
       </c>
       <c r="E882">
-        <v>6470</v>
+        <v>43512</v>
       </c>
       <c r="F882">
         <v>8831</v>
@@ -34258,7 +34258,7 @@
         <v>5128</v>
       </c>
       <c r="E883">
-        <v>2071</v>
+        <v>44311</v>
       </c>
       <c r="F883">
         <v>4059</v>
@@ -34293,7 +34293,7 @@
         <v>24235</v>
       </c>
       <c r="E884">
-        <v>11018</v>
+        <v>55832</v>
       </c>
       <c r="F884">
         <v>12039</v>
@@ -34328,7 +34328,7 @@
         <v>3355</v>
       </c>
       <c r="E885">
-        <v>1664</v>
+        <v>58471</v>
       </c>
       <c r="F885">
         <v>1007</v>
@@ -34363,7 +34363,7 @@
         <v>12842</v>
       </c>
       <c r="E886">
-        <v>5402</v>
+        <v>49086</v>
       </c>
       <c r="F886">
         <v>6099</v>
@@ -34398,7 +34398,7 @@
         <v>4739</v>
       </c>
       <c r="E887">
-        <v>2018</v>
+        <v>48748</v>
       </c>
       <c r="F887">
         <v>2365</v>
@@ -34433,7 +34433,7 @@
         <v>12340</v>
       </c>
       <c r="E888">
-        <v>6644</v>
+        <v>68874</v>
       </c>
       <c r="F888">
         <v>4663</v>
@@ -34468,7 +34468,7 @@
         <v>14719</v>
       </c>
       <c r="E889">
-        <v>4976</v>
+        <v>44541</v>
       </c>
       <c r="F889">
         <v>9178</v>
@@ -34503,7 +34503,7 @@
         <v>19018</v>
       </c>
       <c r="E890">
-        <v>9613</v>
+        <v>67350</v>
       </c>
       <c r="F890">
         <v>7250</v>
@@ -34538,7 +34538,7 @@
         <v>6055</v>
       </c>
       <c r="E891">
-        <v>1164</v>
+        <v>43746</v>
       </c>
       <c r="F891">
         <v>1007</v>
@@ -34573,7 +34573,7 @@
         <v>2345</v>
       </c>
       <c r="E892">
-        <v>1289</v>
+        <v>59864</v>
       </c>
       <c r="F892">
         <v>726</v>
@@ -34608,7 +34608,7 @@
         <v>17004</v>
       </c>
       <c r="E893">
-        <v>8830</v>
+        <v>56818</v>
       </c>
       <c r="F893">
         <v>6879</v>
@@ -34643,7 +34643,7 @@
         <v>4542</v>
       </c>
       <c r="E894">
-        <v>2455</v>
+        <v>58052</v>
       </c>
       <c r="F894">
         <v>1530</v>
@@ -34678,7 +34678,7 @@
         <v>21709</v>
       </c>
       <c r="E895">
-        <v>11383</v>
+        <v>55783</v>
       </c>
       <c r="F895">
         <v>8831</v>
@@ -34713,7 +34713,7 @@
         <v>12545</v>
       </c>
       <c r="E896">
-        <v>6217</v>
+        <v>52261</v>
       </c>
       <c r="F896">
         <v>5849</v>
@@ -34748,7 +34748,7 @@
         <v>15069</v>
       </c>
       <c r="E897">
-        <v>7185</v>
+        <v>52962</v>
       </c>
       <c r="F897">
         <v>6040</v>
@@ -34783,7 +34783,7 @@
         <v>5029</v>
       </c>
       <c r="E898">
-        <v>2290</v>
+        <v>44948</v>
       </c>
       <c r="F898">
         <v>2486</v>
@@ -34818,7 +34818,7 @@
         <v>0</v>
       </c>
       <c r="E899">
-        <v>9510</v>
+        <v>103911</v>
       </c>
       <c r="F899">
         <v>6204</v>
@@ -34853,7 +34853,7 @@
         <v>6744</v>
       </c>
       <c r="E900">
-        <v>2957</v>
+        <v>42260</v>
       </c>
       <c r="F900">
         <v>4188</v>
@@ -34888,7 +34888,7 @@
         <v>0</v>
       </c>
       <c r="E901">
-        <v>5995</v>
+        <v>74440</v>
       </c>
       <c r="F901">
         <v>3914</v>
@@ -34923,7 +34923,7 @@
         <v>9651</v>
       </c>
       <c r="E902">
-        <v>3791</v>
+        <v>45173</v>
       </c>
       <c r="F902">
         <v>5128</v>
@@ -34958,7 +34958,7 @@
         <v>3268</v>
       </c>
       <c r="E903">
-        <v>1381</v>
+        <v>42709</v>
       </c>
       <c r="F903">
         <v>1668</v>
@@ -34993,7 +34993,7 @@
         <v>6629</v>
       </c>
       <c r="E904">
-        <v>2502</v>
+        <v>43365</v>
       </c>
       <c r="F904">
         <v>3864</v>
@@ -35028,7 +35028,7 @@
         <v>8497</v>
       </c>
       <c r="E905">
-        <v>4636</v>
+        <v>68517</v>
       </c>
       <c r="F905">
         <v>3263</v>
@@ -35063,7 +35063,7 @@
         <v>10866</v>
       </c>
       <c r="E906">
-        <v>4585</v>
+        <v>46571</v>
       </c>
       <c r="F906">
         <v>4854</v>
@@ -35098,7 +35098,7 @@
         <v>4123</v>
       </c>
       <c r="E907">
-        <v>1371</v>
+        <v>47722</v>
       </c>
       <c r="F907">
         <v>2834</v>
@@ -35133,7 +35133,7 @@
         <v>17354</v>
       </c>
       <c r="E908">
-        <v>8546</v>
+        <v>52479</v>
       </c>
       <c r="F908">
         <v>7328</v>
@@ -35168,7 +35168,7 @@
         <v>18940</v>
       </c>
       <c r="E909">
-        <v>9314</v>
+        <v>50454</v>
       </c>
       <c r="F909">
         <v>8806</v>
@@ -35203,7 +35203,7 @@
         <v>9652</v>
       </c>
       <c r="E910">
-        <v>4822</v>
+        <v>50259</v>
       </c>
       <c r="F910">
         <v>4263</v>
@@ -35238,7 +35238,7 @@
         <v>2002</v>
       </c>
       <c r="E911">
-        <v>1141</v>
+        <v>70082</v>
       </c>
       <c r="F911">
         <v>649</v>
@@ -35273,7 +35273,7 @@
         <v>14425</v>
       </c>
       <c r="E912">
-        <v>7503</v>
+        <v>60142</v>
       </c>
       <c r="F912">
         <v>5292</v>
@@ -35308,7 +35308,7 @@
         <v>18580</v>
       </c>
       <c r="E913">
-        <v>9646</v>
+        <v>60337</v>
       </c>
       <c r="F913">
         <v>6610</v>
@@ -35343,7 +35343,7 @@
         <v>12477</v>
       </c>
       <c r="E914">
-        <v>6274</v>
+        <v>57470</v>
       </c>
       <c r="F914">
         <v>5311</v>
@@ -35378,7 +35378,7 @@
         <v>21039</v>
       </c>
       <c r="E915">
-        <v>9113</v>
+        <v>53442</v>
       </c>
       <c r="F915">
         <v>8696</v>
@@ -35413,7 +35413,7 @@
         <v>15637</v>
       </c>
       <c r="E916">
-        <v>8529</v>
+        <v>59013</v>
       </c>
       <c r="F916">
         <v>5099</v>
@@ -35448,7 +35448,7 @@
         <v>19088</v>
       </c>
       <c r="E917">
-        <v>9863</v>
+        <v>55764</v>
       </c>
       <c r="F917">
         <v>8044</v>
@@ -35483,7 +35483,7 @@
         <v>25377</v>
       </c>
       <c r="E918">
-        <v>14113</v>
+        <v>73889</v>
       </c>
       <c r="F918">
         <v>9263</v>
@@ -35518,7 +35518,7 @@
         <v>21442</v>
       </c>
       <c r="E919">
-        <v>11801</v>
+        <v>56346</v>
       </c>
       <c r="F919">
         <v>9069</v>
@@ -35553,7 +35553,7 @@
         <v>15395</v>
       </c>
       <c r="E920">
-        <v>7161</v>
+        <v>47250</v>
       </c>
       <c r="F920">
         <v>6878</v>
@@ -35588,7 +35588,7 @@
         <v>0</v>
       </c>
       <c r="E921">
-        <v>2682</v>
+        <v>49889</v>
       </c>
       <c r="F921">
         <v>2618</v>
@@ -35623,7 +35623,7 @@
         <v>3361</v>
       </c>
       <c r="E922">
-        <v>1355</v>
+        <v>48118</v>
       </c>
       <c r="F922">
         <v>1784</v>
@@ -35658,7 +35658,7 @@
         <v>11345</v>
       </c>
       <c r="E923">
-        <v>5067</v>
+        <v>49812</v>
       </c>
       <c r="F923">
         <v>4409</v>
@@ -35693,7 +35693,7 @@
         <v>3564</v>
       </c>
       <c r="E924">
-        <v>1697</v>
+        <v>47843</v>
       </c>
       <c r="F924">
         <v>1475</v>
@@ -35728,7 +35728,7 @@
         <v>4039</v>
       </c>
       <c r="E925">
-        <v>2441</v>
+        <v>82724</v>
       </c>
       <c r="F925">
         <v>1649</v>
@@ -35763,7 +35763,7 @@
         <v>9060</v>
       </c>
       <c r="E926">
-        <v>3367</v>
+        <v>49383</v>
       </c>
       <c r="F926">
         <v>3792</v>
@@ -35798,7 +35798,7 @@
         <v>6087</v>
       </c>
       <c r="E927">
-        <v>2891</v>
+        <v>44563</v>
       </c>
       <c r="F927">
         <v>2861</v>
@@ -35833,7 +35833,7 @@
         <v>3684</v>
       </c>
       <c r="E928">
-        <v>1479</v>
+        <v>43779</v>
       </c>
       <c r="F928">
         <v>1921</v>
@@ -35868,7 +35868,7 @@
         <v>0</v>
       </c>
       <c r="E929">
-        <v>10034</v>
+        <v>61772</v>
       </c>
       <c r="F929">
         <v>5629</v>
@@ -35903,7 +35903,7 @@
         <v>0</v>
       </c>
       <c r="E930">
-        <v>9679</v>
+        <v>51761</v>
       </c>
       <c r="F930">
         <v>7559</v>
@@ -35938,7 +35938,7 @@
         <v>11776</v>
       </c>
       <c r="E931">
-        <v>6653</v>
+        <v>58939</v>
       </c>
       <c r="F931">
         <v>4966</v>
@@ -35973,7 +35973,7 @@
         <v>3681</v>
       </c>
       <c r="E932">
-        <v>1479</v>
+        <v>42720</v>
       </c>
       <c r="F932">
         <v>2572</v>
@@ -36008,7 +36008,7 @@
         <v>4210</v>
       </c>
       <c r="E933">
-        <v>1901</v>
+        <v>57262</v>
       </c>
       <c r="F933">
         <v>2948</v>
@@ -36043,7 +36043,7 @@
         <v>10337</v>
       </c>
       <c r="E934">
-        <v>8395</v>
+        <v>65699</v>
       </c>
       <c r="F934">
         <v>4827</v>
@@ -36078,7 +36078,7 @@
         <v>4800</v>
       </c>
       <c r="E935">
-        <v>2309</v>
+        <v>68954</v>
       </c>
       <c r="F935">
         <v>2565</v>
@@ -36113,7 +36113,7 @@
         <v>6055</v>
       </c>
       <c r="E936">
-        <v>3536</v>
+        <v>61970</v>
       </c>
       <c r="F936">
         <v>2868</v>
@@ -36148,7 +36148,7 @@
         <v>14841</v>
       </c>
       <c r="E937">
-        <v>7086</v>
+        <v>62973</v>
       </c>
       <c r="F937">
         <v>6956</v>
@@ -36183,7 +36183,7 @@
         <v>4198</v>
       </c>
       <c r="E938">
-        <v>2276</v>
+        <v>56016</v>
       </c>
       <c r="F938">
         <v>1937</v>
@@ -36218,7 +36218,7 @@
         <v>6252</v>
       </c>
       <c r="E939">
-        <v>3283</v>
+        <v>67138</v>
       </c>
       <c r="F939">
         <v>2867</v>
@@ -36253,7 +36253,7 @@
         <v>2782</v>
       </c>
       <c r="E940">
-        <v>1145</v>
+        <v>41333</v>
       </c>
       <c r="F940">
         <v>1617</v>
@@ -36288,7 +36288,7 @@
         <v>5997</v>
       </c>
       <c r="E941">
-        <v>2434</v>
+        <v>49672</v>
       </c>
       <c r="F941">
         <v>2930</v>
@@ -36323,7 +36323,7 @@
         <v>4047</v>
       </c>
       <c r="E942">
-        <v>1877</v>
+        <v>46586</v>
       </c>
       <c r="F942">
         <v>1804</v>
@@ -36358,7 +36358,7 @@
         <v>6547</v>
       </c>
       <c r="E943">
-        <v>3621</v>
+        <v>44056</v>
       </c>
       <c r="F943">
         <v>3259</v>
@@ -36393,7 +36393,7 @@
         <v>80</v>
       </c>
       <c r="E944">
-        <v>8</v>
+        <v>61367</v>
       </c>
       <c r="F944">
         <v>23</v>
@@ -36428,7 +36428,7 @@
         <v>11914</v>
       </c>
       <c r="E945">
-        <v>6722</v>
+        <v>53985</v>
       </c>
       <c r="F945">
         <v>4649</v>
@@ -36463,7 +36463,7 @@
         <v>8462</v>
       </c>
       <c r="E946">
-        <v>4668</v>
+        <v>63890</v>
       </c>
       <c r="F946">
         <v>3732</v>
@@ -36498,7 +36498,7 @@
         <v>8436</v>
       </c>
       <c r="E947">
-        <v>4231</v>
+        <v>58059</v>
       </c>
       <c r="F947">
         <v>3122</v>
@@ -36533,7 +36533,7 @@
         <v>22432</v>
       </c>
       <c r="E948">
-        <v>9699</v>
+        <v>61900</v>
       </c>
       <c r="F948">
         <v>11152</v>
@@ -36568,7 +36568,7 @@
         <v>17</v>
       </c>
       <c r="E949">
-        <v>14</v>
+        <v>53486</v>
       </c>
       <c r="F949">
         <v>22</v>
@@ -36603,7 +36603,7 @@
         <v>16389</v>
       </c>
       <c r="E950">
-        <v>8820</v>
+        <v>84546</v>
       </c>
       <c r="F950">
         <v>6619</v>
@@ -36638,7 +36638,7 @@
         <v>13</v>
       </c>
       <c r="E951">
-        <v>11</v>
+        <v>68186</v>
       </c>
       <c r="F951">
         <v>19</v>
@@ -36673,7 +36673,7 @@
         <v>13515</v>
       </c>
       <c r="E952">
-        <v>6238</v>
+        <v>49382</v>
       </c>
       <c r="F952">
         <v>6083</v>
@@ -36708,7 +36708,7 @@
         <v>5824</v>
       </c>
       <c r="E953">
-        <v>2994</v>
+        <v>55309</v>
       </c>
       <c r="F953">
         <v>2463</v>
@@ -36743,7 +36743,7 @@
         <v>0</v>
       </c>
       <c r="E954">
-        <v>1894</v>
+        <v>58010</v>
       </c>
       <c r="F954">
         <v>2083</v>
@@ -36778,7 +36778,7 @@
         <v>15743</v>
       </c>
       <c r="E955">
-        <v>8683</v>
+        <v>58826</v>
       </c>
       <c r="F955">
         <v>5936</v>
@@ -36813,7 +36813,7 @@
         <v>20696</v>
       </c>
       <c r="E956">
-        <v>10828</v>
+        <v>54097</v>
       </c>
       <c r="F956">
         <v>9143</v>
@@ -36848,7 +36848,7 @@
         <v>5491</v>
       </c>
       <c r="E957">
-        <v>2223</v>
+        <v>47262</v>
       </c>
       <c r="F957">
         <v>2325</v>
@@ -36883,7 +36883,7 @@
         <v>6162</v>
       </c>
       <c r="E958">
-        <v>3203</v>
+        <v>73734</v>
       </c>
       <c r="F958">
         <v>2112</v>
@@ -36918,7 +36918,7 @@
         <v>0</v>
       </c>
       <c r="E959">
-        <v>2303</v>
+        <v>52279</v>
       </c>
       <c r="F959">
         <v>2513</v>
@@ -36953,7 +36953,7 @@
         <v>0</v>
       </c>
       <c r="E960">
-        <v>4</v>
+        <v>97169</v>
       </c>
       <c r="F960">
         <v>0</v>
@@ -36988,7 +36988,7 @@
         <v>0</v>
       </c>
       <c r="E961">
-        <v>7865</v>
+        <v>59484</v>
       </c>
       <c r="F961">
         <v>7731</v>
@@ -37023,7 +37023,7 @@
         <v>0</v>
       </c>
       <c r="E962">
-        <v>8398</v>
+        <v>56910</v>
       </c>
       <c r="F962">
         <v>7231</v>
@@ -37058,7 +37058,7 @@
         <v>22577</v>
       </c>
       <c r="E963">
-        <v>9566</v>
+        <v>47967</v>
       </c>
       <c r="F963">
         <v>14471</v>
@@ -37093,7 +37093,7 @@
         <v>8086</v>
       </c>
       <c r="E964">
-        <v>3362</v>
+        <v>54563</v>
       </c>
       <c r="F964">
         <v>2779</v>
@@ -37128,7 +37128,7 @@
         <v>17929</v>
       </c>
       <c r="E965">
-        <v>9255</v>
+        <v>53173</v>
       </c>
       <c r="F965">
         <v>7532</v>
@@ -37163,7 +37163,7 @@
         <v>12830</v>
       </c>
       <c r="E966">
-        <v>6957</v>
+        <v>41938</v>
       </c>
       <c r="F966">
         <v>5861</v>
@@ -37198,7 +37198,7 @@
         <v>5843</v>
       </c>
       <c r="E967">
-        <v>4604</v>
+        <v>54760</v>
       </c>
       <c r="F967">
         <v>2735</v>
@@ -37233,7 +37233,7 @@
         <v>20346</v>
       </c>
       <c r="E968">
-        <v>10616</v>
+        <v>69299</v>
       </c>
       <c r="F968">
         <v>7886</v>
@@ -37268,7 +37268,7 @@
         <v>3</v>
       </c>
       <c r="E969">
-        <v>9</v>
+        <v>78463</v>
       </c>
       <c r="F969">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>14216</v>
       </c>
       <c r="E970">
-        <v>6403</v>
+        <v>57438</v>
       </c>
       <c r="F970">
         <v>6661</v>
@@ -37338,7 +37338,7 @@
         <v>8031</v>
       </c>
       <c r="E971">
-        <v>4683</v>
+        <v>60214</v>
       </c>
       <c r="F971">
         <v>3266</v>
@@ -37373,7 +37373,7 @@
         <v>24270</v>
       </c>
       <c r="E972">
-        <v>13552</v>
+        <v>56757</v>
       </c>
       <c r="F972">
         <v>8044</v>
@@ -37408,7 +37408,7 @@
         <v>11773</v>
       </c>
       <c r="E973">
-        <v>5511</v>
+        <v>55382</v>
       </c>
       <c r="F973">
         <v>4668</v>
@@ -37443,7 +37443,7 @@
         <v>9015</v>
       </c>
       <c r="E974">
-        <v>4066</v>
+        <v>51044</v>
       </c>
       <c r="F974">
         <v>3681</v>
@@ -37478,7 +37478,7 @@
         <v>4643</v>
       </c>
       <c r="E975">
-        <v>2442</v>
+        <v>64596</v>
       </c>
       <c r="F975">
         <v>1886</v>
@@ -37513,7 +37513,7 @@
         <v>5858</v>
       </c>
       <c r="E976">
-        <v>2146</v>
+        <v>46685</v>
       </c>
       <c r="F976">
         <v>4167</v>
@@ -37548,7 +37548,7 @@
         <v>2702</v>
       </c>
       <c r="E977">
-        <v>569</v>
+        <v>38038</v>
       </c>
       <c r="F977">
         <v>506</v>
@@ -37583,7 +37583,7 @@
         <v>5371</v>
       </c>
       <c r="E978">
-        <v>2161</v>
+        <v>50227</v>
       </c>
       <c r="F978">
         <v>3086</v>
@@ -37618,7 +37618,7 @@
         <v>8021</v>
       </c>
       <c r="E979">
-        <v>3479</v>
+        <v>48233</v>
       </c>
       <c r="F979">
         <v>3881</v>
@@ -37653,7 +37653,7 @@
         <v>6693</v>
       </c>
       <c r="E980">
-        <v>2737</v>
+        <v>42762</v>
       </c>
       <c r="F980">
         <v>3547</v>
@@ -37688,7 +37688,7 @@
         <v>6664</v>
       </c>
       <c r="E981">
-        <v>3442</v>
+        <v>59826</v>
       </c>
       <c r="F981">
         <v>2767</v>
@@ -37723,7 +37723,7 @@
         <v>11831</v>
       </c>
       <c r="E982">
-        <v>6329</v>
+        <v>70674</v>
       </c>
       <c r="F982">
         <v>4716</v>
@@ -37758,7 +37758,7 @@
         <v>3604</v>
       </c>
       <c r="E983">
-        <v>1597</v>
+        <v>50598</v>
       </c>
       <c r="F983">
         <v>2015</v>
@@ -37793,7 +37793,7 @@
         <v>18539</v>
       </c>
       <c r="E984">
-        <v>9686</v>
+        <v>65746</v>
       </c>
       <c r="F984">
         <v>8583</v>
@@ -37828,7 +37828,7 @@
         <v>5353</v>
       </c>
       <c r="E985">
-        <v>2219</v>
+        <v>55628</v>
       </c>
       <c r="F985">
         <v>2852</v>
@@ -37863,7 +37863,7 @@
         <v>7261</v>
       </c>
       <c r="E986">
-        <v>2309</v>
+        <v>43657</v>
       </c>
       <c r="F986">
         <v>5652</v>
@@ -37898,7 +37898,7 @@
         <v>4030</v>
       </c>
       <c r="E987">
-        <v>1349</v>
+        <v>44011</v>
       </c>
       <c r="F987">
         <v>4096</v>
@@ -37933,7 +37933,7 @@
         <v>10775</v>
       </c>
       <c r="E988">
-        <v>5029</v>
+        <v>44994</v>
       </c>
       <c r="F988">
         <v>4704</v>
@@ -37968,7 +37968,7 @@
         <v>7396</v>
       </c>
       <c r="E989">
-        <v>3065</v>
+        <v>45346</v>
       </c>
       <c r="F989">
         <v>3940</v>
